--- a/Excell/zhr_ozhr.xlsx
+++ b/Excell/zhr_ozhr.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7DE9C32-DF16-4433-9806-FE32B3D35B67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="6"/>
+    <workbookView xWindow="38280" yWindow="1095" windowWidth="25440" windowHeight="15390" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="L1" sheetId="1" r:id="rId1"/>
@@ -29,12 +30,23 @@
     <definedName name="_xlnm.Print_Area" localSheetId="6">'Part 6'!$A$1:$B$21</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'Part 7'!$A$1:$E$46</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="184">
   <si>
     <t>Застройщик</t>
   </si>
@@ -686,12 +698,15 @@
   <si>
     <t>реконструкции объекта капитального строительства</t>
   </si>
+  <si>
+    <t>table_6</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="30" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -910,6 +925,12 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Franklin Gothic Book"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1063,7 +1084,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1105,27 +1126,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1150,104 +1150,14 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1344,44 +1254,170 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1389,19 +1425,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1413,6 +1446,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1461,7 +1497,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1494,9 +1530,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1529,6 +1582,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1704,3130 +1774,3161 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC142"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:I31"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A118" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="O30" sqref="O30:Y30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="25" customWidth="1"/>
-    <col min="2" max="29" width="3" style="25" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="25"/>
+    <col min="1" max="1" width="3.28515625" style="18" customWidth="1"/>
+    <col min="2" max="29" width="3" style="18" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="120"/>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
-      <c r="J1" s="120"/>
-      <c r="K1" s="120"/>
-      <c r="L1" s="120"/>
-      <c r="M1" s="120"/>
-      <c r="N1" s="120"/>
-      <c r="O1" s="120"/>
-      <c r="P1" s="120"/>
-      <c r="Q1" s="120"/>
-      <c r="R1" s="120"/>
-      <c r="S1" s="120"/>
-      <c r="T1" s="120"/>
-      <c r="U1" s="120"/>
-      <c r="V1" s="120"/>
-      <c r="W1" s="120"/>
-      <c r="X1" s="120"/>
-      <c r="Y1" s="120"/>
-      <c r="Z1" s="120"/>
-      <c r="AA1" s="120"/>
-      <c r="AB1" s="120"/>
-      <c r="AC1" s="120"/>
+      <c r="A1" s="130"/>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="130"/>
+      <c r="K1" s="130"/>
+      <c r="L1" s="130"/>
+      <c r="M1" s="130"/>
+      <c r="N1" s="130"/>
+      <c r="O1" s="130"/>
+      <c r="P1" s="130"/>
+      <c r="Q1" s="130"/>
+      <c r="R1" s="130"/>
+      <c r="S1" s="130"/>
+      <c r="T1" s="130"/>
+      <c r="U1" s="130"/>
+      <c r="V1" s="130"/>
+      <c r="W1" s="130"/>
+      <c r="X1" s="130"/>
+      <c r="Y1" s="130"/>
+      <c r="Z1" s="130"/>
+      <c r="AA1" s="130"/>
+      <c r="AB1" s="130"/>
+      <c r="AC1" s="130"/>
     </row>
     <row r="2" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="119" t="s">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="82" t="s">
         <v>165</v>
       </c>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26"/>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="26"/>
-      <c r="AC2" s="26"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
+      <c r="Y2" s="19"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="19"/>
+      <c r="AB2" s="19"/>
+      <c r="AC2" s="19"/>
     </row>
     <row r="3" spans="1:29" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="138"/>
-      <c r="B3" s="138"/>
-      <c r="C3" s="138"/>
-      <c r="D3" s="138"/>
-      <c r="E3" s="138"/>
-      <c r="F3" s="138"/>
-      <c r="G3" s="138"/>
-      <c r="H3" s="138"/>
-      <c r="I3" s="138"/>
-      <c r="J3" s="138"/>
-      <c r="K3" s="138"/>
-      <c r="L3" s="138"/>
-      <c r="M3" s="138"/>
-      <c r="N3" s="138"/>
-      <c r="O3" s="138"/>
-      <c r="P3" s="138"/>
-      <c r="Q3" s="138"/>
-      <c r="R3" s="138"/>
-      <c r="S3" s="138"/>
-      <c r="T3" s="138"/>
-      <c r="U3" s="138"/>
-      <c r="V3" s="138"/>
-      <c r="W3" s="138"/>
-      <c r="X3" s="138"/>
-      <c r="Y3" s="138"/>
-      <c r="Z3" s="138"/>
-      <c r="AA3" s="138"/>
-      <c r="AB3" s="138"/>
-      <c r="AC3" s="138"/>
+      <c r="A3" s="132"/>
+      <c r="B3" s="132"/>
+      <c r="C3" s="132"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="132"/>
+      <c r="F3" s="132"/>
+      <c r="G3" s="132"/>
+      <c r="H3" s="132"/>
+      <c r="I3" s="132"/>
+      <c r="J3" s="132"/>
+      <c r="K3" s="132"/>
+      <c r="L3" s="132"/>
+      <c r="M3" s="132"/>
+      <c r="N3" s="132"/>
+      <c r="O3" s="132"/>
+      <c r="P3" s="132"/>
+      <c r="Q3" s="132"/>
+      <c r="R3" s="132"/>
+      <c r="S3" s="132"/>
+      <c r="T3" s="132"/>
+      <c r="U3" s="132"/>
+      <c r="V3" s="132"/>
+      <c r="W3" s="132"/>
+      <c r="X3" s="132"/>
+      <c r="Y3" s="132"/>
+      <c r="Z3" s="132"/>
+      <c r="AA3" s="132"/>
+      <c r="AB3" s="132"/>
+      <c r="AC3" s="132"/>
     </row>
     <row r="4" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="26"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="119"/>
-      <c r="N4" s="119" t="s">
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="82"/>
+      <c r="N4" s="82" t="s">
         <v>168</v>
       </c>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="26"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="26"/>
-      <c r="W4" s="26"/>
-      <c r="X4" s="26"/>
-      <c r="Y4" s="26"/>
-      <c r="Z4" s="26"/>
-      <c r="AA4" s="26"/>
-      <c r="AB4" s="26"/>
-      <c r="AC4" s="26"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="19"/>
+      <c r="X4" s="19"/>
+      <c r="Y4" s="19"/>
+      <c r="Z4" s="19"/>
+      <c r="AA4" s="19"/>
+      <c r="AB4" s="19"/>
+      <c r="AC4" s="19"/>
     </row>
     <row r="5" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="121" t="s">
+      <c r="A5" s="131" t="s">
         <v>169</v>
       </c>
-      <c r="B5" s="121"/>
-      <c r="C5" s="121"/>
-      <c r="D5" s="121"/>
-      <c r="E5" s="121"/>
-      <c r="F5" s="121"/>
-      <c r="G5" s="121"/>
-      <c r="H5" s="121"/>
-      <c r="I5" s="121"/>
-      <c r="J5" s="121"/>
-      <c r="K5" s="121"/>
-      <c r="L5" s="121"/>
-      <c r="M5" s="121"/>
-      <c r="N5" s="121"/>
-      <c r="O5" s="121"/>
-      <c r="P5" s="121"/>
-      <c r="Q5" s="121"/>
-      <c r="R5" s="121"/>
-      <c r="S5" s="121"/>
-      <c r="T5" s="121"/>
-      <c r="U5" s="121"/>
-      <c r="V5" s="121"/>
-      <c r="W5" s="121"/>
-      <c r="X5" s="121"/>
-      <c r="Y5" s="121"/>
-      <c r="Z5" s="121"/>
-      <c r="AA5" s="121"/>
-      <c r="AB5" s="121"/>
-      <c r="AC5" s="121"/>
+      <c r="B5" s="131"/>
+      <c r="C5" s="131"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="131"/>
+      <c r="F5" s="131"/>
+      <c r="G5" s="131"/>
+      <c r="H5" s="131"/>
+      <c r="I5" s="131"/>
+      <c r="J5" s="131"/>
+      <c r="K5" s="131"/>
+      <c r="L5" s="131"/>
+      <c r="M5" s="131"/>
+      <c r="N5" s="131"/>
+      <c r="O5" s="131"/>
+      <c r="P5" s="131"/>
+      <c r="Q5" s="131"/>
+      <c r="R5" s="131"/>
+      <c r="S5" s="131"/>
+      <c r="T5" s="131"/>
+      <c r="U5" s="131"/>
+      <c r="V5" s="131"/>
+      <c r="W5" s="131"/>
+      <c r="X5" s="131"/>
+      <c r="Y5" s="131"/>
+      <c r="Z5" s="131"/>
+      <c r="AA5" s="131"/>
+      <c r="AB5" s="131"/>
+      <c r="AC5" s="131"/>
     </row>
     <row r="6" spans="1:29" ht="4.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="26"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="26"/>
-      <c r="S6" s="26"/>
-      <c r="T6" s="26"/>
-      <c r="U6" s="26"/>
-      <c r="V6" s="26"/>
-      <c r="W6" s="26"/>
-      <c r="X6" s="26"/>
-      <c r="Y6" s="26"/>
-      <c r="Z6" s="26"/>
-      <c r="AA6" s="26"/>
-      <c r="AB6" s="26"/>
-      <c r="AC6" s="26"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="19"/>
+      <c r="X6" s="19"/>
+      <c r="Y6" s="19"/>
+      <c r="Z6" s="19"/>
+      <c r="AA6" s="19"/>
+      <c r="AB6" s="19"/>
+      <c r="AC6" s="19"/>
     </row>
     <row r="7" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="28" t="s">
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="29"/>
-      <c r="S7" s="29"/>
-      <c r="T7" s="29"/>
-      <c r="U7" s="29"/>
-      <c r="V7" s="29"/>
-      <c r="W7" s="29"/>
-      <c r="X7" s="29"/>
-      <c r="Y7" s="29"/>
-      <c r="Z7" s="29"/>
-      <c r="AA7" s="29"/>
-      <c r="AB7" s="29"/>
-      <c r="AC7" s="29"/>
-    </row>
-    <row r="8" spans="1:29" s="30" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F8" s="31" t="s">
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="22"/>
+      <c r="V7" s="22"/>
+      <c r="W7" s="22"/>
+      <c r="X7" s="22"/>
+      <c r="Y7" s="22"/>
+      <c r="Z7" s="22"/>
+      <c r="AA7" s="22"/>
+      <c r="AB7" s="22"/>
+      <c r="AC7" s="22"/>
+    </row>
+    <row r="8" spans="1:29" s="23" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F8" s="24" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:29" s="34" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="32" t="s">
+    <row r="9" spans="1:29" s="27" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="33"/>
-      <c r="O9" s="33"/>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="33"/>
-      <c r="S9" s="33"/>
-      <c r="T9" s="33"/>
-      <c r="U9" s="33"/>
-      <c r="V9" s="33"/>
-      <c r="W9" s="33"/>
-      <c r="X9" s="33"/>
-      <c r="Y9" s="33"/>
-      <c r="Z9" s="33"/>
-      <c r="AA9" s="33"/>
-      <c r="AB9" s="33"/>
-      <c r="AC9" s="33"/>
-    </row>
-    <row r="10" spans="1:29" s="30" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F10" s="30" t="s">
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="26"/>
+      <c r="W9" s="26"/>
+      <c r="X9" s="26"/>
+      <c r="Y9" s="26"/>
+      <c r="Z9" s="26"/>
+      <c r="AA9" s="26"/>
+      <c r="AB9" s="26"/>
+      <c r="AC9" s="26"/>
+    </row>
+    <row r="10" spans="1:29" s="23" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F10" s="23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:29" s="34" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="35" t="s">
+    <row r="11" spans="1:29" s="27" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="33"/>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="33"/>
-      <c r="R11" s="33"/>
-      <c r="S11" s="33"/>
-      <c r="T11" s="33"/>
-      <c r="U11" s="33"/>
-      <c r="V11" s="33"/>
-      <c r="W11" s="33"/>
-      <c r="X11" s="33"/>
-      <c r="Y11" s="33"/>
-      <c r="Z11" s="33"/>
-      <c r="AA11" s="33"/>
-      <c r="AB11" s="33"/>
-      <c r="AC11" s="33"/>
-    </row>
-    <row r="12" spans="1:29" s="30" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F12" s="30" t="s">
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="26"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="26"/>
+      <c r="W11" s="26"/>
+      <c r="X11" s="26"/>
+      <c r="Y11" s="26"/>
+      <c r="Z11" s="26"/>
+      <c r="AA11" s="26"/>
+      <c r="AB11" s="26"/>
+      <c r="AC11" s="26"/>
+    </row>
+    <row r="12" spans="1:29" s="23" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F12" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="36"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="36"/>
-      <c r="S13" s="36"/>
-      <c r="T13" s="36"/>
-      <c r="U13" s="36"/>
-      <c r="V13" s="36"/>
-      <c r="W13" s="36"/>
-      <c r="X13" s="36"/>
-      <c r="Y13" s="36"/>
-      <c r="Z13" s="36"/>
-      <c r="AA13" s="36"/>
-      <c r="AB13" s="36"/>
-      <c r="AC13" s="36"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="29"/>
+      <c r="U13" s="29"/>
+      <c r="V13" s="29"/>
+      <c r="W13" s="29"/>
+      <c r="X13" s="29"/>
+      <c r="Y13" s="29"/>
+      <c r="Z13" s="29"/>
+      <c r="AA13" s="29"/>
+      <c r="AB13" s="29"/>
+      <c r="AC13" s="29"/>
     </row>
     <row r="14" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="30" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="67" t="s">
+      <c r="A15" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="68"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="68"/>
-      <c r="I15" s="69"/>
-      <c r="J15" s="39" t="s">
+      <c r="B15" s="93"/>
+      <c r="C15" s="93"/>
+      <c r="D15" s="93"/>
+      <c r="E15" s="93"/>
+      <c r="F15" s="93"/>
+      <c r="G15" s="93"/>
+      <c r="H15" s="93"/>
+      <c r="I15" s="94"/>
+      <c r="J15" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="K15" s="39"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="39"/>
-      <c r="O15" s="38" t="s">
+      <c r="K15" s="98"/>
+      <c r="L15" s="98"/>
+      <c r="M15" s="98"/>
+      <c r="N15" s="98"/>
+      <c r="O15" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="39"/>
-      <c r="R15" s="39"/>
-      <c r="S15" s="39"/>
-      <c r="T15" s="39"/>
-      <c r="U15" s="39"/>
-      <c r="V15" s="39"/>
-      <c r="W15" s="39"/>
-      <c r="X15" s="39"/>
-      <c r="Y15" s="39"/>
-      <c r="Z15" s="39" t="s">
+      <c r="P15" s="98"/>
+      <c r="Q15" s="98"/>
+      <c r="R15" s="98"/>
+      <c r="S15" s="98"/>
+      <c r="T15" s="98"/>
+      <c r="U15" s="98"/>
+      <c r="V15" s="98"/>
+      <c r="W15" s="98"/>
+      <c r="X15" s="98"/>
+      <c r="Y15" s="98"/>
+      <c r="Z15" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="AA15" s="39"/>
-      <c r="AB15" s="39"/>
-      <c r="AC15" s="39"/>
+      <c r="AA15" s="98"/>
+      <c r="AB15" s="98"/>
+      <c r="AC15" s="98"/>
     </row>
     <row r="16" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="70"/>
-      <c r="B16" s="71"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="72"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="39"/>
-      <c r="O16" s="39"/>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="39"/>
-      <c r="R16" s="39"/>
-      <c r="S16" s="39"/>
-      <c r="T16" s="39"/>
-      <c r="U16" s="39"/>
-      <c r="V16" s="39"/>
-      <c r="W16" s="39"/>
-      <c r="X16" s="39"/>
-      <c r="Y16" s="39"/>
-      <c r="Z16" s="39"/>
-      <c r="AA16" s="39"/>
-      <c r="AB16" s="39"/>
-      <c r="AC16" s="39"/>
+      <c r="A16" s="95"/>
+      <c r="B16" s="96"/>
+      <c r="C16" s="96"/>
+      <c r="D16" s="96"/>
+      <c r="E16" s="96"/>
+      <c r="F16" s="96"/>
+      <c r="G16" s="96"/>
+      <c r="H16" s="96"/>
+      <c r="I16" s="97"/>
+      <c r="J16" s="98"/>
+      <c r="K16" s="98"/>
+      <c r="L16" s="98"/>
+      <c r="M16" s="98"/>
+      <c r="N16" s="98"/>
+      <c r="O16" s="98"/>
+      <c r="P16" s="98"/>
+      <c r="Q16" s="98"/>
+      <c r="R16" s="98"/>
+      <c r="S16" s="98"/>
+      <c r="T16" s="98"/>
+      <c r="U16" s="98"/>
+      <c r="V16" s="98"/>
+      <c r="W16" s="98"/>
+      <c r="X16" s="98"/>
+      <c r="Y16" s="98"/>
+      <c r="Z16" s="98"/>
+      <c r="AA16" s="98"/>
+      <c r="AB16" s="98"/>
+      <c r="AC16" s="98"/>
     </row>
     <row r="17" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="122">
+      <c r="A17" s="127">
         <v>1</v>
       </c>
-      <c r="B17" s="124"/>
-      <c r="C17" s="124"/>
-      <c r="D17" s="124"/>
-      <c r="E17" s="124"/>
-      <c r="F17" s="124"/>
-      <c r="G17" s="124"/>
-      <c r="H17" s="124"/>
-      <c r="I17" s="123"/>
-      <c r="J17" s="40">
+      <c r="B17" s="128"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="128"/>
+      <c r="E17" s="128"/>
+      <c r="F17" s="128"/>
+      <c r="G17" s="128"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="129"/>
+      <c r="J17" s="119">
         <v>2</v>
       </c>
-      <c r="K17" s="40"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="40"/>
-      <c r="O17" s="40">
+      <c r="K17" s="119"/>
+      <c r="L17" s="119"/>
+      <c r="M17" s="119"/>
+      <c r="N17" s="119"/>
+      <c r="O17" s="119">
         <v>3</v>
       </c>
-      <c r="P17" s="40"/>
-      <c r="Q17" s="40"/>
-      <c r="R17" s="40"/>
-      <c r="S17" s="40"/>
-      <c r="T17" s="40"/>
-      <c r="U17" s="40"/>
-      <c r="V17" s="40"/>
-      <c r="W17" s="40"/>
-      <c r="X17" s="40"/>
-      <c r="Y17" s="40"/>
-      <c r="Z17" s="40">
+      <c r="P17" s="119"/>
+      <c r="Q17" s="119"/>
+      <c r="R17" s="119"/>
+      <c r="S17" s="119"/>
+      <c r="T17" s="119"/>
+      <c r="U17" s="119"/>
+      <c r="V17" s="119"/>
+      <c r="W17" s="119"/>
+      <c r="X17" s="119"/>
+      <c r="Y17" s="119"/>
+      <c r="Z17" s="119">
         <v>4</v>
       </c>
-      <c r="AA17" s="40"/>
-      <c r="AB17" s="40"/>
-      <c r="AC17" s="40"/>
+      <c r="AA17" s="119"/>
+      <c r="AB17" s="119"/>
+      <c r="AC17" s="119"/>
     </row>
     <row r="18" spans="1:29" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="57" t="s">
+      <c r="A18" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="58"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="43" t="s">
+      <c r="B18" s="125"/>
+      <c r="C18" s="125"/>
+      <c r="D18" s="125"/>
+      <c r="E18" s="125"/>
+      <c r="F18" s="125"/>
+      <c r="G18" s="125"/>
+      <c r="H18" s="125"/>
+      <c r="I18" s="126"/>
+      <c r="J18" s="120" t="s">
         <v>11</v>
       </c>
-      <c r="K18" s="44"/>
-      <c r="L18" s="44"/>
-      <c r="M18" s="44"/>
-      <c r="N18" s="45"/>
-      <c r="O18" s="46" t="s">
+      <c r="K18" s="121"/>
+      <c r="L18" s="121"/>
+      <c r="M18" s="121"/>
+      <c r="N18" s="122"/>
+      <c r="O18" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="P18" s="46"/>
-      <c r="Q18" s="46"/>
-      <c r="R18" s="46"/>
-      <c r="S18" s="46"/>
-      <c r="T18" s="46"/>
-      <c r="U18" s="46"/>
-      <c r="V18" s="46"/>
-      <c r="W18" s="46"/>
-      <c r="X18" s="46"/>
-      <c r="Y18" s="46"/>
-      <c r="Z18" s="39"/>
-      <c r="AA18" s="39"/>
-      <c r="AB18" s="39"/>
-      <c r="AC18" s="39"/>
+      <c r="P18" s="123"/>
+      <c r="Q18" s="123"/>
+      <c r="R18" s="123"/>
+      <c r="S18" s="123"/>
+      <c r="T18" s="123"/>
+      <c r="U18" s="123"/>
+      <c r="V18" s="123"/>
+      <c r="W18" s="123"/>
+      <c r="X18" s="123"/>
+      <c r="Y18" s="123"/>
+      <c r="Z18" s="98"/>
+      <c r="AA18" s="98"/>
+      <c r="AB18" s="98"/>
+      <c r="AC18" s="98"/>
     </row>
     <row r="19" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="47" t="s">
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="29"/>
-      <c r="R20" s="29"/>
-      <c r="S20" s="29"/>
-      <c r="T20" s="29"/>
-      <c r="U20" s="29"/>
-      <c r="V20" s="29"/>
-      <c r="W20" s="29"/>
-      <c r="X20" s="29"/>
-      <c r="Y20" s="29"/>
-      <c r="Z20" s="29"/>
-      <c r="AA20" s="29"/>
-      <c r="AB20" s="29"/>
-      <c r="AC20" s="29"/>
-    </row>
-    <row r="21" spans="1:29" s="30" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F21" s="31" t="s">
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="22"/>
+      <c r="S20" s="22"/>
+      <c r="T20" s="22"/>
+      <c r="U20" s="22"/>
+      <c r="V20" s="22"/>
+      <c r="W20" s="22"/>
+      <c r="X20" s="22"/>
+      <c r="Y20" s="22"/>
+      <c r="Z20" s="22"/>
+      <c r="AA20" s="22"/>
+      <c r="AB20" s="22"/>
+      <c r="AC20" s="22"/>
+    </row>
+    <row r="21" spans="1:29" s="23" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F21" s="24" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:29" s="34" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="35" t="s">
+    <row r="22" spans="1:29" s="27" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="33"/>
-      <c r="N22" s="33"/>
-      <c r="O22" s="33"/>
-      <c r="P22" s="33"/>
-      <c r="Q22" s="33"/>
-      <c r="R22" s="33"/>
-      <c r="S22" s="33"/>
-      <c r="T22" s="33"/>
-      <c r="U22" s="33"/>
-      <c r="V22" s="33"/>
-      <c r="W22" s="33"/>
-      <c r="X22" s="33"/>
-      <c r="Y22" s="33"/>
-      <c r="Z22" s="33"/>
-      <c r="AA22" s="33"/>
-      <c r="AB22" s="33"/>
-      <c r="AC22" s="33"/>
-    </row>
-    <row r="23" spans="1:29" s="30" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F23" s="30" t="s">
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="26"/>
+      <c r="R22" s="26"/>
+      <c r="S22" s="26"/>
+      <c r="T22" s="26"/>
+      <c r="U22" s="26"/>
+      <c r="V22" s="26"/>
+      <c r="W22" s="26"/>
+      <c r="X22" s="26"/>
+      <c r="Y22" s="26"/>
+      <c r="Z22" s="26"/>
+      <c r="AA22" s="26"/>
+      <c r="AB22" s="26"/>
+      <c r="AC22" s="26"/>
+    </row>
+    <row r="23" spans="1:29" s="23" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F23" s="23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:29" s="34" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="48" t="s">
+    <row r="24" spans="1:29" s="27" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="32" t="s">
         <v>159</v>
       </c>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="33"/>
-      <c r="N24" s="33"/>
-      <c r="O24" s="33"/>
-      <c r="P24" s="33"/>
-      <c r="Q24" s="33"/>
-      <c r="R24" s="33"/>
-      <c r="S24" s="33"/>
-      <c r="T24" s="33"/>
-      <c r="U24" s="33"/>
-      <c r="V24" s="33"/>
-      <c r="W24" s="33"/>
-      <c r="X24" s="33"/>
-      <c r="Y24" s="33"/>
-      <c r="Z24" s="33"/>
-      <c r="AA24" s="33"/>
-      <c r="AB24" s="33"/>
-      <c r="AC24" s="33"/>
-    </row>
-    <row r="25" spans="1:29" s="30" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F25" s="30" t="s">
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="26"/>
+      <c r="P24" s="26"/>
+      <c r="Q24" s="26"/>
+      <c r="R24" s="26"/>
+      <c r="S24" s="26"/>
+      <c r="T24" s="26"/>
+      <c r="U24" s="26"/>
+      <c r="V24" s="26"/>
+      <c r="W24" s="26"/>
+      <c r="X24" s="26"/>
+      <c r="Y24" s="26"/>
+      <c r="Z24" s="26"/>
+      <c r="AA24" s="26"/>
+      <c r="AB24" s="26"/>
+      <c r="AC24" s="26"/>
+    </row>
+    <row r="25" spans="1:29" s="23" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F25" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="37" t="s">
+      <c r="A26" s="30" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="27" spans="1:29" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="67" t="s">
+      <c r="A27" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="68"/>
-      <c r="C27" s="68"/>
-      <c r="D27" s="68"/>
-      <c r="E27" s="68"/>
-      <c r="F27" s="68"/>
-      <c r="G27" s="68"/>
-      <c r="H27" s="68"/>
-      <c r="I27" s="69"/>
-      <c r="J27" s="39" t="s">
+      <c r="B27" s="93"/>
+      <c r="C27" s="93"/>
+      <c r="D27" s="93"/>
+      <c r="E27" s="93"/>
+      <c r="F27" s="93"/>
+      <c r="G27" s="93"/>
+      <c r="H27" s="93"/>
+      <c r="I27" s="94"/>
+      <c r="J27" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="K27" s="39"/>
-      <c r="L27" s="39"/>
-      <c r="M27" s="39"/>
-      <c r="N27" s="39"/>
-      <c r="O27" s="38" t="s">
+      <c r="K27" s="98"/>
+      <c r="L27" s="98"/>
+      <c r="M27" s="98"/>
+      <c r="N27" s="98"/>
+      <c r="O27" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="P27" s="39"/>
-      <c r="Q27" s="39"/>
-      <c r="R27" s="39"/>
-      <c r="S27" s="39"/>
-      <c r="T27" s="39"/>
-      <c r="U27" s="39"/>
-      <c r="V27" s="39"/>
-      <c r="W27" s="39"/>
-      <c r="X27" s="39"/>
-      <c r="Y27" s="39"/>
-      <c r="Z27" s="39" t="s">
+      <c r="P27" s="98"/>
+      <c r="Q27" s="98"/>
+      <c r="R27" s="98"/>
+      <c r="S27" s="98"/>
+      <c r="T27" s="98"/>
+      <c r="U27" s="98"/>
+      <c r="V27" s="98"/>
+      <c r="W27" s="98"/>
+      <c r="X27" s="98"/>
+      <c r="Y27" s="98"/>
+      <c r="Z27" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="AA27" s="39"/>
-      <c r="AB27" s="39"/>
-      <c r="AC27" s="39"/>
+      <c r="AA27" s="98"/>
+      <c r="AB27" s="98"/>
+      <c r="AC27" s="98"/>
     </row>
     <row r="28" spans="1:29" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="70"/>
-      <c r="B28" s="71"/>
-      <c r="C28" s="71"/>
-      <c r="D28" s="71"/>
-      <c r="E28" s="71"/>
-      <c r="F28" s="71"/>
-      <c r="G28" s="71"/>
-      <c r="H28" s="71"/>
-      <c r="I28" s="72"/>
-      <c r="J28" s="39"/>
-      <c r="K28" s="39"/>
-      <c r="L28" s="39"/>
-      <c r="M28" s="39"/>
-      <c r="N28" s="39"/>
-      <c r="O28" s="39"/>
-      <c r="P28" s="39"/>
-      <c r="Q28" s="39"/>
-      <c r="R28" s="39"/>
-      <c r="S28" s="39"/>
-      <c r="T28" s="39"/>
-      <c r="U28" s="39"/>
-      <c r="V28" s="39"/>
-      <c r="W28" s="39"/>
-      <c r="X28" s="39"/>
-      <c r="Y28" s="39"/>
-      <c r="Z28" s="39"/>
-      <c r="AA28" s="39"/>
-      <c r="AB28" s="39"/>
-      <c r="AC28" s="39"/>
+      <c r="A28" s="95"/>
+      <c r="B28" s="96"/>
+      <c r="C28" s="96"/>
+      <c r="D28" s="96"/>
+      <c r="E28" s="96"/>
+      <c r="F28" s="96"/>
+      <c r="G28" s="96"/>
+      <c r="H28" s="96"/>
+      <c r="I28" s="97"/>
+      <c r="J28" s="98"/>
+      <c r="K28" s="98"/>
+      <c r="L28" s="98"/>
+      <c r="M28" s="98"/>
+      <c r="N28" s="98"/>
+      <c r="O28" s="98"/>
+      <c r="P28" s="98"/>
+      <c r="Q28" s="98"/>
+      <c r="R28" s="98"/>
+      <c r="S28" s="98"/>
+      <c r="T28" s="98"/>
+      <c r="U28" s="98"/>
+      <c r="V28" s="98"/>
+      <c r="W28" s="98"/>
+      <c r="X28" s="98"/>
+      <c r="Y28" s="98"/>
+      <c r="Z28" s="98"/>
+      <c r="AA28" s="98"/>
+      <c r="AB28" s="98"/>
+      <c r="AC28" s="98"/>
     </row>
     <row r="29" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="67">
+      <c r="A29" s="92">
         <v>1</v>
       </c>
-      <c r="B29" s="68"/>
-      <c r="C29" s="68">
+      <c r="B29" s="93"/>
+      <c r="C29" s="93">
         <v>2</v>
       </c>
-      <c r="D29" s="68"/>
-      <c r="E29" s="68"/>
-      <c r="F29" s="68"/>
-      <c r="G29" s="68"/>
-      <c r="H29" s="68"/>
-      <c r="I29" s="69"/>
-      <c r="J29" s="40">
+      <c r="D29" s="93"/>
+      <c r="E29" s="93"/>
+      <c r="F29" s="93"/>
+      <c r="G29" s="93"/>
+      <c r="H29" s="93"/>
+      <c r="I29" s="94"/>
+      <c r="J29" s="119">
         <v>2</v>
       </c>
-      <c r="K29" s="40"/>
-      <c r="L29" s="40"/>
-      <c r="M29" s="40"/>
-      <c r="N29" s="40"/>
-      <c r="O29" s="40">
+      <c r="K29" s="119"/>
+      <c r="L29" s="119"/>
+      <c r="M29" s="119"/>
+      <c r="N29" s="119"/>
+      <c r="O29" s="119">
         <v>3</v>
       </c>
-      <c r="P29" s="40"/>
-      <c r="Q29" s="40"/>
-      <c r="R29" s="40"/>
-      <c r="S29" s="40"/>
-      <c r="T29" s="40"/>
-      <c r="U29" s="40"/>
-      <c r="V29" s="40"/>
-      <c r="W29" s="40"/>
-      <c r="X29" s="40"/>
-      <c r="Y29" s="40"/>
-      <c r="Z29" s="40">
+      <c r="P29" s="119"/>
+      <c r="Q29" s="119"/>
+      <c r="R29" s="119"/>
+      <c r="S29" s="119"/>
+      <c r="T29" s="119"/>
+      <c r="U29" s="119"/>
+      <c r="V29" s="119"/>
+      <c r="W29" s="119"/>
+      <c r="X29" s="119"/>
+      <c r="Y29" s="119"/>
+      <c r="Z29" s="119">
         <v>4</v>
       </c>
-      <c r="AA29" s="40"/>
-      <c r="AB29" s="40"/>
-      <c r="AC29" s="40"/>
+      <c r="AA29" s="119"/>
+      <c r="AB29" s="119"/>
+      <c r="AC29" s="119"/>
     </row>
     <row r="30" spans="1:29" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="67"/>
-      <c r="B30" s="68"/>
-      <c r="C30" s="68" t="s">
+      <c r="A30" s="92"/>
+      <c r="B30" s="93"/>
+      <c r="C30" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="D30" s="68"/>
-      <c r="E30" s="68"/>
-      <c r="F30" s="68"/>
-      <c r="G30" s="68"/>
-      <c r="H30" s="68"/>
-      <c r="I30" s="69"/>
-      <c r="J30" s="54"/>
-      <c r="K30" s="55"/>
-      <c r="L30" s="55"/>
-      <c r="M30" s="55"/>
-      <c r="N30" s="56"/>
-      <c r="O30" s="57" t="str">
+      <c r="D30" s="93"/>
+      <c r="E30" s="93"/>
+      <c r="F30" s="93"/>
+      <c r="G30" s="93"/>
+      <c r="H30" s="93"/>
+      <c r="I30" s="94"/>
+      <c r="J30" s="107"/>
+      <c r="K30" s="108"/>
+      <c r="L30" s="108"/>
+      <c r="M30" s="108"/>
+      <c r="N30" s="109"/>
+      <c r="O30" s="116" t="str">
         <f>O18</f>
         <v>Приказ №1162 от 19.12.2018 г.</v>
       </c>
-      <c r="P30" s="58"/>
-      <c r="Q30" s="58"/>
-      <c r="R30" s="58"/>
-      <c r="S30" s="58"/>
-      <c r="T30" s="58"/>
-      <c r="U30" s="58"/>
-      <c r="V30" s="58"/>
-      <c r="W30" s="58"/>
-      <c r="X30" s="58"/>
-      <c r="Y30" s="59"/>
-      <c r="Z30" s="49"/>
-      <c r="AA30" s="60"/>
-      <c r="AB30" s="60"/>
-      <c r="AC30" s="50"/>
+      <c r="P30" s="117"/>
+      <c r="Q30" s="117"/>
+      <c r="R30" s="117"/>
+      <c r="S30" s="117"/>
+      <c r="T30" s="117"/>
+      <c r="U30" s="117"/>
+      <c r="V30" s="117"/>
+      <c r="W30" s="117"/>
+      <c r="X30" s="117"/>
+      <c r="Y30" s="118"/>
+      <c r="Z30" s="113"/>
+      <c r="AA30" s="114"/>
+      <c r="AB30" s="114"/>
+      <c r="AC30" s="115"/>
     </row>
     <row r="31" spans="1:29" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="41"/>
-      <c r="B31" s="73"/>
-      <c r="C31" s="73"/>
-      <c r="D31" s="73"/>
-      <c r="E31" s="73"/>
-      <c r="F31" s="73"/>
-      <c r="G31" s="73"/>
-      <c r="H31" s="73"/>
-      <c r="I31" s="42"/>
-      <c r="J31" s="54"/>
-      <c r="K31" s="55"/>
-      <c r="L31" s="55"/>
-      <c r="M31" s="55"/>
-      <c r="N31" s="56"/>
-      <c r="O31" s="51"/>
-      <c r="P31" s="52"/>
-      <c r="Q31" s="52"/>
-      <c r="R31" s="52"/>
-      <c r="S31" s="52"/>
-      <c r="T31" s="52"/>
-      <c r="U31" s="52"/>
-      <c r="V31" s="52"/>
-      <c r="W31" s="52"/>
-      <c r="X31" s="52"/>
-      <c r="Y31" s="53"/>
-      <c r="Z31" s="49"/>
-      <c r="AA31" s="60"/>
-      <c r="AB31" s="60"/>
-      <c r="AC31" s="50"/>
+      <c r="A31" s="88"/>
+      <c r="B31" s="89"/>
+      <c r="C31" s="89"/>
+      <c r="D31" s="89"/>
+      <c r="E31" s="89"/>
+      <c r="F31" s="89"/>
+      <c r="G31" s="89"/>
+      <c r="H31" s="89"/>
+      <c r="I31" s="90"/>
+      <c r="J31" s="107"/>
+      <c r="K31" s="108"/>
+      <c r="L31" s="108"/>
+      <c r="M31" s="108"/>
+      <c r="N31" s="109"/>
+      <c r="O31" s="110"/>
+      <c r="P31" s="111"/>
+      <c r="Q31" s="111"/>
+      <c r="R31" s="111"/>
+      <c r="S31" s="111"/>
+      <c r="T31" s="111"/>
+      <c r="U31" s="111"/>
+      <c r="V31" s="111"/>
+      <c r="W31" s="111"/>
+      <c r="X31" s="111"/>
+      <c r="Y31" s="112"/>
+      <c r="Z31" s="113"/>
+      <c r="AA31" s="114"/>
+      <c r="AB31" s="114"/>
+      <c r="AC31" s="115"/>
     </row>
     <row r="33" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A33" s="37" t="s">
+      <c r="A33" s="30" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A34" s="61"/>
-      <c r="B34" s="61"/>
-      <c r="C34" s="61"/>
-      <c r="D34" s="61"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="61"/>
-      <c r="G34" s="61"/>
-      <c r="H34" s="61"/>
-      <c r="I34" s="61"/>
-      <c r="J34" s="61"/>
-      <c r="K34" s="61"/>
-      <c r="L34" s="61"/>
-      <c r="M34" s="61"/>
-      <c r="N34" s="61"/>
-      <c r="O34" s="61"/>
-      <c r="P34" s="61"/>
-      <c r="Q34" s="61"/>
-      <c r="R34" s="61"/>
-      <c r="S34" s="61"/>
-      <c r="T34" s="61"/>
-      <c r="U34" s="61"/>
-      <c r="V34" s="61"/>
-      <c r="W34" s="61"/>
-      <c r="X34" s="61"/>
-      <c r="Y34" s="61"/>
-      <c r="Z34" s="61"/>
-      <c r="AA34" s="61"/>
-      <c r="AB34" s="61"/>
-      <c r="AC34" s="61"/>
+      <c r="A34" s="33"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="33"/>
+      <c r="J34" s="33"/>
+      <c r="K34" s="33"/>
+      <c r="L34" s="33"/>
+      <c r="M34" s="33"/>
+      <c r="N34" s="33"/>
+      <c r="O34" s="33"/>
+      <c r="P34" s="33"/>
+      <c r="Q34" s="33"/>
+      <c r="R34" s="33"/>
+      <c r="S34" s="33"/>
+      <c r="T34" s="33"/>
+      <c r="U34" s="33"/>
+      <c r="V34" s="33"/>
+      <c r="W34" s="33"/>
+      <c r="X34" s="33"/>
+      <c r="Y34" s="33"/>
+      <c r="Z34" s="33"/>
+      <c r="AA34" s="33"/>
+      <c r="AB34" s="33"/>
+      <c r="AC34" s="33"/>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A35" s="62" t="s">
+      <c r="A35" s="34" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A36" s="37" t="s">
+      <c r="A36" s="30" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A37" s="33"/>
-      <c r="B37" s="33"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="33"/>
-      <c r="L37" s="33"/>
-      <c r="M37" s="33"/>
-      <c r="N37" s="33"/>
-      <c r="O37" s="33"/>
-      <c r="P37" s="33"/>
-      <c r="Q37" s="33"/>
-      <c r="R37" s="33"/>
-      <c r="S37" s="33"/>
-      <c r="T37" s="33"/>
-      <c r="U37" s="33"/>
-      <c r="V37" s="33"/>
-      <c r="W37" s="33"/>
-      <c r="X37" s="33"/>
-      <c r="Y37" s="33"/>
-      <c r="Z37" s="33"/>
-      <c r="AA37" s="33"/>
-      <c r="AB37" s="33"/>
-      <c r="AC37" s="61"/>
+      <c r="A37" s="26"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="26"/>
+      <c r="L37" s="26"/>
+      <c r="M37" s="26"/>
+      <c r="N37" s="26"/>
+      <c r="O37" s="26"/>
+      <c r="P37" s="26"/>
+      <c r="Q37" s="26"/>
+      <c r="R37" s="26"/>
+      <c r="S37" s="26"/>
+      <c r="T37" s="26"/>
+      <c r="U37" s="26"/>
+      <c r="V37" s="26"/>
+      <c r="W37" s="26"/>
+      <c r="X37" s="26"/>
+      <c r="Y37" s="26"/>
+      <c r="Z37" s="26"/>
+      <c r="AA37" s="26"/>
+      <c r="AB37" s="26"/>
+      <c r="AC37" s="33"/>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A38" s="30" t="s">
+      <c r="A38" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B38" s="34"/>
-      <c r="C38" s="34"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="34"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="34"/>
-      <c r="L38" s="34"/>
-      <c r="M38" s="34"/>
-      <c r="N38" s="34"/>
-      <c r="O38" s="34"/>
-      <c r="P38" s="34"/>
-      <c r="Q38" s="34"/>
-      <c r="R38" s="34"/>
-      <c r="S38" s="34"/>
-      <c r="T38" s="34"/>
-      <c r="U38" s="34"/>
-      <c r="V38" s="34"/>
-      <c r="W38" s="34"/>
-      <c r="X38" s="34"/>
-      <c r="Y38" s="34"/>
-      <c r="Z38" s="34"/>
-      <c r="AA38" s="34"/>
-      <c r="AB38" s="34"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="27"/>
+      <c r="K38" s="27"/>
+      <c r="L38" s="27"/>
+      <c r="M38" s="27"/>
+      <c r="N38" s="27"/>
+      <c r="O38" s="27"/>
+      <c r="P38" s="27"/>
+      <c r="Q38" s="27"/>
+      <c r="R38" s="27"/>
+      <c r="S38" s="27"/>
+      <c r="T38" s="27"/>
+      <c r="U38" s="27"/>
+      <c r="V38" s="27"/>
+      <c r="W38" s="27"/>
+      <c r="X38" s="27"/>
+      <c r="Y38" s="27"/>
+      <c r="Z38" s="27"/>
+      <c r="AA38" s="27"/>
+      <c r="AB38" s="27"/>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A39" s="33"/>
-      <c r="B39" s="33"/>
-      <c r="C39" s="33"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="33"/>
-      <c r="J39" s="33"/>
-      <c r="K39" s="33"/>
-      <c r="L39" s="33"/>
-      <c r="M39" s="33"/>
-      <c r="N39" s="33"/>
-      <c r="O39" s="33"/>
-      <c r="P39" s="33"/>
-      <c r="Q39" s="33"/>
-      <c r="R39" s="33"/>
-      <c r="S39" s="33"/>
-      <c r="T39" s="33"/>
-      <c r="U39" s="33"/>
-      <c r="V39" s="33"/>
-      <c r="W39" s="33"/>
-      <c r="X39" s="33"/>
-      <c r="Y39" s="33"/>
-      <c r="Z39" s="33"/>
-      <c r="AA39" s="33"/>
-      <c r="AB39" s="33"/>
-      <c r="AC39" s="61"/>
+      <c r="A39" s="26"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="26"/>
+      <c r="K39" s="26"/>
+      <c r="L39" s="26"/>
+      <c r="M39" s="26"/>
+      <c r="N39" s="26"/>
+      <c r="O39" s="26"/>
+      <c r="P39" s="26"/>
+      <c r="Q39" s="26"/>
+      <c r="R39" s="26"/>
+      <c r="S39" s="26"/>
+      <c r="T39" s="26"/>
+      <c r="U39" s="26"/>
+      <c r="V39" s="26"/>
+      <c r="W39" s="26"/>
+      <c r="X39" s="26"/>
+      <c r="Y39" s="26"/>
+      <c r="Z39" s="26"/>
+      <c r="AA39" s="26"/>
+      <c r="AB39" s="26"/>
+      <c r="AC39" s="33"/>
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A40" s="30" t="s">
+      <c r="A40" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B40" s="34"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="34"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="34"/>
-      <c r="H40" s="34"/>
-      <c r="I40" s="34"/>
-      <c r="J40" s="34"/>
-      <c r="K40" s="34"/>
-      <c r="L40" s="34"/>
-      <c r="M40" s="34"/>
-      <c r="N40" s="34"/>
-      <c r="O40" s="34"/>
-      <c r="P40" s="34"/>
-      <c r="Q40" s="34"/>
-      <c r="R40" s="34"/>
-      <c r="S40" s="34"/>
-      <c r="T40" s="34"/>
-      <c r="U40" s="34"/>
-      <c r="V40" s="34"/>
-      <c r="W40" s="34"/>
-      <c r="X40" s="34"/>
-      <c r="Y40" s="34"/>
-      <c r="Z40" s="34"/>
-      <c r="AA40" s="34"/>
-      <c r="AB40" s="34"/>
+      <c r="B40" s="27"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="27"/>
+      <c r="K40" s="27"/>
+      <c r="L40" s="27"/>
+      <c r="M40" s="27"/>
+      <c r="N40" s="27"/>
+      <c r="O40" s="27"/>
+      <c r="P40" s="27"/>
+      <c r="Q40" s="27"/>
+      <c r="R40" s="27"/>
+      <c r="S40" s="27"/>
+      <c r="T40" s="27"/>
+      <c r="U40" s="27"/>
+      <c r="V40" s="27"/>
+      <c r="W40" s="27"/>
+      <c r="X40" s="27"/>
+      <c r="Y40" s="27"/>
+      <c r="Z40" s="27"/>
+      <c r="AA40" s="27"/>
+      <c r="AB40" s="27"/>
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A41" s="33"/>
-      <c r="B41" s="33"/>
-      <c r="C41" s="33"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="33"/>
-      <c r="I41" s="33"/>
-      <c r="J41" s="33"/>
-      <c r="K41" s="33"/>
-      <c r="L41" s="33"/>
-      <c r="M41" s="33"/>
-      <c r="N41" s="33"/>
-      <c r="O41" s="33"/>
-      <c r="P41" s="33"/>
-      <c r="Q41" s="33"/>
-      <c r="R41" s="33"/>
-      <c r="S41" s="33"/>
-      <c r="T41" s="33"/>
-      <c r="U41" s="33"/>
-      <c r="V41" s="33"/>
-      <c r="W41" s="33"/>
-      <c r="X41" s="33"/>
-      <c r="Y41" s="33"/>
-      <c r="Z41" s="33"/>
-      <c r="AA41" s="33"/>
-      <c r="AB41" s="33"/>
-      <c r="AC41" s="61"/>
+      <c r="A41" s="26"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="26"/>
+      <c r="J41" s="26"/>
+      <c r="K41" s="26"/>
+      <c r="L41" s="26"/>
+      <c r="M41" s="26"/>
+      <c r="N41" s="26"/>
+      <c r="O41" s="26"/>
+      <c r="P41" s="26"/>
+      <c r="Q41" s="26"/>
+      <c r="R41" s="26"/>
+      <c r="S41" s="26"/>
+      <c r="T41" s="26"/>
+      <c r="U41" s="26"/>
+      <c r="V41" s="26"/>
+      <c r="W41" s="26"/>
+      <c r="X41" s="26"/>
+      <c r="Y41" s="26"/>
+      <c r="Z41" s="26"/>
+      <c r="AA41" s="26"/>
+      <c r="AB41" s="26"/>
+      <c r="AC41" s="33"/>
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A42" s="30" t="s">
+      <c r="A42" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B42" s="34"/>
-      <c r="C42" s="34"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="34"/>
-      <c r="H42" s="34"/>
-      <c r="I42" s="34"/>
-      <c r="J42" s="34"/>
-      <c r="K42" s="34"/>
-      <c r="L42" s="34"/>
-      <c r="M42" s="34"/>
-      <c r="N42" s="34"/>
-      <c r="O42" s="34"/>
-      <c r="P42" s="34"/>
-      <c r="Q42" s="34"/>
-      <c r="R42" s="34"/>
-      <c r="S42" s="34"/>
-      <c r="T42" s="34"/>
-      <c r="U42" s="34"/>
-      <c r="V42" s="34"/>
-      <c r="W42" s="34"/>
-      <c r="X42" s="34"/>
-      <c r="Y42" s="34"/>
-      <c r="Z42" s="34"/>
-      <c r="AA42" s="34"/>
-      <c r="AB42" s="34"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="27"/>
+      <c r="K42" s="27"/>
+      <c r="L42" s="27"/>
+      <c r="M42" s="27"/>
+      <c r="N42" s="27"/>
+      <c r="O42" s="27"/>
+      <c r="P42" s="27"/>
+      <c r="Q42" s="27"/>
+      <c r="R42" s="27"/>
+      <c r="S42" s="27"/>
+      <c r="T42" s="27"/>
+      <c r="U42" s="27"/>
+      <c r="V42" s="27"/>
+      <c r="W42" s="27"/>
+      <c r="X42" s="27"/>
+      <c r="Y42" s="27"/>
+      <c r="Z42" s="27"/>
+      <c r="AA42" s="27"/>
+      <c r="AB42" s="27"/>
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A43" s="33"/>
-      <c r="B43" s="33"/>
-      <c r="C43" s="33"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="33"/>
-      <c r="I43" s="33"/>
-      <c r="J43" s="33"/>
-      <c r="K43" s="33"/>
-      <c r="L43" s="33"/>
-      <c r="M43" s="33"/>
-      <c r="N43" s="33"/>
-      <c r="O43" s="33"/>
-      <c r="P43" s="33"/>
-      <c r="Q43" s="33"/>
-      <c r="R43" s="33"/>
-      <c r="S43" s="33"/>
-      <c r="T43" s="33"/>
-      <c r="U43" s="33"/>
-      <c r="V43" s="33"/>
-      <c r="W43" s="33"/>
-      <c r="X43" s="33"/>
-      <c r="Y43" s="33"/>
-      <c r="Z43" s="33"/>
-      <c r="AA43" s="33"/>
-      <c r="AB43" s="33"/>
-      <c r="AC43" s="61"/>
+      <c r="A43" s="26"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="26"/>
+      <c r="J43" s="26"/>
+      <c r="K43" s="26"/>
+      <c r="L43" s="26"/>
+      <c r="M43" s="26"/>
+      <c r="N43" s="26"/>
+      <c r="O43" s="26"/>
+      <c r="P43" s="26"/>
+      <c r="Q43" s="26"/>
+      <c r="R43" s="26"/>
+      <c r="S43" s="26"/>
+      <c r="T43" s="26"/>
+      <c r="U43" s="26"/>
+      <c r="V43" s="26"/>
+      <c r="W43" s="26"/>
+      <c r="X43" s="26"/>
+      <c r="Y43" s="26"/>
+      <c r="Z43" s="26"/>
+      <c r="AA43" s="26"/>
+      <c r="AB43" s="26"/>
+      <c r="AC43" s="33"/>
     </row>
     <row r="44" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A44" s="30" t="s">
+      <c r="A44" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B44" s="34"/>
-      <c r="C44" s="34"/>
-      <c r="D44" s="34"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="34"/>
-      <c r="I44" s="34"/>
-      <c r="J44" s="34"/>
-      <c r="K44" s="34"/>
-      <c r="L44" s="34"/>
-      <c r="M44" s="34"/>
-      <c r="N44" s="34"/>
-      <c r="O44" s="34"/>
-      <c r="P44" s="34"/>
-      <c r="Q44" s="34"/>
-      <c r="R44" s="34"/>
-      <c r="S44" s="34"/>
-      <c r="T44" s="34"/>
-      <c r="U44" s="34"/>
-      <c r="V44" s="34"/>
-      <c r="W44" s="34"/>
-      <c r="X44" s="34"/>
-      <c r="Y44" s="34"/>
-      <c r="Z44" s="34"/>
-      <c r="AA44" s="34"/>
-      <c r="AB44" s="34"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="27"/>
+      <c r="K44" s="27"/>
+      <c r="L44" s="27"/>
+      <c r="M44" s="27"/>
+      <c r="N44" s="27"/>
+      <c r="O44" s="27"/>
+      <c r="P44" s="27"/>
+      <c r="Q44" s="27"/>
+      <c r="R44" s="27"/>
+      <c r="S44" s="27"/>
+      <c r="T44" s="27"/>
+      <c r="U44" s="27"/>
+      <c r="V44" s="27"/>
+      <c r="W44" s="27"/>
+      <c r="X44" s="27"/>
+      <c r="Y44" s="27"/>
+      <c r="Z44" s="27"/>
+      <c r="AA44" s="27"/>
+      <c r="AB44" s="27"/>
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A45" s="33"/>
-      <c r="B45" s="33"/>
-      <c r="C45" s="33"/>
-      <c r="D45" s="33"/>
-      <c r="E45" s="33"/>
-      <c r="F45" s="33"/>
-      <c r="G45" s="33"/>
-      <c r="H45" s="33"/>
-      <c r="I45" s="33"/>
-      <c r="J45" s="33"/>
-      <c r="K45" s="33"/>
-      <c r="L45" s="33"/>
-      <c r="M45" s="33"/>
-      <c r="N45" s="33"/>
-      <c r="O45" s="33"/>
-      <c r="P45" s="33"/>
-      <c r="Q45" s="33"/>
-      <c r="R45" s="33"/>
-      <c r="S45" s="33"/>
-      <c r="T45" s="33"/>
-      <c r="U45" s="33"/>
-      <c r="V45" s="33"/>
-      <c r="W45" s="33"/>
-      <c r="X45" s="33"/>
-      <c r="Y45" s="33"/>
-      <c r="Z45" s="33"/>
-      <c r="AA45" s="33"/>
-      <c r="AB45" s="33"/>
-      <c r="AC45" s="61"/>
+      <c r="A45" s="26"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="26"/>
+      <c r="I45" s="26"/>
+      <c r="J45" s="26"/>
+      <c r="K45" s="26"/>
+      <c r="L45" s="26"/>
+      <c r="M45" s="26"/>
+      <c r="N45" s="26"/>
+      <c r="O45" s="26"/>
+      <c r="P45" s="26"/>
+      <c r="Q45" s="26"/>
+      <c r="R45" s="26"/>
+      <c r="S45" s="26"/>
+      <c r="T45" s="26"/>
+      <c r="U45" s="26"/>
+      <c r="V45" s="26"/>
+      <c r="W45" s="26"/>
+      <c r="X45" s="26"/>
+      <c r="Y45" s="26"/>
+      <c r="Z45" s="26"/>
+      <c r="AA45" s="26"/>
+      <c r="AB45" s="26"/>
+      <c r="AC45" s="33"/>
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A46" s="30" t="s">
+      <c r="A46" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B46" s="34"/>
-      <c r="C46" s="34"/>
-      <c r="D46" s="34"/>
-      <c r="E46" s="34"/>
-      <c r="F46" s="34"/>
-      <c r="G46" s="34"/>
-      <c r="H46" s="34"/>
-      <c r="I46" s="34"/>
-      <c r="J46" s="34"/>
-      <c r="K46" s="34"/>
-      <c r="L46" s="34"/>
-      <c r="M46" s="34"/>
-      <c r="N46" s="34"/>
-      <c r="O46" s="34"/>
-      <c r="P46" s="34"/>
-      <c r="Q46" s="34"/>
-      <c r="R46" s="34"/>
-      <c r="S46" s="34"/>
-      <c r="T46" s="34"/>
-      <c r="U46" s="34"/>
-      <c r="V46" s="34"/>
-      <c r="W46" s="34"/>
-      <c r="X46" s="34"/>
-      <c r="Y46" s="34"/>
-      <c r="Z46" s="34"/>
-      <c r="AA46" s="34"/>
-      <c r="AB46" s="34"/>
+      <c r="B46" s="27"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="27"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="27"/>
+      <c r="I46" s="27"/>
+      <c r="J46" s="27"/>
+      <c r="K46" s="27"/>
+      <c r="L46" s="27"/>
+      <c r="M46" s="27"/>
+      <c r="N46" s="27"/>
+      <c r="O46" s="27"/>
+      <c r="P46" s="27"/>
+      <c r="Q46" s="27"/>
+      <c r="R46" s="27"/>
+      <c r="S46" s="27"/>
+      <c r="T46" s="27"/>
+      <c r="U46" s="27"/>
+      <c r="V46" s="27"/>
+      <c r="W46" s="27"/>
+      <c r="X46" s="27"/>
+      <c r="Y46" s="27"/>
+      <c r="Z46" s="27"/>
+      <c r="AA46" s="27"/>
+      <c r="AB46" s="27"/>
     </row>
     <row r="47" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="27" t="s">
+      <c r="A47" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B47" s="36"/>
-      <c r="C47" s="36"/>
-      <c r="D47" s="36"/>
-      <c r="E47" s="36"/>
-      <c r="F47" s="36"/>
-      <c r="G47" s="36"/>
-      <c r="H47" s="36"/>
-      <c r="I47" s="36"/>
-      <c r="J47" s="36"/>
-      <c r="K47" s="36"/>
-      <c r="L47" s="36"/>
-      <c r="M47" s="36"/>
-      <c r="N47" s="36"/>
-      <c r="O47" s="36"/>
-      <c r="P47" s="36"/>
-      <c r="Q47" s="36"/>
-      <c r="R47" s="36"/>
-      <c r="S47" s="36"/>
-      <c r="T47" s="36"/>
-      <c r="U47" s="36"/>
-      <c r="V47" s="36"/>
-      <c r="W47" s="36"/>
-      <c r="X47" s="36"/>
-      <c r="Y47" s="36"/>
-      <c r="Z47" s="36"/>
-      <c r="AA47" s="36"/>
-      <c r="AB47" s="36"/>
-      <c r="AC47" s="36"/>
+      <c r="B47" s="29"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="29"/>
+      <c r="I47" s="29"/>
+      <c r="J47" s="29"/>
+      <c r="K47" s="29"/>
+      <c r="L47" s="29"/>
+      <c r="M47" s="29"/>
+      <c r="N47" s="29"/>
+      <c r="O47" s="29"/>
+      <c r="P47" s="29"/>
+      <c r="Q47" s="29"/>
+      <c r="R47" s="29"/>
+      <c r="S47" s="29"/>
+      <c r="T47" s="29"/>
+      <c r="U47" s="29"/>
+      <c r="V47" s="29"/>
+      <c r="W47" s="29"/>
+      <c r="X47" s="29"/>
+      <c r="Y47" s="29"/>
+      <c r="Z47" s="29"/>
+      <c r="AA47" s="29"/>
+      <c r="AB47" s="29"/>
+      <c r="AC47" s="29"/>
     </row>
     <row r="48" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="27" t="s">
+      <c r="A48" s="20" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="49" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="27" t="s">
+      <c r="A49" s="20" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="50" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="67" t="s">
+      <c r="A50" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="B50" s="68"/>
-      <c r="C50" s="68"/>
-      <c r="D50" s="68"/>
-      <c r="E50" s="68"/>
-      <c r="F50" s="68"/>
-      <c r="G50" s="68"/>
-      <c r="H50" s="68"/>
-      <c r="I50" s="68"/>
-      <c r="J50" s="68"/>
-      <c r="K50" s="68"/>
-      <c r="L50" s="69"/>
-      <c r="M50" s="38" t="s">
+      <c r="B50" s="93"/>
+      <c r="C50" s="93"/>
+      <c r="D50" s="93"/>
+      <c r="E50" s="93"/>
+      <c r="F50" s="93"/>
+      <c r="G50" s="93"/>
+      <c r="H50" s="93"/>
+      <c r="I50" s="93"/>
+      <c r="J50" s="93"/>
+      <c r="K50" s="93"/>
+      <c r="L50" s="94"/>
+      <c r="M50" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="N50" s="39"/>
-      <c r="O50" s="39"/>
-      <c r="P50" s="39"/>
-      <c r="Q50" s="39"/>
-      <c r="R50" s="39"/>
-      <c r="S50" s="38" t="s">
+      <c r="N50" s="98"/>
+      <c r="O50" s="98"/>
+      <c r="P50" s="98"/>
+      <c r="Q50" s="98"/>
+      <c r="R50" s="98"/>
+      <c r="S50" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="T50" s="39"/>
-      <c r="U50" s="39"/>
-      <c r="V50" s="39"/>
-      <c r="W50" s="39"/>
-      <c r="X50" s="39"/>
-      <c r="Y50" s="39"/>
-      <c r="Z50" s="39" t="s">
+      <c r="T50" s="98"/>
+      <c r="U50" s="98"/>
+      <c r="V50" s="98"/>
+      <c r="W50" s="98"/>
+      <c r="X50" s="98"/>
+      <c r="Y50" s="98"/>
+      <c r="Z50" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="AA50" s="39"/>
-      <c r="AB50" s="39"/>
-      <c r="AC50" s="39"/>
+      <c r="AA50" s="98"/>
+      <c r="AB50" s="98"/>
+      <c r="AC50" s="98"/>
     </row>
     <row r="51" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="128"/>
-      <c r="B51" s="129"/>
-      <c r="C51" s="129"/>
-      <c r="D51" s="129"/>
-      <c r="E51" s="129"/>
-      <c r="F51" s="129"/>
-      <c r="G51" s="129"/>
-      <c r="H51" s="129"/>
-      <c r="I51" s="129"/>
-      <c r="J51" s="129"/>
-      <c r="K51" s="129"/>
-      <c r="L51" s="130"/>
-      <c r="M51" s="39"/>
-      <c r="N51" s="39"/>
-      <c r="O51" s="39"/>
-      <c r="P51" s="39"/>
-      <c r="Q51" s="39"/>
-      <c r="R51" s="39"/>
-      <c r="S51" s="39"/>
-      <c r="T51" s="39"/>
-      <c r="U51" s="39"/>
-      <c r="V51" s="39"/>
-      <c r="W51" s="39"/>
-      <c r="X51" s="39"/>
-      <c r="Y51" s="39"/>
-      <c r="Z51" s="39"/>
-      <c r="AA51" s="39"/>
-      <c r="AB51" s="39"/>
-      <c r="AC51" s="39"/>
+      <c r="A51" s="104"/>
+      <c r="B51" s="105"/>
+      <c r="C51" s="105"/>
+      <c r="D51" s="105"/>
+      <c r="E51" s="105"/>
+      <c r="F51" s="105"/>
+      <c r="G51" s="105"/>
+      <c r="H51" s="105"/>
+      <c r="I51" s="105"/>
+      <c r="J51" s="105"/>
+      <c r="K51" s="105"/>
+      <c r="L51" s="106"/>
+      <c r="M51" s="98"/>
+      <c r="N51" s="98"/>
+      <c r="O51" s="98"/>
+      <c r="P51" s="98"/>
+      <c r="Q51" s="98"/>
+      <c r="R51" s="98"/>
+      <c r="S51" s="98"/>
+      <c r="T51" s="98"/>
+      <c r="U51" s="98"/>
+      <c r="V51" s="98"/>
+      <c r="W51" s="98"/>
+      <c r="X51" s="98"/>
+      <c r="Y51" s="98"/>
+      <c r="Z51" s="98"/>
+      <c r="AA51" s="98"/>
+      <c r="AB51" s="98"/>
+      <c r="AC51" s="98"/>
     </row>
     <row r="52" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="128"/>
-      <c r="B52" s="129"/>
-      <c r="C52" s="129"/>
-      <c r="D52" s="129"/>
-      <c r="E52" s="129"/>
-      <c r="F52" s="129"/>
-      <c r="G52" s="129"/>
-      <c r="H52" s="129"/>
-      <c r="I52" s="129"/>
-      <c r="J52" s="129"/>
-      <c r="K52" s="129"/>
-      <c r="L52" s="130"/>
-      <c r="M52" s="39"/>
-      <c r="N52" s="39"/>
-      <c r="O52" s="39"/>
-      <c r="P52" s="39"/>
-      <c r="Q52" s="39"/>
-      <c r="R52" s="39"/>
-      <c r="S52" s="39"/>
-      <c r="T52" s="39"/>
-      <c r="U52" s="39"/>
-      <c r="V52" s="39"/>
-      <c r="W52" s="39"/>
-      <c r="X52" s="39"/>
-      <c r="Y52" s="39"/>
-      <c r="Z52" s="39"/>
-      <c r="AA52" s="39"/>
-      <c r="AB52" s="39"/>
-      <c r="AC52" s="39"/>
+      <c r="A52" s="104"/>
+      <c r="B52" s="105"/>
+      <c r="C52" s="105"/>
+      <c r="D52" s="105"/>
+      <c r="E52" s="105"/>
+      <c r="F52" s="105"/>
+      <c r="G52" s="105"/>
+      <c r="H52" s="105"/>
+      <c r="I52" s="105"/>
+      <c r="J52" s="105"/>
+      <c r="K52" s="105"/>
+      <c r="L52" s="106"/>
+      <c r="M52" s="98"/>
+      <c r="N52" s="98"/>
+      <c r="O52" s="98"/>
+      <c r="P52" s="98"/>
+      <c r="Q52" s="98"/>
+      <c r="R52" s="98"/>
+      <c r="S52" s="98"/>
+      <c r="T52" s="98"/>
+      <c r="U52" s="98"/>
+      <c r="V52" s="98"/>
+      <c r="W52" s="98"/>
+      <c r="X52" s="98"/>
+      <c r="Y52" s="98"/>
+      <c r="Z52" s="98"/>
+      <c r="AA52" s="98"/>
+      <c r="AB52" s="98"/>
+      <c r="AC52" s="98"/>
     </row>
     <row r="53" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="128"/>
-      <c r="B53" s="129"/>
-      <c r="C53" s="129"/>
-      <c r="D53" s="129"/>
-      <c r="E53" s="129"/>
-      <c r="F53" s="129"/>
-      <c r="G53" s="129"/>
-      <c r="H53" s="129"/>
-      <c r="I53" s="129"/>
-      <c r="J53" s="129"/>
-      <c r="K53" s="129"/>
-      <c r="L53" s="130"/>
-      <c r="M53" s="39"/>
-      <c r="N53" s="39"/>
-      <c r="O53" s="39"/>
-      <c r="P53" s="39"/>
-      <c r="Q53" s="39"/>
-      <c r="R53" s="39"/>
-      <c r="S53" s="39"/>
-      <c r="T53" s="39"/>
-      <c r="U53" s="39"/>
-      <c r="V53" s="39"/>
-      <c r="W53" s="39"/>
-      <c r="X53" s="39"/>
-      <c r="Y53" s="39"/>
-      <c r="Z53" s="39"/>
-      <c r="AA53" s="39"/>
-      <c r="AB53" s="39"/>
-      <c r="AC53" s="39"/>
+      <c r="A53" s="104"/>
+      <c r="B53" s="105"/>
+      <c r="C53" s="105"/>
+      <c r="D53" s="105"/>
+      <c r="E53" s="105"/>
+      <c r="F53" s="105"/>
+      <c r="G53" s="105"/>
+      <c r="H53" s="105"/>
+      <c r="I53" s="105"/>
+      <c r="J53" s="105"/>
+      <c r="K53" s="105"/>
+      <c r="L53" s="106"/>
+      <c r="M53" s="98"/>
+      <c r="N53" s="98"/>
+      <c r="O53" s="98"/>
+      <c r="P53" s="98"/>
+      <c r="Q53" s="98"/>
+      <c r="R53" s="98"/>
+      <c r="S53" s="98"/>
+      <c r="T53" s="98"/>
+      <c r="U53" s="98"/>
+      <c r="V53" s="98"/>
+      <c r="W53" s="98"/>
+      <c r="X53" s="98"/>
+      <c r="Y53" s="98"/>
+      <c r="Z53" s="98"/>
+      <c r="AA53" s="98"/>
+      <c r="AB53" s="98"/>
+      <c r="AC53" s="98"/>
     </row>
     <row r="54" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="128"/>
-      <c r="B54" s="129"/>
-      <c r="C54" s="129"/>
-      <c r="D54" s="129"/>
-      <c r="E54" s="129"/>
-      <c r="F54" s="129"/>
-      <c r="G54" s="129"/>
-      <c r="H54" s="129"/>
-      <c r="I54" s="129"/>
-      <c r="J54" s="129"/>
-      <c r="K54" s="129"/>
-      <c r="L54" s="130"/>
-      <c r="M54" s="39"/>
-      <c r="N54" s="39"/>
-      <c r="O54" s="39"/>
-      <c r="P54" s="39"/>
-      <c r="Q54" s="39"/>
-      <c r="R54" s="39"/>
-      <c r="S54" s="39"/>
-      <c r="T54" s="39"/>
-      <c r="U54" s="39"/>
-      <c r="V54" s="39"/>
-      <c r="W54" s="39"/>
-      <c r="X54" s="39"/>
-      <c r="Y54" s="39"/>
-      <c r="Z54" s="39"/>
-      <c r="AA54" s="39"/>
-      <c r="AB54" s="39"/>
-      <c r="AC54" s="39"/>
+      <c r="A54" s="104"/>
+      <c r="B54" s="105"/>
+      <c r="C54" s="105"/>
+      <c r="D54" s="105"/>
+      <c r="E54" s="105"/>
+      <c r="F54" s="105"/>
+      <c r="G54" s="105"/>
+      <c r="H54" s="105"/>
+      <c r="I54" s="105"/>
+      <c r="J54" s="105"/>
+      <c r="K54" s="105"/>
+      <c r="L54" s="106"/>
+      <c r="M54" s="98"/>
+      <c r="N54" s="98"/>
+      <c r="O54" s="98"/>
+      <c r="P54" s="98"/>
+      <c r="Q54" s="98"/>
+      <c r="R54" s="98"/>
+      <c r="S54" s="98"/>
+      <c r="T54" s="98"/>
+      <c r="U54" s="98"/>
+      <c r="V54" s="98"/>
+      <c r="W54" s="98"/>
+      <c r="X54" s="98"/>
+      <c r="Y54" s="98"/>
+      <c r="Z54" s="98"/>
+      <c r="AA54" s="98"/>
+      <c r="AB54" s="98"/>
+      <c r="AC54" s="98"/>
     </row>
     <row r="55" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="128"/>
-      <c r="B55" s="129"/>
-      <c r="C55" s="129"/>
-      <c r="D55" s="129"/>
-      <c r="E55" s="129"/>
-      <c r="F55" s="129"/>
-      <c r="G55" s="129"/>
-      <c r="H55" s="129"/>
-      <c r="I55" s="129"/>
-      <c r="J55" s="129"/>
-      <c r="K55" s="129"/>
-      <c r="L55" s="130"/>
-      <c r="M55" s="39"/>
-      <c r="N55" s="39"/>
-      <c r="O55" s="39"/>
-      <c r="P55" s="39"/>
-      <c r="Q55" s="39"/>
-      <c r="R55" s="39"/>
-      <c r="S55" s="39"/>
-      <c r="T55" s="39"/>
-      <c r="U55" s="39"/>
-      <c r="V55" s="39"/>
-      <c r="W55" s="39"/>
-      <c r="X55" s="39"/>
-      <c r="Y55" s="39"/>
-      <c r="Z55" s="39"/>
-      <c r="AA55" s="39"/>
-      <c r="AB55" s="39"/>
-      <c r="AC55" s="39"/>
+      <c r="A55" s="104"/>
+      <c r="B55" s="105"/>
+      <c r="C55" s="105"/>
+      <c r="D55" s="105"/>
+      <c r="E55" s="105"/>
+      <c r="F55" s="105"/>
+      <c r="G55" s="105"/>
+      <c r="H55" s="105"/>
+      <c r="I55" s="105"/>
+      <c r="J55" s="105"/>
+      <c r="K55" s="105"/>
+      <c r="L55" s="106"/>
+      <c r="M55" s="98"/>
+      <c r="N55" s="98"/>
+      <c r="O55" s="98"/>
+      <c r="P55" s="98"/>
+      <c r="Q55" s="98"/>
+      <c r="R55" s="98"/>
+      <c r="S55" s="98"/>
+      <c r="T55" s="98"/>
+      <c r="U55" s="98"/>
+      <c r="V55" s="98"/>
+      <c r="W55" s="98"/>
+      <c r="X55" s="98"/>
+      <c r="Y55" s="98"/>
+      <c r="Z55" s="98"/>
+      <c r="AA55" s="98"/>
+      <c r="AB55" s="98"/>
+      <c r="AC55" s="98"/>
     </row>
     <row r="56" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="128"/>
-      <c r="B56" s="129"/>
-      <c r="C56" s="129"/>
-      <c r="D56" s="129"/>
-      <c r="E56" s="129"/>
-      <c r="F56" s="129"/>
-      <c r="G56" s="129"/>
-      <c r="H56" s="129"/>
-      <c r="I56" s="129"/>
-      <c r="J56" s="129"/>
-      <c r="K56" s="129"/>
-      <c r="L56" s="130"/>
-      <c r="M56" s="39"/>
-      <c r="N56" s="39"/>
-      <c r="O56" s="39"/>
-      <c r="P56" s="39"/>
-      <c r="Q56" s="39"/>
-      <c r="R56" s="39"/>
-      <c r="S56" s="39"/>
-      <c r="T56" s="39"/>
-      <c r="U56" s="39"/>
-      <c r="V56" s="39"/>
-      <c r="W56" s="39"/>
-      <c r="X56" s="39"/>
-      <c r="Y56" s="39"/>
-      <c r="Z56" s="39"/>
-      <c r="AA56" s="39"/>
-      <c r="AB56" s="39"/>
-      <c r="AC56" s="39"/>
+      <c r="A56" s="104"/>
+      <c r="B56" s="105"/>
+      <c r="C56" s="105"/>
+      <c r="D56" s="105"/>
+      <c r="E56" s="105"/>
+      <c r="F56" s="105"/>
+      <c r="G56" s="105"/>
+      <c r="H56" s="105"/>
+      <c r="I56" s="105"/>
+      <c r="J56" s="105"/>
+      <c r="K56" s="105"/>
+      <c r="L56" s="106"/>
+      <c r="M56" s="98"/>
+      <c r="N56" s="98"/>
+      <c r="O56" s="98"/>
+      <c r="P56" s="98"/>
+      <c r="Q56" s="98"/>
+      <c r="R56" s="98"/>
+      <c r="S56" s="98"/>
+      <c r="T56" s="98"/>
+      <c r="U56" s="98"/>
+      <c r="V56" s="98"/>
+      <c r="W56" s="98"/>
+      <c r="X56" s="98"/>
+      <c r="Y56" s="98"/>
+      <c r="Z56" s="98"/>
+      <c r="AA56" s="98"/>
+      <c r="AB56" s="98"/>
+      <c r="AC56" s="98"/>
     </row>
     <row r="57" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="70"/>
-      <c r="B57" s="71"/>
-      <c r="C57" s="71"/>
-      <c r="D57" s="71"/>
-      <c r="E57" s="71"/>
-      <c r="F57" s="71"/>
-      <c r="G57" s="71"/>
-      <c r="H57" s="71"/>
-      <c r="I57" s="71"/>
-      <c r="J57" s="71"/>
-      <c r="K57" s="71"/>
-      <c r="L57" s="72"/>
-      <c r="M57" s="39"/>
-      <c r="N57" s="39"/>
-      <c r="O57" s="39"/>
-      <c r="P57" s="39"/>
-      <c r="Q57" s="39"/>
-      <c r="R57" s="39"/>
-      <c r="S57" s="39"/>
-      <c r="T57" s="39"/>
-      <c r="U57" s="39"/>
-      <c r="V57" s="39"/>
-      <c r="W57" s="39"/>
-      <c r="X57" s="39"/>
-      <c r="Y57" s="39"/>
-      <c r="Z57" s="39"/>
-      <c r="AA57" s="39"/>
-      <c r="AB57" s="39"/>
-      <c r="AC57" s="39"/>
+      <c r="A57" s="95"/>
+      <c r="B57" s="96"/>
+      <c r="C57" s="96"/>
+      <c r="D57" s="96"/>
+      <c r="E57" s="96"/>
+      <c r="F57" s="96"/>
+      <c r="G57" s="96"/>
+      <c r="H57" s="96"/>
+      <c r="I57" s="96"/>
+      <c r="J57" s="96"/>
+      <c r="K57" s="96"/>
+      <c r="L57" s="97"/>
+      <c r="M57" s="98"/>
+      <c r="N57" s="98"/>
+      <c r="O57" s="98"/>
+      <c r="P57" s="98"/>
+      <c r="Q57" s="98"/>
+      <c r="R57" s="98"/>
+      <c r="S57" s="98"/>
+      <c r="T57" s="98"/>
+      <c r="U57" s="98"/>
+      <c r="V57" s="98"/>
+      <c r="W57" s="98"/>
+      <c r="X57" s="98"/>
+      <c r="Y57" s="98"/>
+      <c r="Z57" s="98"/>
+      <c r="AA57" s="98"/>
+      <c r="AB57" s="98"/>
+      <c r="AC57" s="98"/>
     </row>
     <row r="58" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A58" s="125">
+      <c r="A58" s="101">
         <v>1</v>
       </c>
-      <c r="B58" s="126"/>
-      <c r="C58" s="126"/>
-      <c r="D58" s="126"/>
-      <c r="E58" s="126"/>
-      <c r="F58" s="126"/>
-      <c r="G58" s="126"/>
-      <c r="H58" s="126"/>
-      <c r="I58" s="126"/>
-      <c r="J58" s="126"/>
-      <c r="K58" s="126"/>
-      <c r="L58" s="127"/>
-      <c r="M58" s="63">
+      <c r="B58" s="102"/>
+      <c r="C58" s="102"/>
+      <c r="D58" s="102"/>
+      <c r="E58" s="102"/>
+      <c r="F58" s="102"/>
+      <c r="G58" s="102"/>
+      <c r="H58" s="102"/>
+      <c r="I58" s="102"/>
+      <c r="J58" s="102"/>
+      <c r="K58" s="102"/>
+      <c r="L58" s="103"/>
+      <c r="M58" s="99">
         <v>2</v>
       </c>
-      <c r="N58" s="64"/>
-      <c r="O58" s="64"/>
-      <c r="P58" s="64"/>
-      <c r="Q58" s="64"/>
-      <c r="R58" s="64"/>
-      <c r="S58" s="63">
+      <c r="N58" s="100"/>
+      <c r="O58" s="100"/>
+      <c r="P58" s="100"/>
+      <c r="Q58" s="100"/>
+      <c r="R58" s="100"/>
+      <c r="S58" s="99">
         <v>3</v>
       </c>
-      <c r="T58" s="64"/>
-      <c r="U58" s="64"/>
-      <c r="V58" s="64"/>
-      <c r="W58" s="64"/>
-      <c r="X58" s="64"/>
-      <c r="Y58" s="64"/>
-      <c r="Z58" s="64">
+      <c r="T58" s="100"/>
+      <c r="U58" s="100"/>
+      <c r="V58" s="100"/>
+      <c r="W58" s="100"/>
+      <c r="X58" s="100"/>
+      <c r="Y58" s="100"/>
+      <c r="Z58" s="100">
         <v>4</v>
       </c>
-      <c r="AA58" s="64"/>
-      <c r="AB58" s="64"/>
-      <c r="AC58" s="64"/>
+      <c r="AA58" s="100"/>
+      <c r="AB58" s="100"/>
+      <c r="AC58" s="100"/>
     </row>
     <row r="59" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A59" s="125"/>
-      <c r="B59" s="126"/>
-      <c r="C59" s="126"/>
-      <c r="D59" s="126"/>
-      <c r="E59" s="126"/>
-      <c r="F59" s="126"/>
-      <c r="G59" s="126"/>
-      <c r="H59" s="126"/>
-      <c r="I59" s="126"/>
-      <c r="J59" s="126"/>
-      <c r="K59" s="126"/>
-      <c r="L59" s="127"/>
-      <c r="M59" s="63"/>
-      <c r="N59" s="64"/>
-      <c r="O59" s="64"/>
-      <c r="P59" s="64"/>
-      <c r="Q59" s="64"/>
-      <c r="R59" s="64"/>
-      <c r="S59" s="63"/>
-      <c r="T59" s="64"/>
-      <c r="U59" s="64"/>
-      <c r="V59" s="64"/>
-      <c r="W59" s="64"/>
-      <c r="X59" s="64"/>
-      <c r="Y59" s="64"/>
-      <c r="Z59" s="64"/>
-      <c r="AA59" s="64"/>
-      <c r="AB59" s="64"/>
-      <c r="AC59" s="64"/>
+      <c r="A59" s="101"/>
+      <c r="B59" s="102"/>
+      <c r="C59" s="102"/>
+      <c r="D59" s="102"/>
+      <c r="E59" s="102"/>
+      <c r="F59" s="102"/>
+      <c r="G59" s="102"/>
+      <c r="H59" s="102"/>
+      <c r="I59" s="102"/>
+      <c r="J59" s="102"/>
+      <c r="K59" s="102"/>
+      <c r="L59" s="103"/>
+      <c r="M59" s="99"/>
+      <c r="N59" s="100"/>
+      <c r="O59" s="100"/>
+      <c r="P59" s="100"/>
+      <c r="Q59" s="100"/>
+      <c r="R59" s="100"/>
+      <c r="S59" s="99"/>
+      <c r="T59" s="100"/>
+      <c r="U59" s="100"/>
+      <c r="V59" s="100"/>
+      <c r="W59" s="100"/>
+      <c r="X59" s="100"/>
+      <c r="Y59" s="100"/>
+      <c r="Z59" s="100"/>
+      <c r="AA59" s="100"/>
+      <c r="AB59" s="100"/>
+      <c r="AC59" s="100"/>
     </row>
     <row r="60" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A60" s="125"/>
-      <c r="B60" s="126"/>
-      <c r="C60" s="126"/>
-      <c r="D60" s="126"/>
-      <c r="E60" s="126"/>
-      <c r="F60" s="126"/>
-      <c r="G60" s="126"/>
-      <c r="H60" s="126"/>
-      <c r="I60" s="126"/>
-      <c r="J60" s="126"/>
-      <c r="K60" s="126"/>
-      <c r="L60" s="127"/>
-      <c r="M60" s="63"/>
-      <c r="N60" s="64"/>
-      <c r="O60" s="64"/>
-      <c r="P60" s="64"/>
-      <c r="Q60" s="64"/>
-      <c r="R60" s="64"/>
-      <c r="S60" s="63"/>
-      <c r="T60" s="64"/>
-      <c r="U60" s="64"/>
-      <c r="V60" s="64"/>
-      <c r="W60" s="64"/>
-      <c r="X60" s="64"/>
-      <c r="Y60" s="64"/>
-      <c r="Z60" s="64"/>
-      <c r="AA60" s="64"/>
-      <c r="AB60" s="64"/>
-      <c r="AC60" s="64"/>
+      <c r="A60" s="101"/>
+      <c r="B60" s="102"/>
+      <c r="C60" s="102"/>
+      <c r="D60" s="102"/>
+      <c r="E60" s="102"/>
+      <c r="F60" s="102"/>
+      <c r="G60" s="102"/>
+      <c r="H60" s="102"/>
+      <c r="I60" s="102"/>
+      <c r="J60" s="102"/>
+      <c r="K60" s="102"/>
+      <c r="L60" s="103"/>
+      <c r="M60" s="99"/>
+      <c r="N60" s="100"/>
+      <c r="O60" s="100"/>
+      <c r="P60" s="100"/>
+      <c r="Q60" s="100"/>
+      <c r="R60" s="100"/>
+      <c r="S60" s="99"/>
+      <c r="T60" s="100"/>
+      <c r="U60" s="100"/>
+      <c r="V60" s="100"/>
+      <c r="W60" s="100"/>
+      <c r="X60" s="100"/>
+      <c r="Y60" s="100"/>
+      <c r="Z60" s="100"/>
+      <c r="AA60" s="100"/>
+      <c r="AB60" s="100"/>
+      <c r="AC60" s="100"/>
     </row>
     <row r="61" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A61" s="125"/>
-      <c r="B61" s="126"/>
-      <c r="C61" s="126"/>
-      <c r="D61" s="126"/>
-      <c r="E61" s="126"/>
-      <c r="F61" s="126"/>
-      <c r="G61" s="126"/>
-      <c r="H61" s="126"/>
-      <c r="I61" s="126"/>
-      <c r="J61" s="126"/>
-      <c r="K61" s="126"/>
-      <c r="L61" s="127"/>
-      <c r="M61" s="63"/>
-      <c r="N61" s="64"/>
-      <c r="O61" s="64"/>
-      <c r="P61" s="64"/>
-      <c r="Q61" s="64"/>
-      <c r="R61" s="64"/>
-      <c r="S61" s="63"/>
-      <c r="T61" s="64"/>
-      <c r="U61" s="64"/>
-      <c r="V61" s="64"/>
-      <c r="W61" s="64"/>
-      <c r="X61" s="64"/>
-      <c r="Y61" s="64"/>
-      <c r="Z61" s="64"/>
-      <c r="AA61" s="64"/>
-      <c r="AB61" s="64"/>
-      <c r="AC61" s="64"/>
+      <c r="A61" s="101"/>
+      <c r="B61" s="102"/>
+      <c r="C61" s="102"/>
+      <c r="D61" s="102"/>
+      <c r="E61" s="102"/>
+      <c r="F61" s="102"/>
+      <c r="G61" s="102"/>
+      <c r="H61" s="102"/>
+      <c r="I61" s="102"/>
+      <c r="J61" s="102"/>
+      <c r="K61" s="102"/>
+      <c r="L61" s="103"/>
+      <c r="M61" s="99"/>
+      <c r="N61" s="100"/>
+      <c r="O61" s="100"/>
+      <c r="P61" s="100"/>
+      <c r="Q61" s="100"/>
+      <c r="R61" s="100"/>
+      <c r="S61" s="99"/>
+      <c r="T61" s="100"/>
+      <c r="U61" s="100"/>
+      <c r="V61" s="100"/>
+      <c r="W61" s="100"/>
+      <c r="X61" s="100"/>
+      <c r="Y61" s="100"/>
+      <c r="Z61" s="100"/>
+      <c r="AA61" s="100"/>
+      <c r="AB61" s="100"/>
+      <c r="AC61" s="100"/>
     </row>
     <row r="62" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A62" s="125"/>
-      <c r="B62" s="126"/>
-      <c r="C62" s="126"/>
-      <c r="D62" s="126"/>
-      <c r="E62" s="126"/>
-      <c r="F62" s="126"/>
-      <c r="G62" s="126"/>
-      <c r="H62" s="126"/>
-      <c r="I62" s="126"/>
-      <c r="J62" s="126"/>
-      <c r="K62" s="126"/>
-      <c r="L62" s="127"/>
-      <c r="M62" s="63"/>
-      <c r="N62" s="64"/>
-      <c r="O62" s="64"/>
-      <c r="P62" s="64"/>
-      <c r="Q62" s="64"/>
-      <c r="R62" s="64"/>
-      <c r="S62" s="63"/>
-      <c r="T62" s="64"/>
-      <c r="U62" s="64"/>
-      <c r="V62" s="64"/>
-      <c r="W62" s="64"/>
-      <c r="X62" s="64"/>
-      <c r="Y62" s="64"/>
-      <c r="Z62" s="64"/>
-      <c r="AA62" s="64"/>
-      <c r="AB62" s="64"/>
-      <c r="AC62" s="64"/>
+      <c r="A62" s="101"/>
+      <c r="B62" s="102"/>
+      <c r="C62" s="102"/>
+      <c r="D62" s="102"/>
+      <c r="E62" s="102"/>
+      <c r="F62" s="102"/>
+      <c r="G62" s="102"/>
+      <c r="H62" s="102"/>
+      <c r="I62" s="102"/>
+      <c r="J62" s="102"/>
+      <c r="K62" s="102"/>
+      <c r="L62" s="103"/>
+      <c r="M62" s="99"/>
+      <c r="N62" s="100"/>
+      <c r="O62" s="100"/>
+      <c r="P62" s="100"/>
+      <c r="Q62" s="100"/>
+      <c r="R62" s="100"/>
+      <c r="S62" s="99"/>
+      <c r="T62" s="100"/>
+      <c r="U62" s="100"/>
+      <c r="V62" s="100"/>
+      <c r="W62" s="100"/>
+      <c r="X62" s="100"/>
+      <c r="Y62" s="100"/>
+      <c r="Z62" s="100"/>
+      <c r="AA62" s="100"/>
+      <c r="AB62" s="100"/>
+      <c r="AC62" s="100"/>
     </row>
     <row r="64" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A64" s="37" t="s">
+      <c r="A64" s="30" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="65" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A65" s="37" t="s">
+      <c r="A65" s="30" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="66" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A66" s="61"/>
-      <c r="B66" s="61"/>
-      <c r="C66" s="61"/>
-      <c r="D66" s="61"/>
-      <c r="E66" s="61"/>
-      <c r="F66" s="61"/>
-      <c r="G66" s="61"/>
-      <c r="H66" s="61"/>
-      <c r="I66" s="61"/>
-      <c r="J66" s="61"/>
-      <c r="K66" s="61" t="s">
+      <c r="A66" s="33"/>
+      <c r="B66" s="33"/>
+      <c r="C66" s="33"/>
+      <c r="D66" s="33"/>
+      <c r="E66" s="33"/>
+      <c r="F66" s="33"/>
+      <c r="G66" s="33"/>
+      <c r="H66" s="33"/>
+      <c r="I66" s="33"/>
+      <c r="J66" s="33"/>
+      <c r="K66" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="L66" s="61"/>
-      <c r="M66" s="61"/>
-      <c r="N66" s="61"/>
-      <c r="O66" s="61"/>
-      <c r="P66" s="61"/>
-      <c r="Q66" s="61"/>
-      <c r="R66" s="61"/>
-      <c r="S66" s="61"/>
-      <c r="T66" s="61"/>
-      <c r="U66" s="61"/>
-      <c r="V66" s="61"/>
-      <c r="W66" s="61"/>
-      <c r="X66" s="61"/>
-      <c r="Y66" s="61"/>
-      <c r="Z66" s="61"/>
-      <c r="AA66" s="61"/>
-      <c r="AB66" s="61"/>
-      <c r="AC66" s="61"/>
+      <c r="L66" s="33"/>
+      <c r="M66" s="33"/>
+      <c r="N66" s="33"/>
+      <c r="O66" s="33"/>
+      <c r="P66" s="33"/>
+      <c r="Q66" s="33"/>
+      <c r="R66" s="33"/>
+      <c r="S66" s="33"/>
+      <c r="T66" s="33"/>
+      <c r="U66" s="33"/>
+      <c r="V66" s="33"/>
+      <c r="W66" s="33"/>
+      <c r="X66" s="33"/>
+      <c r="Y66" s="33"/>
+      <c r="Z66" s="33"/>
+      <c r="AA66" s="33"/>
+      <c r="AB66" s="33"/>
+      <c r="AC66" s="33"/>
     </row>
     <row r="67" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A67" s="65"/>
-      <c r="E67" s="65" t="s">
+      <c r="A67" s="35"/>
+      <c r="E67" s="35" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="68" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A68" s="37" t="s">
+      <c r="A68" s="30" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="69" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A69" s="61"/>
-      <c r="B69" s="61"/>
-      <c r="C69" s="66" t="s">
+      <c r="A69" s="33"/>
+      <c r="B69" s="33"/>
+      <c r="C69" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="D69" s="61"/>
-      <c r="E69" s="61"/>
-      <c r="F69" s="61"/>
-      <c r="G69" s="61"/>
-      <c r="H69" s="61"/>
-      <c r="I69" s="66"/>
-      <c r="J69" s="61"/>
-      <c r="K69" s="61"/>
-      <c r="L69" s="61"/>
-      <c r="M69" s="61"/>
-      <c r="N69" s="66"/>
-      <c r="O69" s="61"/>
-      <c r="P69" s="61"/>
-      <c r="Q69" s="61"/>
-      <c r="R69" s="61"/>
-      <c r="S69" s="61"/>
-      <c r="T69" s="61"/>
-      <c r="U69" s="61"/>
-      <c r="V69" s="61"/>
-      <c r="W69" s="61"/>
-      <c r="X69" s="61"/>
-      <c r="Y69" s="61"/>
-      <c r="Z69" s="61"/>
-      <c r="AA69" s="61"/>
-      <c r="AB69" s="61"/>
-      <c r="AC69" s="61"/>
+      <c r="D69" s="33"/>
+      <c r="E69" s="33"/>
+      <c r="F69" s="33"/>
+      <c r="G69" s="33"/>
+      <c r="H69" s="33"/>
+      <c r="I69" s="36"/>
+      <c r="J69" s="33"/>
+      <c r="K69" s="33"/>
+      <c r="L69" s="33"/>
+      <c r="M69" s="33"/>
+      <c r="N69" s="36"/>
+      <c r="O69" s="33"/>
+      <c r="P69" s="33"/>
+      <c r="Q69" s="33"/>
+      <c r="R69" s="33"/>
+      <c r="S69" s="33"/>
+      <c r="T69" s="33"/>
+      <c r="U69" s="33"/>
+      <c r="V69" s="33"/>
+      <c r="W69" s="33"/>
+      <c r="X69" s="33"/>
+      <c r="Y69" s="33"/>
+      <c r="Z69" s="33"/>
+      <c r="AA69" s="33"/>
+      <c r="AB69" s="33"/>
+      <c r="AC69" s="33"/>
     </row>
     <row r="70" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A70" s="65" t="s">
+      <c r="A70" s="35" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="71" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A71" s="61"/>
-      <c r="B71" s="61"/>
-      <c r="C71" s="61"/>
-      <c r="D71" s="61"/>
-      <c r="E71" s="61"/>
-      <c r="F71" s="61"/>
-      <c r="G71" s="61"/>
-      <c r="H71" s="61"/>
-      <c r="I71" s="61"/>
-      <c r="J71" s="61"/>
-      <c r="K71" s="61"/>
-      <c r="L71" s="61"/>
-      <c r="M71" s="61"/>
-      <c r="N71" s="61"/>
-      <c r="O71" s="61"/>
-      <c r="P71" s="61"/>
-      <c r="Q71" s="61"/>
-      <c r="R71" s="61"/>
-      <c r="S71" s="61"/>
-      <c r="T71" s="61"/>
-      <c r="U71" s="61"/>
-      <c r="V71" s="61"/>
-      <c r="W71" s="61"/>
-      <c r="X71" s="61"/>
-      <c r="Y71" s="61"/>
-      <c r="Z71" s="61"/>
-      <c r="AA71" s="61"/>
-      <c r="AB71" s="61"/>
-      <c r="AC71" s="61"/>
+      <c r="A71" s="33"/>
+      <c r="B71" s="33"/>
+      <c r="C71" s="33"/>
+      <c r="D71" s="33"/>
+      <c r="E71" s="33"/>
+      <c r="F71" s="33"/>
+      <c r="G71" s="33"/>
+      <c r="H71" s="33"/>
+      <c r="I71" s="33"/>
+      <c r="J71" s="33"/>
+      <c r="K71" s="33"/>
+      <c r="L71" s="33"/>
+      <c r="M71" s="33"/>
+      <c r="N71" s="33"/>
+      <c r="O71" s="33"/>
+      <c r="P71" s="33"/>
+      <c r="Q71" s="33"/>
+      <c r="R71" s="33"/>
+      <c r="S71" s="33"/>
+      <c r="T71" s="33"/>
+      <c r="U71" s="33"/>
+      <c r="V71" s="33"/>
+      <c r="W71" s="33"/>
+      <c r="X71" s="33"/>
+      <c r="Y71" s="33"/>
+      <c r="Z71" s="33"/>
+      <c r="AA71" s="33"/>
+      <c r="AB71" s="33"/>
+      <c r="AC71" s="33"/>
     </row>
     <row r="72" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A72" s="65" t="s">
+      <c r="A72" s="35" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="73" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A73" s="61"/>
-      <c r="B73" s="61"/>
-      <c r="C73" s="61"/>
-      <c r="D73" s="61"/>
-      <c r="E73" s="61"/>
-      <c r="F73" s="61"/>
-      <c r="G73" s="61"/>
-      <c r="H73" s="61"/>
-      <c r="I73" s="61"/>
-      <c r="J73" s="61"/>
-      <c r="K73" s="61"/>
-      <c r="L73" s="61"/>
-      <c r="M73" s="61"/>
-      <c r="N73" s="61"/>
-      <c r="O73" s="61"/>
-      <c r="P73" s="61"/>
-      <c r="Q73" s="61"/>
-      <c r="R73" s="61"/>
-      <c r="S73" s="61"/>
-      <c r="T73" s="61"/>
-      <c r="U73" s="61"/>
-      <c r="V73" s="61"/>
-      <c r="W73" s="61"/>
-      <c r="X73" s="61"/>
-      <c r="Y73" s="61"/>
-      <c r="Z73" s="61"/>
-      <c r="AA73" s="61"/>
-      <c r="AB73" s="61"/>
-      <c r="AC73" s="61"/>
+      <c r="A73" s="33"/>
+      <c r="B73" s="33"/>
+      <c r="C73" s="33"/>
+      <c r="D73" s="33"/>
+      <c r="E73" s="33"/>
+      <c r="F73" s="33"/>
+      <c r="G73" s="33"/>
+      <c r="H73" s="33"/>
+      <c r="I73" s="33"/>
+      <c r="J73" s="33"/>
+      <c r="K73" s="33"/>
+      <c r="L73" s="33"/>
+      <c r="M73" s="33"/>
+      <c r="N73" s="33"/>
+      <c r="O73" s="33"/>
+      <c r="P73" s="33"/>
+      <c r="Q73" s="33"/>
+      <c r="R73" s="33"/>
+      <c r="S73" s="33"/>
+      <c r="T73" s="33"/>
+      <c r="U73" s="33"/>
+      <c r="V73" s="33"/>
+      <c r="W73" s="33"/>
+      <c r="X73" s="33"/>
+      <c r="Y73" s="33"/>
+      <c r="Z73" s="33"/>
+      <c r="AA73" s="33"/>
+      <c r="AB73" s="33"/>
+      <c r="AC73" s="33"/>
     </row>
     <row r="74" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="F74" s="65" t="s">
+      <c r="F74" s="35" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="75" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A75" s="37" t="s">
+      <c r="A75" s="30" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="76" spans="1:29" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="67" t="s">
+      <c r="A76" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="B76" s="68"/>
-      <c r="C76" s="68"/>
-      <c r="D76" s="68"/>
-      <c r="E76" s="68"/>
-      <c r="F76" s="68"/>
-      <c r="G76" s="68"/>
-      <c r="H76" s="68"/>
-      <c r="I76" s="69"/>
-      <c r="J76" s="67" t="s">
+      <c r="B76" s="93"/>
+      <c r="C76" s="93"/>
+      <c r="D76" s="93"/>
+      <c r="E76" s="93"/>
+      <c r="F76" s="93"/>
+      <c r="G76" s="93"/>
+      <c r="H76" s="93"/>
+      <c r="I76" s="94"/>
+      <c r="J76" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="K76" s="68"/>
-      <c r="L76" s="68"/>
-      <c r="M76" s="68"/>
-      <c r="N76" s="69"/>
-      <c r="O76" s="38" t="s">
+      <c r="K76" s="93"/>
+      <c r="L76" s="93"/>
+      <c r="M76" s="93"/>
+      <c r="N76" s="94"/>
+      <c r="O76" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="P76" s="39"/>
-      <c r="Q76" s="39"/>
-      <c r="R76" s="39"/>
-      <c r="S76" s="39"/>
-      <c r="T76" s="39"/>
-      <c r="U76" s="39"/>
-      <c r="V76" s="39"/>
-      <c r="W76" s="39"/>
-      <c r="X76" s="39"/>
-      <c r="Y76" s="39"/>
-      <c r="Z76" s="67" t="s">
+      <c r="P76" s="98"/>
+      <c r="Q76" s="98"/>
+      <c r="R76" s="98"/>
+      <c r="S76" s="98"/>
+      <c r="T76" s="98"/>
+      <c r="U76" s="98"/>
+      <c r="V76" s="98"/>
+      <c r="W76" s="98"/>
+      <c r="X76" s="98"/>
+      <c r="Y76" s="98"/>
+      <c r="Z76" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="AA76" s="68"/>
-      <c r="AB76" s="68"/>
-      <c r="AC76" s="69"/>
+      <c r="AA76" s="93"/>
+      <c r="AB76" s="93"/>
+      <c r="AC76" s="94"/>
     </row>
     <row r="77" spans="1:29" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="70"/>
-      <c r="B77" s="71"/>
-      <c r="C77" s="71"/>
-      <c r="D77" s="71"/>
-      <c r="E77" s="71"/>
-      <c r="F77" s="71"/>
-      <c r="G77" s="71"/>
-      <c r="H77" s="71"/>
-      <c r="I77" s="72"/>
-      <c r="J77" s="70"/>
-      <c r="K77" s="71"/>
-      <c r="L77" s="71"/>
-      <c r="M77" s="71"/>
-      <c r="N77" s="72"/>
-      <c r="O77" s="39"/>
-      <c r="P77" s="39"/>
-      <c r="Q77" s="39"/>
-      <c r="R77" s="39"/>
-      <c r="S77" s="39"/>
-      <c r="T77" s="39"/>
-      <c r="U77" s="39"/>
-      <c r="V77" s="39"/>
-      <c r="W77" s="39"/>
-      <c r="X77" s="39"/>
-      <c r="Y77" s="39"/>
-      <c r="Z77" s="70"/>
-      <c r="AA77" s="71"/>
-      <c r="AB77" s="71"/>
-      <c r="AC77" s="72"/>
+      <c r="A77" s="95"/>
+      <c r="B77" s="96"/>
+      <c r="C77" s="96"/>
+      <c r="D77" s="96"/>
+      <c r="E77" s="96"/>
+      <c r="F77" s="96"/>
+      <c r="G77" s="96"/>
+      <c r="H77" s="96"/>
+      <c r="I77" s="97"/>
+      <c r="J77" s="95"/>
+      <c r="K77" s="96"/>
+      <c r="L77" s="96"/>
+      <c r="M77" s="96"/>
+      <c r="N77" s="97"/>
+      <c r="O77" s="98"/>
+      <c r="P77" s="98"/>
+      <c r="Q77" s="98"/>
+      <c r="R77" s="98"/>
+      <c r="S77" s="98"/>
+      <c r="T77" s="98"/>
+      <c r="U77" s="98"/>
+      <c r="V77" s="98"/>
+      <c r="W77" s="98"/>
+      <c r="X77" s="98"/>
+      <c r="Y77" s="98"/>
+      <c r="Z77" s="95"/>
+      <c r="AA77" s="96"/>
+      <c r="AB77" s="96"/>
+      <c r="AC77" s="97"/>
     </row>
     <row r="78" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="41">
+      <c r="A78" s="88">
         <v>1</v>
       </c>
-      <c r="B78" s="73"/>
-      <c r="C78" s="73"/>
-      <c r="D78" s="73"/>
-      <c r="E78" s="73"/>
-      <c r="F78" s="73"/>
-      <c r="G78" s="73"/>
-      <c r="H78" s="73"/>
-      <c r="I78" s="42"/>
-      <c r="J78" s="41">
+      <c r="B78" s="89"/>
+      <c r="C78" s="89"/>
+      <c r="D78" s="89"/>
+      <c r="E78" s="89"/>
+      <c r="F78" s="89"/>
+      <c r="G78" s="89"/>
+      <c r="H78" s="89"/>
+      <c r="I78" s="90"/>
+      <c r="J78" s="88">
         <v>2</v>
       </c>
-      <c r="K78" s="73"/>
-      <c r="L78" s="73"/>
-      <c r="M78" s="73"/>
-      <c r="N78" s="42"/>
-      <c r="O78" s="38">
+      <c r="K78" s="89"/>
+      <c r="L78" s="89"/>
+      <c r="M78" s="89"/>
+      <c r="N78" s="90"/>
+      <c r="O78" s="91">
         <v>3</v>
       </c>
-      <c r="P78" s="38"/>
-      <c r="Q78" s="38"/>
-      <c r="R78" s="38"/>
-      <c r="S78" s="38"/>
-      <c r="T78" s="38"/>
-      <c r="U78" s="38"/>
-      <c r="V78" s="38"/>
-      <c r="W78" s="38"/>
-      <c r="X78" s="38"/>
-      <c r="Y78" s="38"/>
-      <c r="Z78" s="38">
+      <c r="P78" s="91"/>
+      <c r="Q78" s="91"/>
+      <c r="R78" s="91"/>
+      <c r="S78" s="91"/>
+      <c r="T78" s="91"/>
+      <c r="U78" s="91"/>
+      <c r="V78" s="91"/>
+      <c r="W78" s="91"/>
+      <c r="X78" s="91"/>
+      <c r="Y78" s="91"/>
+      <c r="Z78" s="91">
         <v>4</v>
       </c>
-      <c r="AA78" s="38"/>
-      <c r="AB78" s="38"/>
-      <c r="AC78" s="38"/>
+      <c r="AA78" s="91"/>
+      <c r="AB78" s="91"/>
+      <c r="AC78" s="91"/>
     </row>
     <row r="79" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="74"/>
-      <c r="B79" s="74"/>
-      <c r="C79" s="74"/>
-      <c r="D79" s="74"/>
-      <c r="E79" s="74"/>
-      <c r="F79" s="74"/>
-      <c r="G79" s="74"/>
-      <c r="H79" s="74"/>
-      <c r="I79" s="74"/>
-      <c r="J79" s="74"/>
-      <c r="K79" s="74"/>
-      <c r="L79" s="74"/>
-      <c r="M79" s="74"/>
-      <c r="N79" s="74"/>
-      <c r="O79" s="74"/>
-      <c r="P79" s="74"/>
-      <c r="Q79" s="74"/>
-      <c r="R79" s="74"/>
-      <c r="S79" s="74"/>
-      <c r="T79" s="74"/>
-      <c r="U79" s="74"/>
-      <c r="V79" s="74"/>
-      <c r="W79" s="74"/>
-      <c r="X79" s="74"/>
-      <c r="Y79" s="74"/>
-      <c r="Z79" s="74"/>
-      <c r="AA79" s="74"/>
-      <c r="AB79" s="74"/>
-      <c r="AC79" s="74"/>
+      <c r="A79" s="37"/>
+      <c r="B79" s="37"/>
+      <c r="C79" s="37"/>
+      <c r="D79" s="37"/>
+      <c r="E79" s="37"/>
+      <c r="F79" s="37"/>
+      <c r="G79" s="37"/>
+      <c r="H79" s="37"/>
+      <c r="I79" s="37"/>
+      <c r="J79" s="37"/>
+      <c r="K79" s="37"/>
+      <c r="L79" s="37"/>
+      <c r="M79" s="37"/>
+      <c r="N79" s="37"/>
+      <c r="O79" s="37"/>
+      <c r="P79" s="37"/>
+      <c r="Q79" s="37"/>
+      <c r="R79" s="37"/>
+      <c r="S79" s="37"/>
+      <c r="T79" s="37"/>
+      <c r="U79" s="37"/>
+      <c r="V79" s="37"/>
+      <c r="W79" s="37"/>
+      <c r="X79" s="37"/>
+      <c r="Y79" s="37"/>
+      <c r="Z79" s="37"/>
+      <c r="AA79" s="37"/>
+      <c r="AB79" s="37"/>
+      <c r="AC79" s="37"/>
     </row>
     <row r="80" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A80" s="37" t="s">
+      <c r="A80" s="30" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="81" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="76" t="s">
+      <c r="A81" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="B81" s="75"/>
-      <c r="C81" s="76"/>
-      <c r="D81" s="77"/>
-      <c r="E81" s="77"/>
-      <c r="F81" s="77"/>
-      <c r="G81" s="77"/>
-      <c r="H81" s="77"/>
-      <c r="I81" s="77"/>
-      <c r="J81" s="77"/>
-      <c r="K81" s="77"/>
-      <c r="L81" s="77"/>
-      <c r="M81" s="78"/>
-      <c r="N81" s="131" t="s">
+      <c r="B81" s="38"/>
+      <c r="C81" s="39"/>
+      <c r="D81" s="40"/>
+      <c r="E81" s="40"/>
+      <c r="F81" s="40"/>
+      <c r="G81" s="40"/>
+      <c r="H81" s="40"/>
+      <c r="I81" s="40"/>
+      <c r="J81" s="40"/>
+      <c r="K81" s="40"/>
+      <c r="L81" s="40"/>
+      <c r="M81" s="41"/>
+      <c r="N81" s="83" t="s">
         <v>98</v>
       </c>
-      <c r="O81" s="77"/>
-      <c r="P81" s="77"/>
-      <c r="Q81" s="77"/>
-      <c r="R81" s="77"/>
-      <c r="S81" s="77"/>
-      <c r="T81" s="78"/>
-      <c r="U81" s="76"/>
-      <c r="V81" s="77"/>
-      <c r="W81" s="77"/>
-      <c r="X81" s="77"/>
-      <c r="Y81" s="78"/>
-      <c r="Z81" s="76" t="s">
+      <c r="O81" s="40"/>
+      <c r="P81" s="40"/>
+      <c r="Q81" s="40"/>
+      <c r="R81" s="40"/>
+      <c r="S81" s="40"/>
+      <c r="T81" s="41"/>
+      <c r="U81" s="39"/>
+      <c r="V81" s="40"/>
+      <c r="W81" s="40"/>
+      <c r="X81" s="40"/>
+      <c r="Y81" s="41"/>
+      <c r="Z81" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="AA81" s="79"/>
-      <c r="AB81" s="79"/>
-      <c r="AC81" s="80"/>
+      <c r="AA81" s="42"/>
+      <c r="AB81" s="42"/>
+      <c r="AC81" s="43"/>
     </row>
     <row r="82" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="82" t="s">
+      <c r="A82" s="45" t="s">
         <v>92</v>
       </c>
-      <c r="B82" s="81"/>
-      <c r="C82" s="82"/>
-      <c r="D82" s="83"/>
-      <c r="E82" s="83"/>
-      <c r="F82" s="83"/>
-      <c r="G82" s="83"/>
-      <c r="H82" s="83"/>
-      <c r="I82" s="83"/>
-      <c r="J82" s="83"/>
-      <c r="K82" s="83"/>
-      <c r="L82" s="83"/>
-      <c r="M82" s="84"/>
-      <c r="N82" s="82" t="s">
+      <c r="B82" s="44"/>
+      <c r="C82" s="45"/>
+      <c r="D82" s="46"/>
+      <c r="E82" s="46"/>
+      <c r="F82" s="46"/>
+      <c r="G82" s="46"/>
+      <c r="H82" s="46"/>
+      <c r="I82" s="46"/>
+      <c r="J82" s="46"/>
+      <c r="K82" s="46"/>
+      <c r="L82" s="46"/>
+      <c r="M82" s="47"/>
+      <c r="N82" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="O82" s="83"/>
-      <c r="P82" s="83"/>
-      <c r="Q82" s="83"/>
-      <c r="R82" s="83"/>
-      <c r="S82" s="83"/>
-      <c r="T82" s="84"/>
-      <c r="U82" s="82" t="s">
+      <c r="O82" s="46"/>
+      <c r="P82" s="46"/>
+      <c r="Q82" s="46"/>
+      <c r="R82" s="46"/>
+      <c r="S82" s="46"/>
+      <c r="T82" s="47"/>
+      <c r="U82" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="V82" s="83"/>
-      <c r="W82" s="83"/>
-      <c r="X82" s="83"/>
-      <c r="Y82" s="84"/>
-      <c r="Z82" s="82" t="s">
+      <c r="V82" s="46"/>
+      <c r="W82" s="46"/>
+      <c r="X82" s="46"/>
+      <c r="Y82" s="47"/>
+      <c r="Z82" s="45" t="s">
         <v>118</v>
       </c>
-      <c r="AA82" s="85"/>
-      <c r="AB82" s="85"/>
-      <c r="AC82" s="86"/>
+      <c r="AA82" s="48"/>
+      <c r="AB82" s="48"/>
+      <c r="AC82" s="49"/>
     </row>
     <row r="83" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A83" s="82" t="s">
+      <c r="A83" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="B83" s="81"/>
-      <c r="C83" s="82"/>
-      <c r="D83" s="83"/>
-      <c r="E83" s="83"/>
-      <c r="F83" s="83"/>
-      <c r="G83" s="83"/>
-      <c r="H83" s="83"/>
-      <c r="I83" s="83"/>
-      <c r="J83" s="83"/>
-      <c r="K83" s="83"/>
-      <c r="L83" s="83"/>
-      <c r="M83" s="84"/>
-      <c r="N83" s="82" t="s">
+      <c r="B83" s="44"/>
+      <c r="C83" s="45"/>
+      <c r="D83" s="46"/>
+      <c r="E83" s="46"/>
+      <c r="F83" s="46"/>
+      <c r="G83" s="46"/>
+      <c r="H83" s="46"/>
+      <c r="I83" s="46"/>
+      <c r="J83" s="46"/>
+      <c r="K83" s="46"/>
+      <c r="L83" s="46"/>
+      <c r="M83" s="47"/>
+      <c r="N83" s="45" t="s">
         <v>100</v>
       </c>
-      <c r="O83" s="83"/>
-      <c r="P83" s="83"/>
-      <c r="Q83" s="83"/>
-      <c r="R83" s="83"/>
-      <c r="S83" s="83"/>
-      <c r="T83" s="84"/>
-      <c r="U83" s="82" t="s">
+      <c r="O83" s="46"/>
+      <c r="P83" s="46"/>
+      <c r="Q83" s="46"/>
+      <c r="R83" s="46"/>
+      <c r="S83" s="46"/>
+      <c r="T83" s="47"/>
+      <c r="U83" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="V83" s="83"/>
-      <c r="W83" s="83"/>
-      <c r="X83" s="83"/>
-      <c r="Y83" s="84"/>
-      <c r="Z83" s="82" t="s">
+      <c r="V83" s="46"/>
+      <c r="W83" s="46"/>
+      <c r="X83" s="46"/>
+      <c r="Y83" s="47"/>
+      <c r="Z83" s="45" t="s">
         <v>119</v>
       </c>
-      <c r="AA83" s="85"/>
-      <c r="AB83" s="85"/>
-      <c r="AC83" s="86"/>
+      <c r="AA83" s="48"/>
+      <c r="AB83" s="48"/>
+      <c r="AC83" s="49"/>
     </row>
     <row r="84" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A84" s="82" t="s">
+      <c r="A84" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="B84" s="81"/>
-      <c r="C84" s="82"/>
-      <c r="D84" s="83"/>
-      <c r="E84" s="83"/>
-      <c r="F84" s="83"/>
-      <c r="G84" s="83"/>
-      <c r="H84" s="83"/>
-      <c r="I84" s="83"/>
-      <c r="J84" s="83"/>
-      <c r="K84" s="83"/>
-      <c r="L84" s="83"/>
-      <c r="M84" s="84"/>
-      <c r="N84" s="82" t="s">
+      <c r="B84" s="44"/>
+      <c r="C84" s="45"/>
+      <c r="D84" s="46"/>
+      <c r="E84" s="46"/>
+      <c r="F84" s="46"/>
+      <c r="G84" s="46"/>
+      <c r="H84" s="46"/>
+      <c r="I84" s="46"/>
+      <c r="J84" s="46"/>
+      <c r="K84" s="46"/>
+      <c r="L84" s="46"/>
+      <c r="M84" s="47"/>
+      <c r="N84" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="O84" s="83"/>
-      <c r="P84" s="83"/>
-      <c r="Q84" s="83"/>
-      <c r="R84" s="83"/>
-      <c r="S84" s="83"/>
-      <c r="T84" s="84"/>
-      <c r="U84" s="82" t="s">
+      <c r="O84" s="46"/>
+      <c r="P84" s="46"/>
+      <c r="Q84" s="46"/>
+      <c r="R84" s="46"/>
+      <c r="S84" s="46"/>
+      <c r="T84" s="47"/>
+      <c r="U84" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="V84" s="83"/>
-      <c r="W84" s="83"/>
-      <c r="X84" s="83"/>
-      <c r="Y84" s="84"/>
-      <c r="Z84" s="82" t="s">
+      <c r="V84" s="46"/>
+      <c r="W84" s="46"/>
+      <c r="X84" s="46"/>
+      <c r="Y84" s="47"/>
+      <c r="Z84" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="AA84" s="85"/>
-      <c r="AB84" s="85"/>
-      <c r="AC84" s="86"/>
+      <c r="AA84" s="48"/>
+      <c r="AB84" s="48"/>
+      <c r="AC84" s="49"/>
     </row>
     <row r="85" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A85" s="82" t="s">
+      <c r="A85" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="B85" s="81"/>
-      <c r="C85" s="82"/>
-      <c r="D85" s="83"/>
-      <c r="E85" s="83"/>
-      <c r="F85" s="83"/>
-      <c r="G85" s="83"/>
-      <c r="H85" s="83"/>
-      <c r="I85" s="83"/>
-      <c r="J85" s="83"/>
-      <c r="K85" s="83"/>
-      <c r="L85" s="83"/>
-      <c r="M85" s="84"/>
-      <c r="N85" s="82" t="s">
+      <c r="B85" s="44"/>
+      <c r="C85" s="45"/>
+      <c r="D85" s="46"/>
+      <c r="E85" s="46"/>
+      <c r="F85" s="46"/>
+      <c r="G85" s="46"/>
+      <c r="H85" s="46"/>
+      <c r="I85" s="46"/>
+      <c r="J85" s="46"/>
+      <c r="K85" s="46"/>
+      <c r="L85" s="46"/>
+      <c r="M85" s="47"/>
+      <c r="N85" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="O85" s="83"/>
-      <c r="P85" s="83"/>
-      <c r="Q85" s="83"/>
-      <c r="R85" s="83"/>
-      <c r="S85" s="83"/>
-      <c r="T85" s="84"/>
-      <c r="U85" s="82" t="s">
+      <c r="O85" s="46"/>
+      <c r="P85" s="46"/>
+      <c r="Q85" s="46"/>
+      <c r="R85" s="46"/>
+      <c r="S85" s="46"/>
+      <c r="T85" s="47"/>
+      <c r="U85" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="V85" s="83"/>
-      <c r="W85" s="83"/>
-      <c r="X85" s="83"/>
-      <c r="Y85" s="84"/>
-      <c r="Z85" s="82" t="s">
+      <c r="V85" s="46"/>
+      <c r="W85" s="46"/>
+      <c r="X85" s="46"/>
+      <c r="Y85" s="47"/>
+      <c r="Z85" s="45" t="s">
         <v>121</v>
       </c>
-      <c r="AA85" s="85"/>
-      <c r="AB85" s="85"/>
-      <c r="AC85" s="86"/>
+      <c r="AA85" s="48"/>
+      <c r="AB85" s="48"/>
+      <c r="AC85" s="49"/>
     </row>
     <row r="86" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A86" s="82" t="s">
+      <c r="A86" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="B86" s="81"/>
-      <c r="C86" s="82"/>
-      <c r="D86" s="83"/>
-      <c r="E86" s="83"/>
-      <c r="F86" s="83"/>
-      <c r="G86" s="83"/>
-      <c r="H86" s="83"/>
-      <c r="I86" s="83"/>
-      <c r="J86" s="83"/>
-      <c r="K86" s="83"/>
-      <c r="L86" s="83"/>
-      <c r="M86" s="84"/>
-      <c r="N86" s="82" t="s">
+      <c r="B86" s="44"/>
+      <c r="C86" s="45"/>
+      <c r="D86" s="46"/>
+      <c r="E86" s="46"/>
+      <c r="F86" s="46"/>
+      <c r="G86" s="46"/>
+      <c r="H86" s="46"/>
+      <c r="I86" s="46"/>
+      <c r="J86" s="46"/>
+      <c r="K86" s="46"/>
+      <c r="L86" s="46"/>
+      <c r="M86" s="47"/>
+      <c r="N86" s="45" t="s">
         <v>103</v>
       </c>
-      <c r="O86" s="83"/>
-      <c r="P86" s="83"/>
-      <c r="Q86" s="83"/>
-      <c r="R86" s="83"/>
-      <c r="S86" s="83"/>
-      <c r="T86" s="84"/>
-      <c r="U86" s="82" t="s">
+      <c r="O86" s="46"/>
+      <c r="P86" s="46"/>
+      <c r="Q86" s="46"/>
+      <c r="R86" s="46"/>
+      <c r="S86" s="46"/>
+      <c r="T86" s="47"/>
+      <c r="U86" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="V86" s="83"/>
-      <c r="W86" s="83"/>
-      <c r="X86" s="83"/>
-      <c r="Y86" s="84"/>
-      <c r="Z86" s="82" t="s">
+      <c r="V86" s="46"/>
+      <c r="W86" s="46"/>
+      <c r="X86" s="46"/>
+      <c r="Y86" s="47"/>
+      <c r="Z86" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="AA86" s="85"/>
-      <c r="AB86" s="85"/>
-      <c r="AC86" s="86"/>
+      <c r="AA86" s="48"/>
+      <c r="AB86" s="48"/>
+      <c r="AC86" s="49"/>
     </row>
     <row r="87" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A87" s="82" t="s">
+      <c r="A87" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="B87" s="81"/>
-      <c r="C87" s="82"/>
-      <c r="D87" s="83"/>
-      <c r="E87" s="83"/>
-      <c r="F87" s="83"/>
-      <c r="G87" s="83"/>
-      <c r="H87" s="83"/>
-      <c r="I87" s="83"/>
-      <c r="J87" s="83"/>
-      <c r="K87" s="83"/>
-      <c r="L87" s="83"/>
-      <c r="M87" s="84"/>
-      <c r="N87" s="82" t="s">
+      <c r="B87" s="44"/>
+      <c r="C87" s="45"/>
+      <c r="D87" s="46"/>
+      <c r="E87" s="46"/>
+      <c r="F87" s="46"/>
+      <c r="G87" s="46"/>
+      <c r="H87" s="46"/>
+      <c r="I87" s="46"/>
+      <c r="J87" s="46"/>
+      <c r="K87" s="46"/>
+      <c r="L87" s="46"/>
+      <c r="M87" s="47"/>
+      <c r="N87" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="O87" s="83"/>
-      <c r="P87" s="83"/>
-      <c r="Q87" s="83"/>
-      <c r="R87" s="83"/>
-      <c r="S87" s="83"/>
-      <c r="T87" s="84"/>
-      <c r="U87" s="82" t="s">
+      <c r="O87" s="46"/>
+      <c r="P87" s="46"/>
+      <c r="Q87" s="46"/>
+      <c r="R87" s="46"/>
+      <c r="S87" s="46"/>
+      <c r="T87" s="47"/>
+      <c r="U87" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="V87" s="83"/>
-      <c r="W87" s="83"/>
-      <c r="X87" s="83"/>
-      <c r="Y87" s="84"/>
-      <c r="Z87" s="82" t="s">
+      <c r="V87" s="46"/>
+      <c r="W87" s="46"/>
+      <c r="X87" s="46"/>
+      <c r="Y87" s="47"/>
+      <c r="Z87" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="AA87" s="85"/>
-      <c r="AB87" s="85"/>
-      <c r="AC87" s="86"/>
+      <c r="AA87" s="48"/>
+      <c r="AB87" s="48"/>
+      <c r="AC87" s="49"/>
     </row>
     <row r="88" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A88" s="82" t="s">
+      <c r="A88" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="B88" s="81"/>
-      <c r="C88" s="82"/>
-      <c r="D88" s="83"/>
-      <c r="E88" s="83"/>
-      <c r="F88" s="83"/>
-      <c r="G88" s="83"/>
-      <c r="H88" s="83"/>
-      <c r="I88" s="83"/>
-      <c r="J88" s="83"/>
-      <c r="K88" s="83"/>
-      <c r="L88" s="83"/>
-      <c r="M88" s="84"/>
-      <c r="N88" s="82" t="s">
+      <c r="B88" s="44"/>
+      <c r="C88" s="45"/>
+      <c r="D88" s="46"/>
+      <c r="E88" s="46"/>
+      <c r="F88" s="46"/>
+      <c r="G88" s="46"/>
+      <c r="H88" s="46"/>
+      <c r="I88" s="46"/>
+      <c r="J88" s="46"/>
+      <c r="K88" s="46"/>
+      <c r="L88" s="46"/>
+      <c r="M88" s="47"/>
+      <c r="N88" s="45" t="s">
         <v>105</v>
       </c>
-      <c r="O88" s="83"/>
-      <c r="P88" s="83"/>
-      <c r="Q88" s="83"/>
-      <c r="R88" s="83"/>
-      <c r="S88" s="83"/>
-      <c r="T88" s="84"/>
-      <c r="U88" s="82" t="s">
+      <c r="O88" s="46"/>
+      <c r="P88" s="46"/>
+      <c r="Q88" s="46"/>
+      <c r="R88" s="46"/>
+      <c r="S88" s="46"/>
+      <c r="T88" s="47"/>
+      <c r="U88" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="V88" s="83"/>
-      <c r="W88" s="83"/>
-      <c r="X88" s="83"/>
-      <c r="Y88" s="84"/>
-      <c r="Z88" s="82" t="s">
+      <c r="V88" s="46"/>
+      <c r="W88" s="46"/>
+      <c r="X88" s="46"/>
+      <c r="Y88" s="47"/>
+      <c r="Z88" s="45" t="s">
         <v>123</v>
       </c>
-      <c r="AA88" s="85"/>
-      <c r="AB88" s="85"/>
-      <c r="AC88" s="86"/>
+      <c r="AA88" s="48"/>
+      <c r="AB88" s="48"/>
+      <c r="AC88" s="49"/>
     </row>
     <row r="89" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A89" s="82" t="s">
+      <c r="A89" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="B89" s="81"/>
-      <c r="C89" s="82"/>
-      <c r="D89" s="83"/>
-      <c r="E89" s="83"/>
-      <c r="F89" s="83"/>
-      <c r="G89" s="83"/>
-      <c r="H89" s="83"/>
-      <c r="I89" s="83"/>
-      <c r="J89" s="83"/>
-      <c r="K89" s="83"/>
-      <c r="L89" s="83"/>
-      <c r="M89" s="84"/>
-      <c r="N89" s="82" t="s">
+      <c r="B89" s="44"/>
+      <c r="C89" s="45"/>
+      <c r="D89" s="46"/>
+      <c r="E89" s="46"/>
+      <c r="F89" s="46"/>
+      <c r="G89" s="46"/>
+      <c r="H89" s="46"/>
+      <c r="I89" s="46"/>
+      <c r="J89" s="46"/>
+      <c r="K89" s="46"/>
+      <c r="L89" s="46"/>
+      <c r="M89" s="47"/>
+      <c r="N89" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="O89" s="83"/>
-      <c r="P89" s="83"/>
-      <c r="Q89" s="83"/>
-      <c r="R89" s="83"/>
-      <c r="S89" s="83"/>
-      <c r="T89" s="84"/>
-      <c r="U89" s="82" t="s">
+      <c r="O89" s="46"/>
+      <c r="P89" s="46"/>
+      <c r="Q89" s="46"/>
+      <c r="R89" s="46"/>
+      <c r="S89" s="46"/>
+      <c r="T89" s="47"/>
+      <c r="U89" s="45" t="s">
         <v>115</v>
       </c>
-      <c r="V89" s="83"/>
-      <c r="W89" s="83"/>
-      <c r="X89" s="83"/>
-      <c r="Y89" s="84"/>
-      <c r="Z89" s="82" t="s">
+      <c r="V89" s="46"/>
+      <c r="W89" s="46"/>
+      <c r="X89" s="46"/>
+      <c r="Y89" s="47"/>
+      <c r="Z89" s="45" t="s">
         <v>124</v>
       </c>
-      <c r="AA89" s="85"/>
-      <c r="AB89" s="85"/>
-      <c r="AC89" s="86"/>
+      <c r="AA89" s="48"/>
+      <c r="AB89" s="48"/>
+      <c r="AC89" s="49"/>
     </row>
     <row r="90" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A90" s="88" t="s">
+      <c r="A90" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="B90" s="87"/>
-      <c r="C90" s="88"/>
-      <c r="D90" s="89"/>
-      <c r="E90" s="89"/>
-      <c r="F90" s="89"/>
-      <c r="G90" s="89"/>
-      <c r="H90" s="89"/>
-      <c r="I90" s="89"/>
-      <c r="J90" s="89"/>
-      <c r="K90" s="89"/>
-      <c r="L90" s="89"/>
-      <c r="M90" s="90"/>
-      <c r="N90" s="88" t="s">
+      <c r="B90" s="50"/>
+      <c r="C90" s="51"/>
+      <c r="D90" s="52"/>
+      <c r="E90" s="52"/>
+      <c r="F90" s="52"/>
+      <c r="G90" s="52"/>
+      <c r="H90" s="52"/>
+      <c r="I90" s="52"/>
+      <c r="J90" s="52"/>
+      <c r="K90" s="52"/>
+      <c r="L90" s="52"/>
+      <c r="M90" s="53"/>
+      <c r="N90" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="O90" s="89"/>
-      <c r="P90" s="89"/>
-      <c r="Q90" s="89"/>
-      <c r="R90" s="89"/>
-      <c r="S90" s="89"/>
-      <c r="T90" s="90"/>
-      <c r="U90" s="88"/>
-      <c r="V90" s="89"/>
-      <c r="W90" s="89"/>
-      <c r="X90" s="89"/>
-      <c r="Y90" s="90"/>
-      <c r="Z90" s="88"/>
-      <c r="AA90" s="91"/>
-      <c r="AB90" s="91"/>
-      <c r="AC90" s="92"/>
+      <c r="O90" s="52"/>
+      <c r="P90" s="52"/>
+      <c r="Q90" s="52"/>
+      <c r="R90" s="52"/>
+      <c r="S90" s="52"/>
+      <c r="T90" s="53"/>
+      <c r="U90" s="51"/>
+      <c r="V90" s="52"/>
+      <c r="W90" s="52"/>
+      <c r="X90" s="52"/>
+      <c r="Y90" s="53"/>
+      <c r="Z90" s="51"/>
+      <c r="AA90" s="54"/>
+      <c r="AB90" s="54"/>
+      <c r="AC90" s="55"/>
     </row>
     <row r="91" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A91" s="93"/>
-      <c r="B91" s="132"/>
-      <c r="C91" s="132"/>
-      <c r="D91" s="95"/>
-      <c r="E91" s="95"/>
-      <c r="F91" s="95"/>
-      <c r="G91" s="95"/>
-      <c r="H91" s="95"/>
-      <c r="I91" s="95"/>
-      <c r="J91" s="95"/>
-      <c r="K91" s="95"/>
-      <c r="L91" s="95"/>
-      <c r="M91" s="96"/>
-      <c r="N91" s="94"/>
-      <c r="O91" s="95"/>
-      <c r="P91" s="95"/>
-      <c r="Q91" s="95"/>
-      <c r="R91" s="95"/>
-      <c r="S91" s="95"/>
-      <c r="T91" s="96"/>
-      <c r="U91" s="94"/>
-      <c r="V91" s="95"/>
-      <c r="W91" s="95"/>
-      <c r="X91" s="95"/>
-      <c r="Y91" s="96"/>
-      <c r="Z91" s="94"/>
-      <c r="AA91" s="95"/>
-      <c r="AB91" s="95"/>
-      <c r="AC91" s="96"/>
+      <c r="A91" s="56"/>
+      <c r="B91" s="84"/>
+      <c r="C91" s="84"/>
+      <c r="D91" s="58"/>
+      <c r="E91" s="58"/>
+      <c r="F91" s="58"/>
+      <c r="G91" s="58"/>
+      <c r="H91" s="58"/>
+      <c r="I91" s="58"/>
+      <c r="J91" s="58"/>
+      <c r="K91" s="58"/>
+      <c r="L91" s="58"/>
+      <c r="M91" s="59"/>
+      <c r="N91" s="57"/>
+      <c r="O91" s="58"/>
+      <c r="P91" s="58"/>
+      <c r="Q91" s="58"/>
+      <c r="R91" s="58"/>
+      <c r="S91" s="58"/>
+      <c r="T91" s="59"/>
+      <c r="U91" s="57"/>
+      <c r="V91" s="58"/>
+      <c r="W91" s="58"/>
+      <c r="X91" s="58"/>
+      <c r="Y91" s="59"/>
+      <c r="Z91" s="57"/>
+      <c r="AA91" s="58"/>
+      <c r="AB91" s="58"/>
+      <c r="AC91" s="59"/>
     </row>
     <row r="92" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A92" s="93"/>
-      <c r="B92" s="132"/>
-      <c r="C92" s="132"/>
-      <c r="D92" s="95"/>
-      <c r="E92" s="95"/>
-      <c r="F92" s="95"/>
-      <c r="G92" s="95"/>
-      <c r="H92" s="95"/>
-      <c r="I92" s="95"/>
-      <c r="J92" s="95"/>
-      <c r="K92" s="95"/>
-      <c r="L92" s="95"/>
-      <c r="M92" s="96"/>
-      <c r="N92" s="94"/>
-      <c r="O92" s="95"/>
-      <c r="P92" s="95"/>
-      <c r="Q92" s="95"/>
-      <c r="R92" s="95"/>
-      <c r="S92" s="95"/>
-      <c r="T92" s="96"/>
-      <c r="U92" s="94"/>
-      <c r="V92" s="95"/>
-      <c r="W92" s="95"/>
-      <c r="X92" s="95"/>
-      <c r="Y92" s="96"/>
-      <c r="Z92" s="94"/>
-      <c r="AA92" s="95"/>
-      <c r="AB92" s="95"/>
-      <c r="AC92" s="96"/>
+      <c r="A92" s="56"/>
+      <c r="B92" s="84"/>
+      <c r="C92" s="84"/>
+      <c r="D92" s="58"/>
+      <c r="E92" s="58"/>
+      <c r="F92" s="58"/>
+      <c r="G92" s="58"/>
+      <c r="H92" s="58"/>
+      <c r="I92" s="58"/>
+      <c r="J92" s="58"/>
+      <c r="K92" s="58"/>
+      <c r="L92" s="58"/>
+      <c r="M92" s="59"/>
+      <c r="N92" s="57"/>
+      <c r="O92" s="58"/>
+      <c r="P92" s="58"/>
+      <c r="Q92" s="58"/>
+      <c r="R92" s="58"/>
+      <c r="S92" s="58"/>
+      <c r="T92" s="59"/>
+      <c r="U92" s="57"/>
+      <c r="V92" s="58"/>
+      <c r="W92" s="58"/>
+      <c r="X92" s="58"/>
+      <c r="Y92" s="59"/>
+      <c r="Z92" s="57"/>
+      <c r="AA92" s="58"/>
+      <c r="AB92" s="58"/>
+      <c r="AC92" s="59"/>
     </row>
     <row r="93" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A93" s="93"/>
-      <c r="B93" s="132"/>
-      <c r="C93" s="132"/>
-      <c r="D93" s="132"/>
-      <c r="E93" s="132"/>
-      <c r="F93" s="95"/>
-      <c r="G93" s="95"/>
-      <c r="H93" s="95"/>
-      <c r="I93" s="95"/>
-      <c r="J93" s="95"/>
-      <c r="K93" s="95"/>
-      <c r="L93" s="95"/>
-      <c r="M93" s="96"/>
-      <c r="N93" s="94"/>
-      <c r="O93" s="95"/>
-      <c r="P93" s="95"/>
-      <c r="Q93" s="95"/>
-      <c r="R93" s="95"/>
-      <c r="S93" s="95"/>
-      <c r="T93" s="96"/>
-      <c r="U93" s="94"/>
-      <c r="V93" s="95"/>
-      <c r="W93" s="95"/>
-      <c r="X93" s="95"/>
-      <c r="Y93" s="96"/>
-      <c r="Z93" s="94"/>
-      <c r="AA93" s="95"/>
-      <c r="AB93" s="95"/>
-      <c r="AC93" s="96"/>
+      <c r="A93" s="56"/>
+      <c r="B93" s="84"/>
+      <c r="C93" s="84"/>
+      <c r="D93" s="84"/>
+      <c r="E93" s="84"/>
+      <c r="F93" s="58"/>
+      <c r="G93" s="58"/>
+      <c r="H93" s="58"/>
+      <c r="I93" s="58"/>
+      <c r="J93" s="58"/>
+      <c r="K93" s="58"/>
+      <c r="L93" s="58"/>
+      <c r="M93" s="59"/>
+      <c r="N93" s="57"/>
+      <c r="O93" s="58"/>
+      <c r="P93" s="58"/>
+      <c r="Q93" s="58"/>
+      <c r="R93" s="58"/>
+      <c r="S93" s="58"/>
+      <c r="T93" s="59"/>
+      <c r="U93" s="57"/>
+      <c r="V93" s="58"/>
+      <c r="W93" s="58"/>
+      <c r="X93" s="58"/>
+      <c r="Y93" s="59"/>
+      <c r="Z93" s="57"/>
+      <c r="AA93" s="58"/>
+      <c r="AB93" s="58"/>
+      <c r="AC93" s="59"/>
     </row>
     <row r="94" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A94" s="93"/>
-      <c r="B94" s="132"/>
-      <c r="C94" s="132"/>
-      <c r="D94" s="132"/>
-      <c r="E94" s="95"/>
-      <c r="F94" s="95"/>
-      <c r="G94" s="95"/>
-      <c r="H94" s="95"/>
-      <c r="I94" s="95"/>
-      <c r="J94" s="95"/>
-      <c r="K94" s="95"/>
-      <c r="L94" s="95"/>
-      <c r="M94" s="96"/>
-      <c r="N94" s="94"/>
-      <c r="O94" s="95"/>
-      <c r="P94" s="95"/>
-      <c r="Q94" s="95"/>
-      <c r="R94" s="95"/>
-      <c r="S94" s="95"/>
-      <c r="T94" s="96"/>
-      <c r="U94" s="94"/>
-      <c r="V94" s="95"/>
-      <c r="W94" s="95"/>
-      <c r="X94" s="95"/>
-      <c r="Y94" s="96"/>
-      <c r="Z94" s="94"/>
-      <c r="AA94" s="95"/>
-      <c r="AB94" s="95"/>
-      <c r="AC94" s="96"/>
+      <c r="A94" s="56"/>
+      <c r="B94" s="84"/>
+      <c r="C94" s="84"/>
+      <c r="D94" s="84"/>
+      <c r="E94" s="58"/>
+      <c r="F94" s="58"/>
+      <c r="G94" s="58"/>
+      <c r="H94" s="58"/>
+      <c r="I94" s="58"/>
+      <c r="J94" s="58"/>
+      <c r="K94" s="58"/>
+      <c r="L94" s="58"/>
+      <c r="M94" s="59"/>
+      <c r="N94" s="57"/>
+      <c r="O94" s="58"/>
+      <c r="P94" s="58"/>
+      <c r="Q94" s="58"/>
+      <c r="R94" s="58"/>
+      <c r="S94" s="58"/>
+      <c r="T94" s="59"/>
+      <c r="U94" s="57"/>
+      <c r="V94" s="58"/>
+      <c r="W94" s="58"/>
+      <c r="X94" s="58"/>
+      <c r="Y94" s="59"/>
+      <c r="Z94" s="57"/>
+      <c r="AA94" s="58"/>
+      <c r="AB94" s="58"/>
+      <c r="AC94" s="59"/>
     </row>
     <row r="95" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A95" s="93"/>
-      <c r="B95" s="132"/>
-      <c r="C95" s="132"/>
-      <c r="D95" s="132"/>
-      <c r="E95" s="95"/>
-      <c r="F95" s="95"/>
-      <c r="G95" s="95"/>
-      <c r="H95" s="95"/>
-      <c r="I95" s="95"/>
-      <c r="J95" s="95"/>
-      <c r="K95" s="95"/>
-      <c r="L95" s="95"/>
-      <c r="M95" s="96"/>
-      <c r="N95" s="94"/>
-      <c r="O95" s="95"/>
-      <c r="P95" s="95"/>
-      <c r="Q95" s="95"/>
-      <c r="R95" s="95"/>
-      <c r="S95" s="95"/>
-      <c r="T95" s="96"/>
-      <c r="U95" s="94"/>
-      <c r="V95" s="95"/>
-      <c r="W95" s="95"/>
-      <c r="X95" s="95"/>
-      <c r="Y95" s="96"/>
-      <c r="Z95" s="94"/>
-      <c r="AA95" s="95"/>
-      <c r="AB95" s="95"/>
-      <c r="AC95" s="96"/>
+      <c r="A95" s="56"/>
+      <c r="B95" s="84"/>
+      <c r="C95" s="84"/>
+      <c r="D95" s="84"/>
+      <c r="E95" s="58"/>
+      <c r="F95" s="58"/>
+      <c r="G95" s="58"/>
+      <c r="H95" s="58"/>
+      <c r="I95" s="58"/>
+      <c r="J95" s="58"/>
+      <c r="K95" s="58"/>
+      <c r="L95" s="58"/>
+      <c r="M95" s="59"/>
+      <c r="N95" s="57"/>
+      <c r="O95" s="58"/>
+      <c r="P95" s="58"/>
+      <c r="Q95" s="58"/>
+      <c r="R95" s="58"/>
+      <c r="S95" s="58"/>
+      <c r="T95" s="59"/>
+      <c r="U95" s="57"/>
+      <c r="V95" s="58"/>
+      <c r="W95" s="58"/>
+      <c r="X95" s="58"/>
+      <c r="Y95" s="59"/>
+      <c r="Z95" s="57"/>
+      <c r="AA95" s="58"/>
+      <c r="AB95" s="58"/>
+      <c r="AC95" s="59"/>
     </row>
     <row r="97" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A97" s="37" t="s">
+      <c r="A97" s="30" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="98" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A98" s="61"/>
-      <c r="B98" s="61"/>
-      <c r="C98" s="61"/>
-      <c r="D98" s="61"/>
-      <c r="E98" s="61"/>
-      <c r="F98" s="61"/>
-      <c r="G98" s="61"/>
-      <c r="H98" s="61"/>
-      <c r="I98" s="61"/>
-      <c r="J98" s="61"/>
-      <c r="K98" s="61"/>
-      <c r="L98" s="61"/>
-      <c r="M98" s="61"/>
-      <c r="N98" s="61"/>
-      <c r="O98" s="61"/>
-      <c r="P98" s="61"/>
-      <c r="Q98" s="61"/>
-      <c r="R98" s="61"/>
-      <c r="S98" s="61"/>
-      <c r="T98" s="61"/>
-      <c r="U98" s="61"/>
-      <c r="V98" s="61"/>
-      <c r="W98" s="61"/>
-      <c r="X98" s="61"/>
-      <c r="Y98" s="61"/>
-      <c r="Z98" s="61"/>
-      <c r="AA98" s="61"/>
-      <c r="AB98" s="61"/>
-      <c r="AC98" s="61"/>
+      <c r="A98" s="33"/>
+      <c r="B98" s="33"/>
+      <c r="C98" s="33"/>
+      <c r="D98" s="33"/>
+      <c r="E98" s="33"/>
+      <c r="F98" s="33"/>
+      <c r="G98" s="33"/>
+      <c r="H98" s="33"/>
+      <c r="I98" s="33"/>
+      <c r="J98" s="33"/>
+      <c r="K98" s="33"/>
+      <c r="L98" s="33"/>
+      <c r="M98" s="33"/>
+      <c r="N98" s="33"/>
+      <c r="O98" s="33"/>
+      <c r="P98" s="33"/>
+      <c r="Q98" s="33"/>
+      <c r="R98" s="33"/>
+      <c r="S98" s="33"/>
+      <c r="T98" s="33"/>
+      <c r="U98" s="33"/>
+      <c r="V98" s="33"/>
+      <c r="W98" s="33"/>
+      <c r="X98" s="33"/>
+      <c r="Y98" s="33"/>
+      <c r="Z98" s="33"/>
+      <c r="AA98" s="33"/>
+      <c r="AB98" s="33"/>
+      <c r="AC98" s="33"/>
     </row>
     <row r="99" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A99" s="65" t="s">
+      <c r="A99" s="35" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="100" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A100" s="61"/>
-      <c r="B100" s="61"/>
-      <c r="C100" s="61"/>
-      <c r="D100" s="61"/>
-      <c r="E100" s="61"/>
-      <c r="F100" s="61"/>
-      <c r="G100" s="61"/>
-      <c r="H100" s="61"/>
-      <c r="I100" s="61"/>
-      <c r="J100" s="61"/>
-      <c r="K100" s="61"/>
-      <c r="L100" s="61"/>
-      <c r="M100" s="61"/>
-      <c r="N100" s="61"/>
-      <c r="O100" s="61"/>
-      <c r="P100" s="61"/>
-      <c r="Q100" s="61"/>
-      <c r="R100" s="61"/>
-      <c r="S100" s="61"/>
-      <c r="T100" s="61"/>
-      <c r="U100" s="61"/>
-      <c r="V100" s="61"/>
-      <c r="W100" s="61"/>
-      <c r="X100" s="61"/>
-      <c r="Y100" s="61"/>
-      <c r="Z100" s="61"/>
-      <c r="AA100" s="61"/>
-      <c r="AB100" s="61"/>
-      <c r="AC100" s="61"/>
+      <c r="A100" s="33"/>
+      <c r="B100" s="33"/>
+      <c r="C100" s="33"/>
+      <c r="D100" s="33"/>
+      <c r="E100" s="33"/>
+      <c r="F100" s="33"/>
+      <c r="G100" s="33"/>
+      <c r="H100" s="33"/>
+      <c r="I100" s="33"/>
+      <c r="J100" s="33"/>
+      <c r="K100" s="33"/>
+      <c r="L100" s="33"/>
+      <c r="M100" s="33"/>
+      <c r="N100" s="33"/>
+      <c r="O100" s="33"/>
+      <c r="P100" s="33"/>
+      <c r="Q100" s="33"/>
+      <c r="R100" s="33"/>
+      <c r="S100" s="33"/>
+      <c r="T100" s="33"/>
+      <c r="U100" s="33"/>
+      <c r="V100" s="33"/>
+      <c r="W100" s="33"/>
+      <c r="X100" s="33"/>
+      <c r="Y100" s="33"/>
+      <c r="Z100" s="33"/>
+      <c r="AA100" s="33"/>
+      <c r="AB100" s="33"/>
+      <c r="AC100" s="33"/>
     </row>
     <row r="101" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A101" s="65" t="s">
+      <c r="A101" s="35" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="102" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A102" s="65"/>
+      <c r="A102" s="35"/>
     </row>
     <row r="103" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A103" s="37" t="s">
+      <c r="A103" s="30" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="104" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="97"/>
-      <c r="B104" s="97"/>
-      <c r="C104" s="97"/>
-      <c r="D104" s="97"/>
-      <c r="E104" s="97"/>
-      <c r="F104" s="97"/>
-      <c r="G104" s="97"/>
-      <c r="H104" s="97"/>
-      <c r="I104" s="97"/>
-      <c r="J104" s="97"/>
-      <c r="K104" s="97"/>
-      <c r="L104" s="97"/>
-      <c r="M104" s="97"/>
-      <c r="N104" s="97"/>
-      <c r="O104" s="97"/>
-      <c r="P104" s="97"/>
-      <c r="Q104" s="97"/>
-      <c r="R104" s="97"/>
-      <c r="S104" s="97"/>
-      <c r="T104" s="97"/>
-      <c r="U104" s="97"/>
-      <c r="V104" s="97"/>
-      <c r="W104" s="97"/>
-      <c r="X104" s="97"/>
-      <c r="Y104" s="97"/>
-      <c r="Z104" s="97"/>
-      <c r="AA104" s="97"/>
-      <c r="AB104" s="97"/>
-      <c r="AC104" s="97"/>
+      <c r="A104" s="60"/>
+      <c r="B104" s="60"/>
+      <c r="C104" s="60"/>
+      <c r="D104" s="60"/>
+      <c r="E104" s="60"/>
+      <c r="F104" s="60"/>
+      <c r="G104" s="60"/>
+      <c r="H104" s="60"/>
+      <c r="I104" s="60"/>
+      <c r="J104" s="60"/>
+      <c r="K104" s="60"/>
+      <c r="L104" s="60"/>
+      <c r="M104" s="60"/>
+      <c r="N104" s="60"/>
+      <c r="O104" s="60"/>
+      <c r="P104" s="60"/>
+      <c r="Q104" s="60"/>
+      <c r="R104" s="60"/>
+      <c r="S104" s="60"/>
+      <c r="T104" s="60"/>
+      <c r="U104" s="60"/>
+      <c r="V104" s="60"/>
+      <c r="W104" s="60"/>
+      <c r="X104" s="60"/>
+      <c r="Y104" s="60"/>
+      <c r="Z104" s="60"/>
+      <c r="AA104" s="60"/>
+      <c r="AB104" s="60"/>
+      <c r="AC104" s="60"/>
     </row>
     <row r="105" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A105" s="98"/>
-      <c r="B105" s="98"/>
-      <c r="C105" s="98"/>
-      <c r="D105" s="98"/>
-      <c r="E105" s="98"/>
-      <c r="F105" s="98"/>
-      <c r="G105" s="98"/>
-      <c r="H105" s="98"/>
-      <c r="I105" s="98"/>
-      <c r="J105" s="98"/>
-      <c r="K105" s="98"/>
-      <c r="L105" s="98"/>
-      <c r="M105" s="98"/>
-      <c r="N105" s="98"/>
-      <c r="O105" s="98"/>
-      <c r="P105" s="98"/>
-      <c r="Q105" s="98"/>
-      <c r="R105" s="98"/>
-      <c r="S105" s="98"/>
-      <c r="T105" s="98"/>
-      <c r="U105" s="98"/>
-      <c r="V105" s="98"/>
-      <c r="W105" s="98"/>
-      <c r="X105" s="98"/>
-      <c r="Y105" s="98"/>
-      <c r="Z105" s="98"/>
-      <c r="AA105" s="98"/>
-      <c r="AB105" s="98"/>
-      <c r="AC105" s="98"/>
+      <c r="A105" s="61"/>
+      <c r="B105" s="61"/>
+      <c r="C105" s="61"/>
+      <c r="D105" s="61"/>
+      <c r="E105" s="61"/>
+      <c r="F105" s="61"/>
+      <c r="G105" s="61"/>
+      <c r="H105" s="61"/>
+      <c r="I105" s="61"/>
+      <c r="J105" s="61"/>
+      <c r="K105" s="61"/>
+      <c r="L105" s="61"/>
+      <c r="M105" s="61"/>
+      <c r="N105" s="61"/>
+      <c r="O105" s="61"/>
+      <c r="P105" s="61"/>
+      <c r="Q105" s="61"/>
+      <c r="R105" s="61"/>
+      <c r="S105" s="61"/>
+      <c r="T105" s="61"/>
+      <c r="U105" s="61"/>
+      <c r="V105" s="61"/>
+      <c r="W105" s="61"/>
+      <c r="X105" s="61"/>
+      <c r="Y105" s="61"/>
+      <c r="Z105" s="61"/>
+      <c r="AA105" s="61"/>
+      <c r="AB105" s="61"/>
+      <c r="AC105" s="61"/>
     </row>
     <row r="106" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A106" s="65" t="s">
+      <c r="A106" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="B106" s="36"/>
-      <c r="C106" s="36"/>
-      <c r="D106" s="36"/>
-      <c r="E106" s="36"/>
-      <c r="F106" s="36"/>
-      <c r="G106" s="36"/>
-      <c r="H106" s="36"/>
-      <c r="I106" s="36"/>
-      <c r="J106" s="36"/>
-      <c r="K106" s="36"/>
-      <c r="L106" s="36"/>
-      <c r="M106" s="36"/>
-      <c r="N106" s="36"/>
-      <c r="O106" s="36"/>
-      <c r="P106" s="36"/>
-      <c r="Q106" s="36"/>
-      <c r="R106" s="36"/>
-      <c r="S106" s="36"/>
-      <c r="T106" s="36"/>
-      <c r="U106" s="36"/>
-      <c r="V106" s="36"/>
-      <c r="W106" s="36"/>
-      <c r="X106" s="36"/>
-      <c r="Y106" s="36"/>
-      <c r="Z106" s="36"/>
-      <c r="AA106" s="36"/>
-      <c r="AB106" s="36"/>
-      <c r="AC106" s="36"/>
+      <c r="B106" s="29"/>
+      <c r="C106" s="29"/>
+      <c r="D106" s="29"/>
+      <c r="E106" s="29"/>
+      <c r="F106" s="29"/>
+      <c r="G106" s="29"/>
+      <c r="H106" s="29"/>
+      <c r="I106" s="29"/>
+      <c r="J106" s="29"/>
+      <c r="K106" s="29"/>
+      <c r="L106" s="29"/>
+      <c r="M106" s="29"/>
+      <c r="N106" s="29"/>
+      <c r="O106" s="29"/>
+      <c r="P106" s="29"/>
+      <c r="Q106" s="29"/>
+      <c r="R106" s="29"/>
+      <c r="S106" s="29"/>
+      <c r="T106" s="29"/>
+      <c r="U106" s="29"/>
+      <c r="V106" s="29"/>
+      <c r="W106" s="29"/>
+      <c r="X106" s="29"/>
+      <c r="Y106" s="29"/>
+      <c r="Z106" s="29"/>
+      <c r="AA106" s="29"/>
+      <c r="AB106" s="29"/>
+      <c r="AC106" s="29"/>
     </row>
     <row r="107" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A107" s="36"/>
-      <c r="B107" s="36"/>
-      <c r="C107" s="36"/>
-      <c r="D107" s="36"/>
-      <c r="E107" s="36"/>
-      <c r="F107" s="36"/>
-      <c r="G107" s="36"/>
-      <c r="H107" s="36"/>
-      <c r="I107" s="36"/>
-      <c r="J107" s="36"/>
-      <c r="K107" s="36"/>
-      <c r="L107" s="36"/>
-      <c r="M107" s="36"/>
-      <c r="N107" s="36"/>
-      <c r="O107" s="36"/>
-      <c r="P107" s="36"/>
-      <c r="Q107" s="36"/>
-      <c r="R107" s="36"/>
-      <c r="S107" s="36"/>
-      <c r="T107" s="36"/>
-      <c r="U107" s="36"/>
-      <c r="V107" s="36"/>
-      <c r="W107" s="36"/>
-      <c r="X107" s="36"/>
-      <c r="Y107" s="36"/>
-      <c r="Z107" s="36"/>
-      <c r="AA107" s="36"/>
-      <c r="AB107" s="36"/>
-      <c r="AC107" s="36"/>
+      <c r="A107" s="29"/>
+      <c r="B107" s="29"/>
+      <c r="C107" s="29"/>
+      <c r="D107" s="29"/>
+      <c r="E107" s="29"/>
+      <c r="F107" s="29"/>
+      <c r="G107" s="29"/>
+      <c r="H107" s="29"/>
+      <c r="I107" s="29"/>
+      <c r="J107" s="29"/>
+      <c r="K107" s="29"/>
+      <c r="L107" s="29"/>
+      <c r="M107" s="29"/>
+      <c r="N107" s="29"/>
+      <c r="O107" s="29"/>
+      <c r="P107" s="29"/>
+      <c r="Q107" s="29"/>
+      <c r="R107" s="29"/>
+      <c r="S107" s="29"/>
+      <c r="T107" s="29"/>
+      <c r="U107" s="29"/>
+      <c r="V107" s="29"/>
+      <c r="W107" s="29"/>
+      <c r="X107" s="29"/>
+      <c r="Y107" s="29"/>
+      <c r="Z107" s="29"/>
+      <c r="AA107" s="29"/>
+      <c r="AB107" s="29"/>
+      <c r="AC107" s="29"/>
     </row>
     <row r="108" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A108" s="37" t="s">
+      <c r="A108" s="30" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="109" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A109" s="37" t="s">
+      <c r="A109" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="K109" s="99" t="s">
+      <c r="K109" s="62" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="111" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A111" s="37" t="s">
+      <c r="A111" s="30" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="112" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A112" s="37" t="s">
+      <c r="A112" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="N112" s="100" t="s">
+      <c r="N112" s="63" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="114" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A114" s="37" t="s">
+      <c r="A114" s="30" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="115" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A115" s="37" t="s">
+      <c r="A115" s="30" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="116" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A116" s="37" t="s">
+      <c r="A116" s="30" t="s">
         <v>166</v>
       </c>
-      <c r="O116" s="101" t="s">
+      <c r="O116" s="64" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="117" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A117" s="102" t="s">
+      <c r="A117" s="65" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="118" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A118" s="36"/>
-      <c r="B118" s="36"/>
-      <c r="C118" s="36"/>
-      <c r="D118" s="36"/>
-      <c r="E118" s="36"/>
-      <c r="F118" s="36"/>
-      <c r="G118" s="36"/>
-      <c r="H118" s="36"/>
-      <c r="I118" s="36"/>
-      <c r="J118" s="36"/>
-      <c r="K118" s="36"/>
-      <c r="L118" s="36"/>
-      <c r="M118" s="36"/>
-      <c r="N118" s="36"/>
-      <c r="O118" s="36"/>
-      <c r="P118" s="36"/>
-      <c r="Q118" s="36"/>
-      <c r="R118" s="36"/>
-      <c r="S118" s="36"/>
-      <c r="T118" s="36"/>
-      <c r="U118" s="36"/>
-      <c r="V118" s="36"/>
-      <c r="W118" s="36"/>
-      <c r="X118" s="36"/>
-      <c r="Y118" s="36"/>
-      <c r="Z118" s="36"/>
-      <c r="AA118" s="36"/>
-      <c r="AB118" s="36"/>
-      <c r="AC118" s="36"/>
+      <c r="A118" s="29"/>
+      <c r="B118" s="29"/>
+      <c r="C118" s="29"/>
+      <c r="D118" s="29"/>
+      <c r="E118" s="29"/>
+      <c r="F118" s="29"/>
+      <c r="G118" s="29"/>
+      <c r="H118" s="29"/>
+      <c r="I118" s="29"/>
+      <c r="J118" s="29"/>
+      <c r="K118" s="29"/>
+      <c r="L118" s="29"/>
+      <c r="M118" s="29"/>
+      <c r="N118" s="29"/>
+      <c r="O118" s="29"/>
+      <c r="P118" s="29"/>
+      <c r="Q118" s="29"/>
+      <c r="R118" s="29"/>
+      <c r="S118" s="29"/>
+      <c r="T118" s="29"/>
+      <c r="U118" s="29"/>
+      <c r="V118" s="29"/>
+      <c r="W118" s="29"/>
+      <c r="X118" s="29"/>
+      <c r="Y118" s="29"/>
+      <c r="Z118" s="29"/>
+      <c r="AA118" s="29"/>
+      <c r="AB118" s="29"/>
+      <c r="AC118" s="29"/>
     </row>
     <row r="119" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A119" s="37" t="s">
+      <c r="A119" s="30" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="120" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A120" s="37" t="s">
+      <c r="A120" s="30" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="121" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A121" s="37" t="s">
+      <c r="A121" s="30" t="s">
         <v>153</v>
       </c>
-      <c r="O121" s="101" t="s">
+      <c r="O121" s="64" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="122" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A122" s="102" t="s">
+      <c r="A122" s="65" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="124" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A124" s="61"/>
-      <c r="B124" s="61" t="s">
+      <c r="A124" s="33"/>
+      <c r="B124" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="C124" s="61"/>
-      <c r="D124" s="61"/>
-      <c r="E124" s="61"/>
-      <c r="F124" s="61"/>
-      <c r="G124" s="61"/>
-      <c r="H124" s="61"/>
-      <c r="I124" s="61"/>
-      <c r="J124" s="61"/>
-      <c r="K124" s="61"/>
-      <c r="L124" s="61"/>
-      <c r="M124" s="61"/>
-      <c r="N124" s="61"/>
-      <c r="O124" s="61"/>
-      <c r="P124" s="61"/>
-      <c r="Q124" s="61"/>
-      <c r="R124" s="61"/>
-      <c r="S124" s="61"/>
-      <c r="T124" s="61"/>
-      <c r="U124" s="61"/>
-      <c r="V124" s="61"/>
-      <c r="W124" s="61"/>
-      <c r="X124" s="61"/>
-      <c r="Y124" s="61"/>
-      <c r="Z124" s="61"/>
-      <c r="AA124" s="61"/>
-      <c r="AB124" s="61"/>
-      <c r="AC124" s="61"/>
+      <c r="C124" s="33"/>
+      <c r="D124" s="33"/>
+      <c r="E124" s="33"/>
+      <c r="F124" s="33"/>
+      <c r="G124" s="33"/>
+      <c r="H124" s="33"/>
+      <c r="I124" s="33"/>
+      <c r="J124" s="33"/>
+      <c r="K124" s="33"/>
+      <c r="L124" s="33"/>
+      <c r="M124" s="33"/>
+      <c r="N124" s="33"/>
+      <c r="O124" s="33"/>
+      <c r="P124" s="33"/>
+      <c r="Q124" s="33"/>
+      <c r="R124" s="33"/>
+      <c r="S124" s="33"/>
+      <c r="T124" s="33"/>
+      <c r="U124" s="33"/>
+      <c r="V124" s="33"/>
+      <c r="W124" s="33"/>
+      <c r="X124" s="33"/>
+      <c r="Y124" s="33"/>
+      <c r="Z124" s="33"/>
+      <c r="AA124" s="33"/>
+      <c r="AB124" s="33"/>
+      <c r="AC124" s="33"/>
     </row>
     <row r="125" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A125" s="65" t="s">
+      <c r="A125" s="35" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="127" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A127" s="37" t="s">
+      <c r="A127" s="30" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="128" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A128" s="102" t="s">
+      <c r="A128" s="65" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="129" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A129" s="102"/>
+      <c r="A129" s="65"/>
     </row>
     <row r="130" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A130" s="37" t="s">
+      <c r="A130" s="30" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="131" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A131" s="102" t="s">
+      <c r="A131" s="65" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="132" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A132" s="102" t="s">
+      <c r="A132" s="65" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="133" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A133" s="102"/>
+      <c r="A133" s="65"/>
     </row>
     <row r="134" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A134" s="102" t="s">
+      <c r="A134" s="65" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="135" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A135" s="37" t="s">
+      <c r="A135" s="30" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="136" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A136" s="103" t="s">
+      <c r="A136" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="B136" s="104"/>
-      <c r="C136" s="105" t="s">
+      <c r="B136" s="67"/>
+      <c r="C136" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="D136" s="104"/>
-      <c r="E136" s="103" t="s">
+      <c r="D136" s="67"/>
+      <c r="E136" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="F136" s="106"/>
-      <c r="G136" s="106"/>
-      <c r="H136" s="106"/>
-      <c r="I136" s="104"/>
-      <c r="J136" s="103" t="s">
+      <c r="F136" s="69"/>
+      <c r="G136" s="69"/>
+      <c r="H136" s="69"/>
+      <c r="I136" s="67"/>
+      <c r="J136" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="K136" s="106"/>
-      <c r="L136" s="106"/>
-      <c r="M136" s="106"/>
-      <c r="N136" s="106"/>
-      <c r="O136" s="106"/>
-      <c r="P136" s="106"/>
-      <c r="Q136" s="106"/>
-      <c r="R136" s="106"/>
-      <c r="S136" s="106"/>
-      <c r="T136" s="106"/>
-      <c r="U136" s="106"/>
-      <c r="V136" s="106"/>
-      <c r="W136" s="106"/>
-      <c r="X136" s="104"/>
-      <c r="Y136" s="105"/>
-      <c r="Z136" s="107" t="s">
+      <c r="K136" s="69"/>
+      <c r="L136" s="69"/>
+      <c r="M136" s="69"/>
+      <c r="N136" s="69"/>
+      <c r="O136" s="69"/>
+      <c r="P136" s="69"/>
+      <c r="Q136" s="69"/>
+      <c r="R136" s="69"/>
+      <c r="S136" s="69"/>
+      <c r="T136" s="69"/>
+      <c r="U136" s="69"/>
+      <c r="V136" s="69"/>
+      <c r="W136" s="69"/>
+      <c r="X136" s="67"/>
+      <c r="Y136" s="68"/>
+      <c r="Z136" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="AA136" s="106"/>
-      <c r="AB136" s="106"/>
-      <c r="AC136" s="104"/>
+      <c r="AA136" s="69"/>
+      <c r="AB136" s="69"/>
+      <c r="AC136" s="67"/>
     </row>
     <row r="137" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A137" s="108" t="s">
+      <c r="A137" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="B137" s="109"/>
-      <c r="C137" s="110"/>
-      <c r="D137" s="109"/>
-      <c r="E137" s="108" t="s">
+      <c r="B137" s="72"/>
+      <c r="C137" s="73"/>
+      <c r="D137" s="72"/>
+      <c r="E137" s="71" t="s">
         <v>66</v>
       </c>
-      <c r="F137" s="36"/>
-      <c r="G137" s="36"/>
-      <c r="H137" s="36"/>
-      <c r="I137" s="109"/>
-      <c r="J137" s="108" t="s">
+      <c r="F137" s="29"/>
+      <c r="G137" s="29"/>
+      <c r="H137" s="29"/>
+      <c r="I137" s="72"/>
+      <c r="J137" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="K137" s="36"/>
-      <c r="L137" s="36"/>
-      <c r="M137" s="36"/>
-      <c r="N137" s="36"/>
-      <c r="O137" s="36"/>
-      <c r="P137" s="36"/>
-      <c r="Q137" s="36"/>
-      <c r="R137" s="36"/>
-      <c r="S137" s="36"/>
-      <c r="T137" s="36"/>
-      <c r="U137" s="36"/>
-      <c r="V137" s="36"/>
-      <c r="W137" s="36"/>
-      <c r="X137" s="109"/>
-      <c r="Y137" s="110"/>
-      <c r="Z137" s="36"/>
-      <c r="AA137" s="36"/>
-      <c r="AB137" s="36"/>
-      <c r="AC137" s="109"/>
+      <c r="K137" s="29"/>
+      <c r="L137" s="29"/>
+      <c r="M137" s="29"/>
+      <c r="N137" s="29"/>
+      <c r="O137" s="29"/>
+      <c r="P137" s="29"/>
+      <c r="Q137" s="29"/>
+      <c r="R137" s="29"/>
+      <c r="S137" s="29"/>
+      <c r="T137" s="29"/>
+      <c r="U137" s="29"/>
+      <c r="V137" s="29"/>
+      <c r="W137" s="29"/>
+      <c r="X137" s="72"/>
+      <c r="Y137" s="73"/>
+      <c r="Z137" s="29"/>
+      <c r="AA137" s="29"/>
+      <c r="AB137" s="29"/>
+      <c r="AC137" s="72"/>
     </row>
     <row r="138" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A138" s="110"/>
-      <c r="B138" s="109"/>
-      <c r="C138" s="110"/>
-      <c r="D138" s="109"/>
-      <c r="E138" s="108" t="s">
+      <c r="A138" s="73"/>
+      <c r="B138" s="72"/>
+      <c r="C138" s="73"/>
+      <c r="D138" s="72"/>
+      <c r="E138" s="71" t="s">
         <v>67</v>
       </c>
-      <c r="F138" s="36"/>
-      <c r="G138" s="36"/>
-      <c r="H138" s="36"/>
-      <c r="I138" s="109"/>
-      <c r="J138" s="108" t="s">
+      <c r="F138" s="29"/>
+      <c r="G138" s="29"/>
+      <c r="H138" s="29"/>
+      <c r="I138" s="72"/>
+      <c r="J138" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="K138" s="36"/>
-      <c r="L138" s="36"/>
-      <c r="M138" s="36"/>
-      <c r="N138" s="36"/>
-      <c r="O138" s="36"/>
-      <c r="P138" s="36"/>
-      <c r="Q138" s="36"/>
-      <c r="R138" s="36"/>
-      <c r="S138" s="36"/>
-      <c r="T138" s="36"/>
-      <c r="U138" s="36"/>
-      <c r="V138" s="36"/>
-      <c r="W138" s="36"/>
-      <c r="X138" s="109"/>
-      <c r="Y138" s="110"/>
-      <c r="Z138" s="36"/>
-      <c r="AA138" s="36"/>
-      <c r="AB138" s="36"/>
-      <c r="AC138" s="109"/>
+      <c r="K138" s="29"/>
+      <c r="L138" s="29"/>
+      <c r="M138" s="29"/>
+      <c r="N138" s="29"/>
+      <c r="O138" s="29"/>
+      <c r="P138" s="29"/>
+      <c r="Q138" s="29"/>
+      <c r="R138" s="29"/>
+      <c r="S138" s="29"/>
+      <c r="T138" s="29"/>
+      <c r="U138" s="29"/>
+      <c r="V138" s="29"/>
+      <c r="W138" s="29"/>
+      <c r="X138" s="72"/>
+      <c r="Y138" s="73"/>
+      <c r="Z138" s="29"/>
+      <c r="AA138" s="29"/>
+      <c r="AB138" s="29"/>
+      <c r="AC138" s="72"/>
     </row>
     <row r="139" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A139" s="111"/>
-      <c r="B139" s="112"/>
-      <c r="C139" s="111"/>
-      <c r="D139" s="112"/>
-      <c r="E139" s="113" t="s">
+      <c r="A139" s="74"/>
+      <c r="B139" s="75"/>
+      <c r="C139" s="74"/>
+      <c r="D139" s="75"/>
+      <c r="E139" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="F139" s="61"/>
-      <c r="G139" s="61"/>
-      <c r="H139" s="61"/>
-      <c r="I139" s="112"/>
-      <c r="J139" s="113" t="s">
+      <c r="F139" s="33"/>
+      <c r="G139" s="33"/>
+      <c r="H139" s="33"/>
+      <c r="I139" s="75"/>
+      <c r="J139" s="76" t="s">
         <v>72</v>
       </c>
-      <c r="K139" s="61"/>
-      <c r="L139" s="61"/>
-      <c r="M139" s="61"/>
-      <c r="N139" s="61"/>
-      <c r="O139" s="61"/>
-      <c r="P139" s="61"/>
-      <c r="Q139" s="61"/>
-      <c r="R139" s="61"/>
-      <c r="S139" s="61"/>
-      <c r="T139" s="61"/>
-      <c r="U139" s="61"/>
-      <c r="V139" s="61"/>
-      <c r="W139" s="61"/>
-      <c r="X139" s="112"/>
-      <c r="Y139" s="111"/>
-      <c r="Z139" s="61"/>
-      <c r="AA139" s="61"/>
-      <c r="AB139" s="61"/>
-      <c r="AC139" s="112"/>
+      <c r="K139" s="33"/>
+      <c r="L139" s="33"/>
+      <c r="M139" s="33"/>
+      <c r="N139" s="33"/>
+      <c r="O139" s="33"/>
+      <c r="P139" s="33"/>
+      <c r="Q139" s="33"/>
+      <c r="R139" s="33"/>
+      <c r="S139" s="33"/>
+      <c r="T139" s="33"/>
+      <c r="U139" s="33"/>
+      <c r="V139" s="33"/>
+      <c r="W139" s="33"/>
+      <c r="X139" s="75"/>
+      <c r="Y139" s="74"/>
+      <c r="Z139" s="33"/>
+      <c r="AA139" s="33"/>
+      <c r="AB139" s="33"/>
+      <c r="AC139" s="75"/>
     </row>
     <row r="140" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A140" s="114"/>
-      <c r="B140" s="115"/>
-      <c r="C140" s="116"/>
-      <c r="D140" s="115"/>
-      <c r="E140" s="114"/>
-      <c r="F140" s="117"/>
-      <c r="G140" s="117"/>
-      <c r="H140" s="117"/>
-      <c r="I140" s="115"/>
-      <c r="J140" s="114"/>
-      <c r="K140" s="117"/>
-      <c r="L140" s="117"/>
-      <c r="M140" s="117"/>
-      <c r="N140" s="117"/>
-      <c r="O140" s="117"/>
-      <c r="P140" s="117"/>
-      <c r="Q140" s="117"/>
-      <c r="R140" s="117"/>
-      <c r="S140" s="117"/>
-      <c r="T140" s="117"/>
-      <c r="U140" s="117"/>
-      <c r="V140" s="117"/>
-      <c r="W140" s="117"/>
-      <c r="X140" s="115"/>
-      <c r="Y140" s="116"/>
-      <c r="Z140" s="118"/>
-      <c r="AA140" s="117"/>
-      <c r="AB140" s="117"/>
-      <c r="AC140" s="115"/>
+      <c r="A140" s="77"/>
+      <c r="B140" s="78"/>
+      <c r="C140" s="79"/>
+      <c r="D140" s="78"/>
+      <c r="E140" s="77"/>
+      <c r="F140" s="80"/>
+      <c r="G140" s="80"/>
+      <c r="H140" s="80"/>
+      <c r="I140" s="78"/>
+      <c r="J140" s="77"/>
+      <c r="K140" s="80"/>
+      <c r="L140" s="80"/>
+      <c r="M140" s="80"/>
+      <c r="N140" s="80"/>
+      <c r="O140" s="80"/>
+      <c r="P140" s="80"/>
+      <c r="Q140" s="80"/>
+      <c r="R140" s="80"/>
+      <c r="S140" s="80"/>
+      <c r="T140" s="80"/>
+      <c r="U140" s="80"/>
+      <c r="V140" s="80"/>
+      <c r="W140" s="80"/>
+      <c r="X140" s="78"/>
+      <c r="Y140" s="79"/>
+      <c r="Z140" s="81"/>
+      <c r="AA140" s="80"/>
+      <c r="AB140" s="80"/>
+      <c r="AC140" s="78"/>
     </row>
     <row r="141" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A141" s="114"/>
-      <c r="B141" s="115"/>
-      <c r="C141" s="116"/>
-      <c r="D141" s="115"/>
-      <c r="E141" s="114"/>
-      <c r="F141" s="117"/>
-      <c r="G141" s="117"/>
-      <c r="H141" s="117"/>
-      <c r="I141" s="115"/>
-      <c r="J141" s="114"/>
-      <c r="K141" s="117"/>
-      <c r="L141" s="117"/>
-      <c r="M141" s="117"/>
-      <c r="N141" s="117"/>
-      <c r="O141" s="117"/>
-      <c r="P141" s="117"/>
-      <c r="Q141" s="117"/>
-      <c r="R141" s="117"/>
-      <c r="S141" s="117"/>
-      <c r="T141" s="117"/>
-      <c r="U141" s="117"/>
-      <c r="V141" s="117"/>
-      <c r="W141" s="117"/>
-      <c r="X141" s="115"/>
-      <c r="Y141" s="116"/>
-      <c r="Z141" s="118"/>
-      <c r="AA141" s="117"/>
-      <c r="AB141" s="117"/>
-      <c r="AC141" s="115"/>
+      <c r="A141" s="77"/>
+      <c r="B141" s="78"/>
+      <c r="C141" s="79"/>
+      <c r="D141" s="78"/>
+      <c r="E141" s="77"/>
+      <c r="F141" s="80"/>
+      <c r="G141" s="80"/>
+      <c r="H141" s="80"/>
+      <c r="I141" s="78"/>
+      <c r="J141" s="77"/>
+      <c r="K141" s="80"/>
+      <c r="L141" s="80"/>
+      <c r="M141" s="80"/>
+      <c r="N141" s="80"/>
+      <c r="O141" s="80"/>
+      <c r="P141" s="80"/>
+      <c r="Q141" s="80"/>
+      <c r="R141" s="80"/>
+      <c r="S141" s="80"/>
+      <c r="T141" s="80"/>
+      <c r="U141" s="80"/>
+      <c r="V141" s="80"/>
+      <c r="W141" s="80"/>
+      <c r="X141" s="78"/>
+      <c r="Y141" s="79"/>
+      <c r="Z141" s="81"/>
+      <c r="AA141" s="80"/>
+      <c r="AB141" s="80"/>
+      <c r="AC141" s="78"/>
     </row>
     <row r="142" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A142" s="114"/>
-      <c r="B142" s="115"/>
-      <c r="C142" s="116"/>
-      <c r="D142" s="115"/>
-      <c r="E142" s="114"/>
-      <c r="F142" s="117"/>
-      <c r="G142" s="117"/>
-      <c r="H142" s="117"/>
-      <c r="I142" s="115"/>
-      <c r="J142" s="114"/>
-      <c r="K142" s="117"/>
-      <c r="L142" s="117"/>
-      <c r="M142" s="117"/>
-      <c r="N142" s="117"/>
-      <c r="O142" s="117"/>
-      <c r="P142" s="117"/>
-      <c r="Q142" s="117"/>
-      <c r="R142" s="117"/>
-      <c r="S142" s="117"/>
-      <c r="T142" s="117"/>
-      <c r="U142" s="117"/>
-      <c r="V142" s="117"/>
-      <c r="W142" s="117"/>
-      <c r="X142" s="115"/>
-      <c r="Y142" s="116"/>
-      <c r="Z142" s="118"/>
-      <c r="AA142" s="117"/>
-      <c r="AB142" s="117"/>
-      <c r="AC142" s="115"/>
+      <c r="A142" s="77"/>
+      <c r="B142" s="78"/>
+      <c r="C142" s="79"/>
+      <c r="D142" s="78"/>
+      <c r="E142" s="77"/>
+      <c r="F142" s="80"/>
+      <c r="G142" s="80"/>
+      <c r="H142" s="80"/>
+      <c r="I142" s="78"/>
+      <c r="J142" s="77"/>
+      <c r="K142" s="80"/>
+      <c r="L142" s="80"/>
+      <c r="M142" s="80"/>
+      <c r="N142" s="80"/>
+      <c r="O142" s="80"/>
+      <c r="P142" s="80"/>
+      <c r="Q142" s="80"/>
+      <c r="R142" s="80"/>
+      <c r="S142" s="80"/>
+      <c r="T142" s="80"/>
+      <c r="U142" s="80"/>
+      <c r="V142" s="80"/>
+      <c r="W142" s="80"/>
+      <c r="X142" s="78"/>
+      <c r="Y142" s="79"/>
+      <c r="Z142" s="81"/>
+      <c r="AA142" s="80"/>
+      <c r="AB142" s="80"/>
+      <c r="AC142" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="J78:N78"/>
-    <mergeCell ref="O78:Y78"/>
-    <mergeCell ref="Z78:AC78"/>
-    <mergeCell ref="A78:I78"/>
-    <mergeCell ref="J76:N77"/>
-    <mergeCell ref="O76:Y77"/>
-    <mergeCell ref="Z76:AC77"/>
-    <mergeCell ref="A76:I77"/>
+    <mergeCell ref="J17:N17"/>
+    <mergeCell ref="O17:Y17"/>
+    <mergeCell ref="Z17:AC17"/>
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="A1:AC1"/>
+    <mergeCell ref="A5:AC5"/>
+    <mergeCell ref="Z15:AC16"/>
+    <mergeCell ref="J15:N16"/>
+    <mergeCell ref="O15:Y16"/>
+    <mergeCell ref="A3:AC3"/>
+    <mergeCell ref="A15:I16"/>
+    <mergeCell ref="J27:N28"/>
+    <mergeCell ref="O27:Y28"/>
+    <mergeCell ref="Z27:AC28"/>
+    <mergeCell ref="A27:I28"/>
+    <mergeCell ref="J18:N18"/>
+    <mergeCell ref="O18:Y18"/>
+    <mergeCell ref="Z18:AC18"/>
+    <mergeCell ref="A18:I18"/>
+    <mergeCell ref="J30:N30"/>
+    <mergeCell ref="O30:Y30"/>
+    <mergeCell ref="Z30:AC30"/>
+    <mergeCell ref="A29:I29"/>
+    <mergeCell ref="A30:I30"/>
+    <mergeCell ref="J29:N29"/>
+    <mergeCell ref="O29:Y29"/>
+    <mergeCell ref="Z29:AC29"/>
+    <mergeCell ref="A50:L57"/>
+    <mergeCell ref="J31:N31"/>
+    <mergeCell ref="O31:Y31"/>
+    <mergeCell ref="Z31:AC31"/>
+    <mergeCell ref="A31:I31"/>
+    <mergeCell ref="Z59:AC59"/>
+    <mergeCell ref="Z50:AC57"/>
+    <mergeCell ref="M58:R58"/>
+    <mergeCell ref="S58:Y58"/>
+    <mergeCell ref="Z58:AC58"/>
+    <mergeCell ref="M50:R57"/>
+    <mergeCell ref="S50:Y57"/>
     <mergeCell ref="M62:R62"/>
     <mergeCell ref="S62:Y62"/>
     <mergeCell ref="Z62:AC62"/>
@@ -4844,45 +4945,14 @@
     <mergeCell ref="Z60:AC60"/>
     <mergeCell ref="M59:R59"/>
     <mergeCell ref="S59:Y59"/>
-    <mergeCell ref="Z59:AC59"/>
-    <mergeCell ref="Z50:AC57"/>
-    <mergeCell ref="M58:R58"/>
-    <mergeCell ref="S58:Y58"/>
-    <mergeCell ref="Z58:AC58"/>
-    <mergeCell ref="M50:R57"/>
-    <mergeCell ref="S50:Y57"/>
-    <mergeCell ref="A50:L57"/>
-    <mergeCell ref="J31:N31"/>
-    <mergeCell ref="O31:Y31"/>
-    <mergeCell ref="Z31:AC31"/>
-    <mergeCell ref="A31:I31"/>
-    <mergeCell ref="J30:N30"/>
-    <mergeCell ref="O30:Y30"/>
-    <mergeCell ref="Z30:AC30"/>
-    <mergeCell ref="A29:I29"/>
-    <mergeCell ref="A30:I30"/>
-    <mergeCell ref="J29:N29"/>
-    <mergeCell ref="O29:Y29"/>
-    <mergeCell ref="Z29:AC29"/>
-    <mergeCell ref="J27:N28"/>
-    <mergeCell ref="O27:Y28"/>
-    <mergeCell ref="Z27:AC28"/>
-    <mergeCell ref="A27:I28"/>
-    <mergeCell ref="J18:N18"/>
-    <mergeCell ref="O18:Y18"/>
-    <mergeCell ref="Z18:AC18"/>
-    <mergeCell ref="A18:I18"/>
-    <mergeCell ref="J17:N17"/>
-    <mergeCell ref="O17:Y17"/>
-    <mergeCell ref="Z17:AC17"/>
-    <mergeCell ref="A17:I17"/>
-    <mergeCell ref="A1:AC1"/>
-    <mergeCell ref="A5:AC5"/>
-    <mergeCell ref="Z15:AC16"/>
-    <mergeCell ref="J15:N16"/>
-    <mergeCell ref="O15:Y16"/>
-    <mergeCell ref="A3:AC3"/>
-    <mergeCell ref="A15:I16"/>
+    <mergeCell ref="J78:N78"/>
+    <mergeCell ref="O78:Y78"/>
+    <mergeCell ref="Z78:AC78"/>
+    <mergeCell ref="A78:I78"/>
+    <mergeCell ref="J76:N77"/>
+    <mergeCell ref="O76:Y77"/>
+    <mergeCell ref="Z76:AC77"/>
+    <mergeCell ref="A76:I77"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
@@ -4890,7 +4960,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
@@ -4907,13 +4977,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="133" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -4953,7 +5023,7 @@
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="135" t="s">
+      <c r="A5" s="85" t="s">
         <v>74</v>
       </c>
       <c r="B5" s="11" t="s">
@@ -4973,7 +5043,7 @@
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="139">
+      <c r="A6" s="86">
         <v>1</v>
       </c>
       <c r="B6" s="13">
@@ -4990,154 +5060,154 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="139"/>
+      <c r="A7" s="86"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
     </row>
     <row r="8" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="139"/>
+      <c r="A8" s="86"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="139"/>
+      <c r="A9" s="86"/>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
     </row>
     <row r="10" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="139"/>
+      <c r="A10" s="86"/>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
     </row>
     <row r="11" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="139"/>
+      <c r="A11" s="86"/>
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
     </row>
     <row r="12" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="139"/>
+      <c r="A12" s="86"/>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
     </row>
     <row r="13" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="139"/>
+      <c r="A13" s="86"/>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
     </row>
     <row r="14" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="139"/>
+      <c r="A14" s="86"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
     </row>
     <row r="15" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="139"/>
+      <c r="A15" s="86"/>
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
     </row>
     <row r="16" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="139"/>
+      <c r="A16" s="86"/>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
     </row>
     <row r="17" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="139"/>
+      <c r="A17" s="86"/>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
     </row>
     <row r="18" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="139"/>
+      <c r="A18" s="86"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
     </row>
     <row r="19" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="139"/>
+      <c r="A19" s="86"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
     </row>
     <row r="20" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="139"/>
+      <c r="A20" s="86"/>
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
     </row>
     <row r="21" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="139"/>
+      <c r="A21" s="86"/>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
     </row>
     <row r="22" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="139"/>
+      <c r="A22" s="86"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
     </row>
     <row r="23" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="139"/>
+      <c r="A23" s="86"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
     </row>
     <row r="24" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="139"/>
+      <c r="A24" s="86"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
     </row>
     <row r="25" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="139"/>
+      <c r="A25" s="86"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
     </row>
     <row r="26" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="139"/>
+      <c r="A26" s="86"/>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
     </row>
     <row r="27" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="139"/>
+      <c r="A27" s="86"/>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
     </row>
     <row r="28" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="139"/>
+      <c r="A28" s="86"/>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
@@ -5153,11 +5223,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5170,13 +5240,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="133" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
@@ -5189,10 +5259,10 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="133" t="s">
+      <c r="A4" s="138" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="134"/>
+      <c r="B4" s="139"/>
       <c r="C4" s="11" t="s">
         <v>133</v>
       </c>
@@ -5204,10 +5274,10 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="19">
+      <c r="A5" s="136">
         <v>1</v>
       </c>
-      <c r="B5" s="20"/>
+      <c r="B5" s="137"/>
       <c r="C5" s="10">
         <v>2</v>
       </c>
@@ -5219,10 +5289,10 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="136" t="s">
         <v>77</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="137" t="s">
         <v>77</v>
       </c>
       <c r="C6" s="16"/>
@@ -5230,19 +5300,19 @@
       <c r="E6" s="12"/>
     </row>
     <row r="7" spans="1:5" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="136" t="s">
         <v>78</v>
       </c>
-      <c r="B7" s="20"/>
+      <c r="B7" s="137"/>
       <c r="C7" s="16"/>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
     </row>
     <row r="8" spans="1:5" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="136" t="s">
         <v>136</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="137" t="s">
         <v>136</v>
       </c>
       <c r="C8" s="16"/>
@@ -5250,10 +5320,10 @@
       <c r="E8" s="12"/>
     </row>
     <row r="9" spans="1:5" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="136" t="s">
         <v>79</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="137" t="s">
         <v>79</v>
       </c>
       <c r="C9" s="16"/>
@@ -5261,10 +5331,10 @@
       <c r="E9" s="12"/>
     </row>
     <row r="10" spans="1:5" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="136" t="s">
         <v>80</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="137" t="s">
         <v>80</v>
       </c>
       <c r="C10" s="16"/>
@@ -5272,10 +5342,10 @@
       <c r="E10" s="12"/>
     </row>
     <row r="11" spans="1:5" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="136" t="s">
         <v>140</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="137" t="s">
         <v>140</v>
       </c>
       <c r="C11" s="16"/>
@@ -5283,35 +5353,39 @@
       <c r="E11" s="12"/>
     </row>
     <row r="12" spans="1:5" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
-      <c r="B12" s="20"/>
+      <c r="A12" s="136"/>
+      <c r="B12" s="137"/>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
     </row>
     <row r="13" spans="1:5" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
-      <c r="B13" s="20"/>
+      <c r="A13" s="136"/>
+      <c r="B13" s="137"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
     </row>
     <row r="14" spans="1:5" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="136"/>
-      <c r="B14" s="137"/>
+      <c r="A14" s="134"/>
+      <c r="B14" s="135"/>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
     </row>
     <row r="15" spans="1:5" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="136"/>
-      <c r="B15" s="137"/>
+      <c r="A15" s="134"/>
+      <c r="B15" s="135"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:B15"/>
@@ -5321,10 +5395,6 @@
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5332,7 +5402,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="145" zoomScaleNormal="130" zoomScaleSheetLayoutView="145" workbookViewId="0">
@@ -5347,11 +5417,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="140" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -5364,7 +5434,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="135" t="s">
+      <c r="A4" s="85" t="s">
         <v>137</v>
       </c>
       <c r="B4" s="11" t="s">
@@ -5375,7 +5445,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="135">
+      <c r="A5" s="85">
         <v>1</v>
       </c>
       <c r="B5" s="11">
@@ -5386,102 +5456,102 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="135"/>
+      <c r="A6" s="85"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="135"/>
+      <c r="A7" s="85"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="135"/>
+      <c r="A8" s="85"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="135"/>
+      <c r="A9" s="85"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="135"/>
+      <c r="A10" s="85"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="135"/>
+      <c r="A11" s="85"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="135"/>
+      <c r="A12" s="85"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="135"/>
+      <c r="A13" s="85"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="135"/>
+      <c r="A14" s="85"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="135"/>
+      <c r="A15" s="85"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="135"/>
+      <c r="A16" s="85"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="135"/>
+      <c r="A17" s="85"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="135"/>
+      <c r="A18" s="85"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="135"/>
+      <c r="A19" s="85"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="135"/>
+      <c r="A20" s="85"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="135"/>
+      <c r="A21" s="85"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="135"/>
+      <c r="A22" s="85"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="135"/>
+      <c r="A23" s="85"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
     </row>
     <row r="24" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="135"/>
+      <c r="A24" s="85"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
     </row>
     <row r="25" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="135"/>
+      <c r="A25" s="85"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
     </row>
@@ -5495,7 +5565,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
@@ -5512,13 +5582,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="140" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="140"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -5531,7 +5601,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="135" t="s">
+      <c r="A4" s="85" t="s">
         <v>141</v>
       </c>
       <c r="B4" s="11" t="s">
@@ -5548,7 +5618,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="135">
+      <c r="A5" s="85">
         <v>1</v>
       </c>
       <c r="B5" s="11">
@@ -5565,259 +5635,259 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="135"/>
+      <c r="A6" s="85"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="135"/>
+      <c r="A7" s="85"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="135"/>
+      <c r="A8" s="85"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="135"/>
+      <c r="A9" s="85"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="135"/>
+      <c r="A10" s="85"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="135"/>
+      <c r="A11" s="85"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="135"/>
+      <c r="A12" s="85"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="135"/>
+      <c r="A13" s="85"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="135"/>
+      <c r="A14" s="85"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="135"/>
+      <c r="A15" s="85"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="135"/>
+      <c r="A16" s="85"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="135"/>
+      <c r="A17" s="85"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="135"/>
+      <c r="A18" s="85"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="135"/>
+      <c r="A19" s="85"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="135"/>
+      <c r="A20" s="85"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="135"/>
+      <c r="A21" s="85"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="135"/>
+      <c r="A22" s="85"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="135"/>
+      <c r="A23" s="85"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="135"/>
+      <c r="A24" s="85"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="135"/>
+      <c r="A25" s="85"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="135"/>
+      <c r="A26" s="85"/>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="135"/>
+      <c r="A27" s="85"/>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="135"/>
+      <c r="A28" s="85"/>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="135"/>
+      <c r="A29" s="85"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="135"/>
+      <c r="A30" s="85"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="135"/>
+      <c r="A31" s="85"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="135"/>
+      <c r="A32" s="85"/>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="135"/>
+      <c r="A33" s="85"/>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="135"/>
+      <c r="A34" s="85"/>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
       <c r="E34" s="12"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="135"/>
+      <c r="A35" s="85"/>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
       <c r="E35" s="12"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="135"/>
+      <c r="A36" s="85"/>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
       <c r="E36" s="12"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="135"/>
+      <c r="A37" s="85"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
       <c r="D37" s="12"/>
       <c r="E37" s="12"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="135"/>
+      <c r="A38" s="85"/>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>
       <c r="E38" s="12"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="135"/>
+      <c r="A39" s="85"/>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
       <c r="D39" s="12"/>
       <c r="E39" s="12"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="135"/>
+      <c r="A40" s="85"/>
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
       <c r="D40" s="12"/>
       <c r="E40" s="12"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="135"/>
+      <c r="A41" s="85"/>
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
       <c r="D41" s="12"/>
       <c r="E41" s="12"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="135"/>
+      <c r="A42" s="85"/>
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
       <c r="D42" s="12"/>
@@ -5833,7 +5903,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -5850,13 +5920,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="142" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -6199,24 +6269,24 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58.7109375" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="1" max="1" width="44" customWidth="1"/>
+    <col min="2" max="2" width="42.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="140" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="22"/>
+      <c r="B1" s="140"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -6318,7 +6388,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
@@ -6334,13 +6404,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="142" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -6353,10 +6423,10 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="133" t="s">
+      <c r="A4" s="138" t="s">
         <v>146</v>
       </c>
-      <c r="B4" s="134"/>
+      <c r="B4" s="139"/>
       <c r="C4" s="11" t="s">
         <v>147</v>
       </c>
@@ -6368,10 +6438,10 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="133">
+      <c r="A5" s="138">
         <v>2</v>
       </c>
-      <c r="B5" s="134"/>
+      <c r="B5" s="139"/>
       <c r="C5" s="11">
         <v>3</v>
       </c>
@@ -6383,267 +6453,267 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="133"/>
-      <c r="B6" s="134"/>
+      <c r="A6" s="138"/>
+      <c r="B6" s="139"/>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="133"/>
-      <c r="B7" s="134"/>
+      <c r="A7" s="138"/>
+      <c r="B7" s="139"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="133"/>
-      <c r="B8" s="134"/>
+      <c r="A8" s="138"/>
+      <c r="B8" s="139"/>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="133"/>
-      <c r="B9" s="134"/>
+      <c r="A9" s="138"/>
+      <c r="B9" s="139"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="133"/>
-      <c r="B10" s="134"/>
+      <c r="A10" s="138"/>
+      <c r="B10" s="139"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="133"/>
-      <c r="B11" s="134"/>
+      <c r="A11" s="138"/>
+      <c r="B11" s="139"/>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="133"/>
-      <c r="B12" s="134"/>
+      <c r="A12" s="138"/>
+      <c r="B12" s="139"/>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="133"/>
-      <c r="B13" s="134"/>
+      <c r="A13" s="138"/>
+      <c r="B13" s="139"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="133"/>
-      <c r="B14" s="134"/>
+      <c r="A14" s="138"/>
+      <c r="B14" s="139"/>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="133"/>
-      <c r="B15" s="134"/>
+      <c r="A15" s="138"/>
+      <c r="B15" s="139"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="133"/>
-      <c r="B16" s="134"/>
+      <c r="A16" s="138"/>
+      <c r="B16" s="139"/>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="133"/>
-      <c r="B17" s="134"/>
+      <c r="A17" s="138"/>
+      <c r="B17" s="139"/>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="133"/>
-      <c r="B18" s="134"/>
+      <c r="A18" s="138"/>
+      <c r="B18" s="139"/>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="133"/>
-      <c r="B19" s="134"/>
+      <c r="A19" s="138"/>
+      <c r="B19" s="139"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="133"/>
-      <c r="B20" s="134"/>
+      <c r="A20" s="138"/>
+      <c r="B20" s="139"/>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="133"/>
-      <c r="B21" s="134"/>
+      <c r="A21" s="138"/>
+      <c r="B21" s="139"/>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="133"/>
-      <c r="B22" s="134"/>
+      <c r="A22" s="138"/>
+      <c r="B22" s="139"/>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="133"/>
-      <c r="B23" s="134"/>
+      <c r="A23" s="138"/>
+      <c r="B23" s="139"/>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="133"/>
-      <c r="B24" s="134"/>
+      <c r="A24" s="138"/>
+      <c r="B24" s="139"/>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="133"/>
-      <c r="B25" s="134"/>
+      <c r="A25" s="138"/>
+      <c r="B25" s="139"/>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="133"/>
-      <c r="B26" s="134"/>
+      <c r="A26" s="138"/>
+      <c r="B26" s="139"/>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="133"/>
-      <c r="B27" s="134"/>
+      <c r="A27" s="138"/>
+      <c r="B27" s="139"/>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="133"/>
-      <c r="B28" s="134"/>
+      <c r="A28" s="138"/>
+      <c r="B28" s="139"/>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="133"/>
-      <c r="B29" s="134"/>
+      <c r="A29" s="138"/>
+      <c r="B29" s="139"/>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="133"/>
-      <c r="B30" s="134"/>
+      <c r="A30" s="138"/>
+      <c r="B30" s="139"/>
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="133"/>
-      <c r="B31" s="134"/>
+      <c r="A31" s="138"/>
+      <c r="B31" s="139"/>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="133"/>
-      <c r="B32" s="134"/>
+      <c r="A32" s="138"/>
+      <c r="B32" s="139"/>
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="133"/>
-      <c r="B33" s="134"/>
+      <c r="A33" s="138"/>
+      <c r="B33" s="139"/>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="133"/>
-      <c r="B34" s="134"/>
+      <c r="A34" s="138"/>
+      <c r="B34" s="139"/>
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
       <c r="E34" s="12"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="133"/>
-      <c r="B35" s="134"/>
+      <c r="A35" s="138"/>
+      <c r="B35" s="139"/>
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
       <c r="E35" s="12"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="133"/>
-      <c r="B36" s="134"/>
+      <c r="A36" s="138"/>
+      <c r="B36" s="139"/>
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
       <c r="E36" s="12"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="133"/>
-      <c r="B37" s="134"/>
+      <c r="A37" s="138"/>
+      <c r="B37" s="139"/>
       <c r="C37" s="12"/>
       <c r="D37" s="12"/>
       <c r="E37" s="12"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="133"/>
-      <c r="B38" s="134"/>
+      <c r="A38" s="138"/>
+      <c r="B38" s="139"/>
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>
       <c r="E38" s="12"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="133"/>
-      <c r="B39" s="134"/>
+      <c r="A39" s="138"/>
+      <c r="B39" s="139"/>
       <c r="C39" s="12"/>
       <c r="D39" s="12"/>
       <c r="E39" s="12"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="133"/>
-      <c r="B40" s="134"/>
+      <c r="A40" s="138"/>
+      <c r="B40" s="139"/>
       <c r="C40" s="12"/>
       <c r="D40" s="12"/>
       <c r="E40" s="12"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="133"/>
-      <c r="B41" s="134"/>
+      <c r="A41" s="138"/>
+      <c r="B41" s="139"/>
       <c r="C41" s="12"/>
       <c r="D41" s="12"/>
       <c r="E41" s="12"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="133"/>
-      <c r="B42" s="134"/>
+      <c r="A42" s="138"/>
+      <c r="B42" s="139"/>
       <c r="C42" s="12"/>
       <c r="D42" s="12"/>
       <c r="E42" s="12"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="133"/>
-      <c r="B43" s="134"/>
+      <c r="A43" s="138"/>
+      <c r="B43" s="139"/>
       <c r="C43" s="12"/>
       <c r="D43" s="12"/>
       <c r="E43" s="12"/>
@@ -6660,47 +6730,47 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
     <mergeCell ref="A43:B43"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6708,16 +6778,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>130</v>
       </c>
@@ -6727,11 +6797,15 @@
       <c r="C1" s="9" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="87" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C2" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excell/zhr_ozhr.xlsx
+++ b/Excell/zhr_ozhr.xlsx
@@ -3,32 +3,34 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7DE9C32-DF16-4433-9806-FE32B3D35B67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A586D7-1B0F-4682-BEF5-1EF6FDF2D15D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="1095" windowWidth="25440" windowHeight="15390" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="L1" sheetId="1" r:id="rId1"/>
-    <sheet name="Part 1" sheetId="3" r:id="rId2"/>
-    <sheet name="Part 2" sheetId="4" r:id="rId3"/>
-    <sheet name="Part 3" sheetId="5" r:id="rId4"/>
-    <sheet name="Part 4" sheetId="6" r:id="rId5"/>
-    <sheet name="Part 5" sheetId="7" r:id="rId6"/>
-    <sheet name="Part 6" sheetId="8" r:id="rId7"/>
-    <sheet name="Part 7" sheetId="9" r:id="rId8"/>
-    <sheet name="L2" sheetId="2" r:id="rId9"/>
+    <sheet name="L_tittle" sheetId="10" r:id="rId1"/>
+    <sheet name="L1" sheetId="1" r:id="rId2"/>
+    <sheet name="Part 1" sheetId="3" r:id="rId3"/>
+    <sheet name="Part 2" sheetId="4" r:id="rId4"/>
+    <sheet name="Part 3" sheetId="5" r:id="rId5"/>
+    <sheet name="Part 4" sheetId="6" r:id="rId6"/>
+    <sheet name="Part 5" sheetId="7" r:id="rId7"/>
+    <sheet name="Part 6" sheetId="8" r:id="rId8"/>
+    <sheet name="Part 7" sheetId="9" r:id="rId9"/>
+    <sheet name="L2" sheetId="2" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">'Part 1'!$A:$E,'Part 1'!$1:$6</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="2">'Part 2'!$A:$E,'Part 2'!$1:$5</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="3">'Part 3'!$A:$C,'Part 3'!$1:$5</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="6">'Part 6'!$A:$B,'Part 6'!$1:$5</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Part 1'!$A$1:$E$17</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'Part 2'!$A$1:$E$15</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'Part 3'!$A$1:$C$25</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'Part 4'!$A$1:$E$42</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">'Part 6'!$A$1:$B$21</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">'Part 7'!$A$1:$E$46</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">'Part 1'!$A:$E,'Part 1'!$1:$6</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">'Part 2'!$A:$E,'Part 2'!$1:$5</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="4">'Part 3'!$A:$C,'Part 3'!$1:$5</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="7">'Part 6'!$A:$B,'Part 6'!$1:$5</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">L_tittle!$A$1:$L$47</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Part 1'!$A$1:$E$17</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Part 2'!$A$1:$E$15</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'Part 3'!$A$1:$C$25</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'Part 4'!$A$1:$E$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">'Part 6'!$A$1:$B$21</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">'Part 7'!$A$1:$E$46</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="190">
   <si>
     <t>Застройщик</t>
   </si>
@@ -701,12 +703,30 @@
   <si>
     <t>table_6</t>
   </si>
+  <si>
+    <t>от км</t>
+  </si>
+  <si>
+    <t>до км</t>
+  </si>
+  <si>
+    <t>до ПК</t>
+  </si>
+  <si>
+    <t>от ПК</t>
+  </si>
+  <si>
+    <t>Окончание работ:</t>
+  </si>
+  <si>
+    <t>Начало работ:</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -931,6 +951,13 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="Franklin Gothic Book"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1084,7 +1111,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1436,6 +1463,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1774,11 +1810,745 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4DFC98B-EF2D-41DF-886E-6F404262C6D5}">
+  <dimension ref="A1:L46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="12" width="7.28515625" customWidth="1"/>
+    <col min="13" max="21" width="11.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="18"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+    </row>
+    <row r="17" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+    </row>
+    <row r="18" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+    </row>
+    <row r="19" spans="1:12" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="144" t="s">
+        <v>169</v>
+      </c>
+      <c r="B19" s="144"/>
+      <c r="C19" s="144"/>
+      <c r="D19" s="144"/>
+      <c r="E19" s="144"/>
+      <c r="F19" s="144"/>
+      <c r="G19" s="144"/>
+      <c r="H19" s="144"/>
+      <c r="I19" s="144"/>
+      <c r="J19" s="144"/>
+      <c r="K19" s="144"/>
+      <c r="L19" s="18"/>
+    </row>
+    <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="18"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+    </row>
+    <row r="22" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="B22" s="145">
+        <f>L_tittle!R1</f>
+        <v>0</v>
+      </c>
+      <c r="C22" s="145"/>
+      <c r="D22" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="H22" s="145">
+        <f>R2</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="145"/>
+      <c r="J22" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+    </row>
+    <row r="23" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="18"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="146">
+        <f>'L1'!A3</f>
+        <v>0</v>
+      </c>
+      <c r="B24" s="146"/>
+      <c r="C24" s="146"/>
+      <c r="D24" s="146"/>
+      <c r="E24" s="146"/>
+      <c r="F24" s="146"/>
+      <c r="G24" s="146"/>
+      <c r="H24" s="146"/>
+      <c r="I24" s="146"/>
+      <c r="J24" s="146"/>
+      <c r="K24" s="146"/>
+      <c r="L24" s="146"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="146"/>
+      <c r="B25" s="146"/>
+      <c r="C25" s="146"/>
+      <c r="D25" s="146"/>
+      <c r="E25" s="146"/>
+      <c r="F25" s="146"/>
+      <c r="G25" s="146"/>
+      <c r="H25" s="146"/>
+      <c r="I25" s="146"/>
+      <c r="J25" s="146"/>
+      <c r="K25" s="146"/>
+      <c r="L25" s="146"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="146"/>
+      <c r="B26" s="146"/>
+      <c r="C26" s="146"/>
+      <c r="D26" s="146"/>
+      <c r="E26" s="146"/>
+      <c r="F26" s="146"/>
+      <c r="G26" s="146"/>
+      <c r="H26" s="146"/>
+      <c r="I26" s="146"/>
+      <c r="J26" s="146"/>
+      <c r="K26" s="146"/>
+      <c r="L26" s="146"/>
+    </row>
+    <row r="27" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+    </row>
+    <row r="28" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="18"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+    </row>
+    <row r="29" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="18"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+    </row>
+    <row r="30" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="18"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
+    </row>
+    <row r="31" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A31" s="18"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+    </row>
+    <row r="32" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A32" s="18"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
+    </row>
+    <row r="33" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A33" s="18"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
+    </row>
+    <row r="34" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A34" s="18"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="18"/>
+    </row>
+    <row r="35" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A35" s="18"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="18"/>
+    </row>
+    <row r="36" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A36" s="18"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="18"/>
+    </row>
+    <row r="37" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A37" s="18"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="18"/>
+    </row>
+    <row r="38" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A38" s="18"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="18"/>
+    </row>
+    <row r="39" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A39" s="18"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="18"/>
+    </row>
+    <row r="40" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A40" s="18"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="18"/>
+      <c r="L40" s="18"/>
+    </row>
+    <row r="41" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A41" s="18"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="18"/>
+      <c r="L41" s="18"/>
+    </row>
+    <row r="42" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A42" s="18"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="18"/>
+      <c r="L42" s="18"/>
+    </row>
+    <row r="43" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A43" s="18"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="145">
+        <f>R3</f>
+        <v>0</v>
+      </c>
+      <c r="J43" s="145"/>
+      <c r="K43" s="145"/>
+      <c r="L43" s="18"/>
+    </row>
+    <row r="44" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A44" s="18"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="18"/>
+      <c r="J44" s="18"/>
+      <c r="K44" s="18"/>
+      <c r="L44" s="18"/>
+    </row>
+    <row r="45" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A45" s="18"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="145">
+        <f>R4</f>
+        <v>0</v>
+      </c>
+      <c r="J45" s="145"/>
+      <c r="K45" s="145"/>
+      <c r="L45" s="18"/>
+    </row>
+    <row r="46" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A46" s="18"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="18"/>
+      <c r="J46" s="18"/>
+      <c r="K46" s="18"/>
+      <c r="L46" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="I45:K45"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="A19:K19"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="A24:L26"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" s="87" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C2" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC142"/>
+  <dimension ref="A1:AC144"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A118" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="O30" sqref="O30:Y30"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A85" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="L137" sqref="L137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -4796,66 +5566,66 @@
       <c r="AC139" s="75"/>
     </row>
     <row r="140" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A140" s="77"/>
-      <c r="B140" s="78"/>
-      <c r="C140" s="79"/>
-      <c r="D140" s="78"/>
-      <c r="E140" s="77"/>
-      <c r="F140" s="80"/>
-      <c r="G140" s="80"/>
-      <c r="H140" s="80"/>
-      <c r="I140" s="78"/>
-      <c r="J140" s="77"/>
-      <c r="K140" s="80"/>
-      <c r="L140" s="80"/>
-      <c r="M140" s="80"/>
-      <c r="N140" s="80"/>
-      <c r="O140" s="80"/>
-      <c r="P140" s="80"/>
-      <c r="Q140" s="80"/>
-      <c r="R140" s="80"/>
-      <c r="S140" s="80"/>
-      <c r="T140" s="80"/>
-      <c r="U140" s="80"/>
-      <c r="V140" s="80"/>
-      <c r="W140" s="80"/>
-      <c r="X140" s="78"/>
-      <c r="Y140" s="79"/>
-      <c r="Z140" s="81"/>
-      <c r="AA140" s="80"/>
-      <c r="AB140" s="80"/>
-      <c r="AC140" s="78"/>
+      <c r="A140" s="74"/>
+      <c r="B140" s="75"/>
+      <c r="C140" s="74"/>
+      <c r="D140" s="75"/>
+      <c r="E140" s="76"/>
+      <c r="F140" s="33"/>
+      <c r="G140" s="33"/>
+      <c r="H140" s="33"/>
+      <c r="I140" s="75"/>
+      <c r="J140" s="76"/>
+      <c r="K140" s="33"/>
+      <c r="L140" s="33"/>
+      <c r="M140" s="33"/>
+      <c r="N140" s="33"/>
+      <c r="O140" s="33"/>
+      <c r="P140" s="33"/>
+      <c r="Q140" s="33"/>
+      <c r="R140" s="33"/>
+      <c r="S140" s="33"/>
+      <c r="T140" s="33"/>
+      <c r="U140" s="33"/>
+      <c r="V140" s="33"/>
+      <c r="W140" s="33"/>
+      <c r="X140" s="75"/>
+      <c r="Y140" s="74"/>
+      <c r="Z140" s="33"/>
+      <c r="AA140" s="33"/>
+      <c r="AB140" s="33"/>
+      <c r="AC140" s="75"/>
     </row>
     <row r="141" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A141" s="77"/>
-      <c r="B141" s="78"/>
-      <c r="C141" s="79"/>
-      <c r="D141" s="78"/>
-      <c r="E141" s="77"/>
-      <c r="F141" s="80"/>
-      <c r="G141" s="80"/>
-      <c r="H141" s="80"/>
-      <c r="I141" s="78"/>
-      <c r="J141" s="77"/>
-      <c r="K141" s="80"/>
-      <c r="L141" s="80"/>
-      <c r="M141" s="80"/>
-      <c r="N141" s="80"/>
-      <c r="O141" s="80"/>
-      <c r="P141" s="80"/>
-      <c r="Q141" s="80"/>
-      <c r="R141" s="80"/>
-      <c r="S141" s="80"/>
-      <c r="T141" s="80"/>
-      <c r="U141" s="80"/>
-      <c r="V141" s="80"/>
-      <c r="W141" s="80"/>
-      <c r="X141" s="78"/>
-      <c r="Y141" s="79"/>
-      <c r="Z141" s="81"/>
-      <c r="AA141" s="80"/>
-      <c r="AB141" s="80"/>
-      <c r="AC141" s="78"/>
+      <c r="A141" s="74"/>
+      <c r="B141" s="75"/>
+      <c r="C141" s="74"/>
+      <c r="D141" s="75"/>
+      <c r="E141" s="76"/>
+      <c r="F141" s="33"/>
+      <c r="G141" s="33"/>
+      <c r="H141" s="33"/>
+      <c r="I141" s="75"/>
+      <c r="J141" s="76"/>
+      <c r="K141" s="33"/>
+      <c r="L141" s="33"/>
+      <c r="M141" s="33"/>
+      <c r="N141" s="33"/>
+      <c r="O141" s="33"/>
+      <c r="P141" s="33"/>
+      <c r="Q141" s="33"/>
+      <c r="R141" s="33"/>
+      <c r="S141" s="33"/>
+      <c r="T141" s="33"/>
+      <c r="U141" s="33"/>
+      <c r="V141" s="33"/>
+      <c r="W141" s="33"/>
+      <c r="X141" s="75"/>
+      <c r="Y141" s="74"/>
+      <c r="Z141" s="33"/>
+      <c r="AA141" s="33"/>
+      <c r="AB141" s="33"/>
+      <c r="AC141" s="75"/>
     </row>
     <row r="142" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A142" s="77"/>
@@ -4887,6 +5657,68 @@
       <c r="AA142" s="80"/>
       <c r="AB142" s="80"/>
       <c r="AC142" s="78"/>
+    </row>
+    <row r="143" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A143" s="77"/>
+      <c r="B143" s="78"/>
+      <c r="C143" s="79"/>
+      <c r="D143" s="78"/>
+      <c r="E143" s="77"/>
+      <c r="F143" s="80"/>
+      <c r="G143" s="80"/>
+      <c r="H143" s="80"/>
+      <c r="I143" s="78"/>
+      <c r="J143" s="77"/>
+      <c r="K143" s="80"/>
+      <c r="L143" s="80"/>
+      <c r="M143" s="80"/>
+      <c r="N143" s="80"/>
+      <c r="O143" s="80"/>
+      <c r="P143" s="80"/>
+      <c r="Q143" s="80"/>
+      <c r="R143" s="80"/>
+      <c r="S143" s="80"/>
+      <c r="T143" s="80"/>
+      <c r="U143" s="80"/>
+      <c r="V143" s="80"/>
+      <c r="W143" s="80"/>
+      <c r="X143" s="78"/>
+      <c r="Y143" s="79"/>
+      <c r="Z143" s="81"/>
+      <c r="AA143" s="80"/>
+      <c r="AB143" s="80"/>
+      <c r="AC143" s="78"/>
+    </row>
+    <row r="144" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A144" s="77"/>
+      <c r="B144" s="78"/>
+      <c r="C144" s="79"/>
+      <c r="D144" s="78"/>
+      <c r="E144" s="77"/>
+      <c r="F144" s="80"/>
+      <c r="G144" s="80"/>
+      <c r="H144" s="80"/>
+      <c r="I144" s="78"/>
+      <c r="J144" s="77"/>
+      <c r="K144" s="80"/>
+      <c r="L144" s="80"/>
+      <c r="M144" s="80"/>
+      <c r="N144" s="80"/>
+      <c r="O144" s="80"/>
+      <c r="P144" s="80"/>
+      <c r="Q144" s="80"/>
+      <c r="R144" s="80"/>
+      <c r="S144" s="80"/>
+      <c r="T144" s="80"/>
+      <c r="U144" s="80"/>
+      <c r="V144" s="80"/>
+      <c r="W144" s="80"/>
+      <c r="X144" s="78"/>
+      <c r="Y144" s="79"/>
+      <c r="Z144" s="81"/>
+      <c r="AA144" s="80"/>
+      <c r="AB144" s="80"/>
+      <c r="AC144" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="63">
@@ -4959,7 +5791,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H28"/>
   <sheetViews>
@@ -5222,11 +6054,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -5401,7 +6233,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C25"/>
   <sheetViews>
@@ -5564,7 +6396,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E42"/>
   <sheetViews>
@@ -5902,7 +6734,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E46"/>
   <sheetViews>
@@ -6268,7 +7100,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B21"/>
   <sheetViews>
@@ -6387,7 +7219,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E46"/>
   <sheetViews>
@@ -6775,37 +7607,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="D1" s="87" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C2" s="5"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>